--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="3" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="动作" sheetId="5" r:id="rId3"/>
     <sheet name="衣服" sheetId="6" r:id="rId4"/>
     <sheet name="概念" sheetId="7" r:id="rId5"/>
+    <sheet name="场景" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="801">
   <si>
     <t>角色名称</t>
   </si>
@@ -1482,6 +1483,96 @@
   </si>
   <si>
     <t>atmosphere/绪儿-阳光少女 window.safetensors</t>
+  </si>
+  <si>
+    <t>atmosphere/星空倒影｜梦幻场景系列_V1.0.safetensors</t>
+  </si>
+  <si>
+    <t>atmosphere/绪儿-超梦幻场景_V1.safetensors</t>
+  </si>
+  <si>
+    <t>dream like</t>
+  </si>
+  <si>
+    <t>atmosphere/金色传说_v1.safetensors</t>
+  </si>
+  <si>
+    <t>GdClth</t>
+  </si>
+  <si>
+    <t>atmosphere/水彩速写混合风格_v2.0.safetensors</t>
+  </si>
+  <si>
+    <t>inksketch</t>
+  </si>
+  <si>
+    <t>atmosphere/糖果世界SweetCandy_v1.1.safetensors</t>
+  </si>
+  <si>
+    <t>candy style</t>
+  </si>
+  <si>
+    <t>atmosphere/YLT _ 星海环绕_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>xcdd</t>
+  </si>
+  <si>
+    <t>atmosphere/lu小动物派对版蜡笔风_v1.safetensors</t>
+  </si>
+  <si>
+    <t>gratedcrayon,animalparty</t>
+  </si>
+  <si>
+    <t>atmosphere/游戏场景CG_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>elden</t>
+  </si>
+  <si>
+    <t>atmosphere/动漫场景_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>atmosphere/梦幻之境dreamscape_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>dreamscape</t>
+  </si>
+  <si>
+    <t>atmosphere/illugame游戏视觉场景_v2.0.safetensors</t>
+  </si>
+  <si>
+    <t>illugame</t>
+  </si>
+  <si>
+    <t>atmosphere/NORFLEET 战场氛围场景LORA_3.0.safetensors</t>
+  </si>
+  <si>
+    <t>bfbfbf,battlefield</t>
+  </si>
+  <si>
+    <t>atmosphere/赛博森林_v1.safetensors</t>
+  </si>
+  <si>
+    <t>fantasy,saibosenlin,glowing</t>
+  </si>
+  <si>
+    <t>atmosphere/绪儿-水下摄影_V2.safetensors</t>
+  </si>
+  <si>
+    <t>Underwater world</t>
+  </si>
+  <si>
+    <t>atmosphere/【超宽海报构图】绪儿-水彩风格_V1.safetensors</t>
+  </si>
+  <si>
+    <t>xuer mind bending murals</t>
+  </si>
+  <si>
+    <t>atmosphere/Nightclub夜场迪厅_v2.0.safetensors</t>
+  </si>
+  <si>
+    <t>giant lamp,giant pendent lamp,crowd,spotlights,neon, fog</t>
   </si>
   <si>
     <t>动作Lora列表</t>
@@ -2091,6 +2182,311 @@
       <t>ddjoff_v1.safetensors</t>
     </r>
   </si>
+  <si>
+    <t>concept/大花花世界_v1.safetensors</t>
+  </si>
+  <si>
+    <t>minigirl,fairy_lu,flower_world</t>
+  </si>
+  <si>
+    <t>anime girl wearing white kimono and standing near a pond watching a full moon, 1girl, japanese clothes, kimono, night, solo, outdoors, yellow eyes, floral print, looking at viewer, moon, ponytail, sky, reflection, star (sky), bangs, starry sky, sash, long hair, obi, lake, night sky</t>
+  </si>
+  <si>
+    <t>masterpiece, best quality, stunning face, symmetrical clear eyes, detailed eyes and face, detailed body, shiny skin, detailed skin, high resolution, detailed, dynamic lighting, magical girl battle scene, featuring characters in mid-air combat with intricate magic circles and vivid energy blasts, destroyed urban landscape at twilight as background, inspired by iconic dark fantasy magical girl anime, focus on realism and dramatic shadows . illustration, detailed eyes, perfect composition, intricate details</t>
+  </si>
+  <si>
+    <t>anime girl wearing white kimono and standing near a pond watching a full moon, 1girl, japanese clothes, kimono, night, solo, outdoors, yellow eyes, floral print, looking at viewer, moon, ponytail, sky, reflection, star (sky), bangs, starry sky, sash, long hair, obi, lake, night sky,</t>
+  </si>
+  <si>
+    <t>(masterpiece, high quality, perfect eyes: 1.2) magical girl anime, dusk background, wilderness, heroic, epic battle, fighting against monsters</t>
+  </si>
+  <si>
+    <t>Portrait anime girl, intricate, elegant, highly detailed, digital painting, artstation, concept art, smooth, sharp focus, illustration by gaston burdette and artgermkagaku hassaka as shibari from hyrule-rupertworld, d&amp;d, fantasy, beautiful, intense colors and hard shadows &amp; lights, rim lighting, octane render, trending on artstation, golden ratio</t>
+  </si>
+  <si>
+    <t>dark,finely detail,Depth of field,(((masterpiece))),((extremely detailed CG unity 8k wallpaper)),best quality,high resolution illustration,Amazing,intricate detail,(best illumination, best shadow, an extremely delicate and beautiful),(((Tyndall effect))),(((dense))),((fog)),((God's light)),(((backlight))),((light leaks)),((******** dust)),moss,clover,Forsythia suspensa,Erigeron annuus (L.) Pers.,rose bush,(((solo))),((1girl)),full_body,from_above,lying,knees_together_feet_apart,looking_at_viewer,small_breasts,long_hair,lolita_fashion,ribbon,foot focus,White pantyhose,</t>
+  </si>
+  <si>
+    <t>High quality, illustrations,watercolor:0.5, 1girl, the movement style, run, a dog, white shirt, white pants, one arm to wear sports watches, clouds, in the face of lens, the tree, the outdoors,cheerful candy \(module\),</t>
+  </si>
+  <si>
+    <t>(masterpiece, top quality, best quality, official art, beautiful and aesthetic:1.2),(((1girl))),extreme detailed,solo,(((hanfu))),black hair,(((long hair))),blunt bangs,medium breasts,absurdres,wallpaper,colorful,sea,looking_at_viewer,dynamic_angle,cleavage,water,swirl,water droplets,see-through,((water drops)),wet clothes,((beautiful detailed water)),((floating)),dynamic angle,liquid background, Sputtered water,((panorama)),(((dynamic pose))),</t>
+  </si>
+  <si>
+    <t>(bare shoulders:0.85),((Glowing ambiance, enchanting radiance, luminous lighting, ethereal atmosphere, mesmerizing glow, evocative hues, captivating coloration, dramatic lighting, enchanting aura)),1girl,masterpiece,best quality,1girl,(in smoke:1.1),(dynamic smokeanywhere:1.4),(upper body:1.2),(1 Chinese patterns in the middle of the girl's forehead),girl with a weak temperament,,(epic cinematic),soft nature lights,rim light,absurd,amazing,funny,itricate,hyper detailed,pink flowers,soft colors,,   white flower,,pink flowers,</t>
+  </si>
+  <si>
+    <t>masterpiece,best quality,(ray tracing,cinematic lighting),,loli,full body, sitting, looking at viewer, solo, 1girl, elf girl, long hair, green hair, [green|blue] eyes, dress, white hair flower, hair ornament, wind, leaf, tree, forest,</t>
+  </si>
+  <si>
+    <t>(Bare foot:1.2),Beautiful feet.,Beautiful feet,Sexy feet,(bare shoulders:0.85),full body photo,full body,1girl,masterpiece,girl with a weak temperament,funny,hyper detailed,soft colors,best quality,Masterpiece,best quality,movie stills,numerous in computer,looking,working,************* lighting,sunset glow,detailed details,clear facial features,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(masterpiece), (best quality),((loli)),1girl,outdoors,solo,hat,dress,flower,tulip,purple eyes,long hair,white dress,looking at viewer,ribbon,pink flower,bangs,straw hat,day,sky,blush,hair ribbon,yellow flower,blue sky,red ribbon,bare shoulders,field,bow,twintails,petals,closed mouth,off shoulder,flower field,hair between eyes,tree,cloud,plaid,off-shoulder dress,grey hair,standing,hat bow,floating hair,arm up,wind,frills,low twintails,breasts, </t>
+  </si>
+  <si>
+    <t>masterpiece,hyper quality,absurdres,insane details,Dazzling colorful light,intricate details,ultra detailed,realistic:1.4,Vivid Colors,a charming face,collarbone,Graded hair,Curled up,Floating white feathers,Flowing tulle,Light blue with white hair,Long eyelashes,Close your eyes,blisters and fish,Lovely and colorful,Light orange and blue,Girls incrystals wallpapers,In a style of pastel focus realism,Poolcoreanime beauty,translucent water,expressive hair,Whole body image,Hyperrealism,panorama,Ultra-Wide Angle,sparkle,textured skin,high details,super details,best quality,Ultra exquisite Illustration,flat-chested,smart clothes,neat wear,more conservative,a girl,beautiful nose,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best quality, masterpiece, ultra high res,1girl, Watercolor painting, lily patterns, white and light pink colors, layered flower shapes, delicate leaves and branches, spacious composition, Eastern and Western fusion, artistic elegancesanguo style, yosshi film </t>
+  </si>
+  <si>
+    <t>masterpiece,best quality,aiyouxiketang_xiongxiong,1girl,emilia,(very long hair),(heart-shaped eyes:1.1),pink eyes,solo,looking at viewer,white shirt\(sleeveless_shirt,blouse\),pink dress\(pleated skirt,microskirt\),white hair,earrings,jewelry,hair ornament,bangs,gauntlets,swept bangs,lips,closed mouth,medium breasts,garter straps,light particles,close-up,kind_smile,woman's attire,self-assured,posing,in a stylish outfit,surrounded by admiring glances,public toilet,women's toilet,washing table,mirror,neat and tidy,day,&lt;lora:SDXL Detail:-1.5&gt;,&lt;lora:20240624-1719218118212:0.6&gt;,&lt;lora:Holographic:1&gt;,</t>
+  </si>
+  <si>
+    <t>1girl,detailed background, magic circle, magic circle, magical power,Parting art, mandala,Magic Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(kawaii cute 1girl:1.3), (crossbody bag:1.5), walking shop street, bluesky, sun lighting, front lighting, (cowboy shot), front view,
+(detailed shining light blue eyes, star-shaped pupils, detailed shining hair:1.2),  headband, light smile,   midi skirt,
+(masterpiece, best quality, high resolution, absurdres, intricate details:1.3), (real photo), lens perspective, hyper detailed, ultra detailed, small details, trending on artstation, award-winning, good anatomy,
+nice hands, perfect hands, &lt;lyco:GoodHands-beta2:1&gt;, </t>
+  </si>
+  <si>
+    <t>(((masterpiece))), (((best quality))), ((ultra-detailed)), (illustration), ((an extremely delicate and beautiful)),cinematic angle,floating, (beautiful detailed eyes), (detailed light),cinematic lighting, beautifully detailed sky,(1girl), white hair, blue eyes, (high ponytail), cloak, glowing eyes,((moon)),(moonlight), starry sky, (lighting particle), fog, snow,(painting),(sketch),(bloom)</t>
+  </si>
+  <si>
+    <t>Surrealist photography, a girl in a blue dress running on the beach (seagulls hovering around her: 1.2). Birds, horizon, sunset, seagulls glide gently in the sky. A gentle breeze brushed her hair, sunshine warmed her face, and the girl floated between clouds and seagulls. The scene is calm and unique, with Fuji cameras. 50mm lens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best quality,(masterpiece:1.3),Wearing a white wedding dress, standing in front of the church window, the sunlight shining through the window,1.75 meters tal,smile,close up,(small breasts),(Holding a white bouquet in hand),((Wedding Dress))
+emilia, braid, crown braid, flower, hair flower, hair ornament, hair ribbon, long hair, pointy ears, (purple eyes:1.2), white hair, x hair ornament,
+</t>
+  </si>
+  <si>
+    <t>masterpiece,best quality,official art, extremely detailed CG unity 8k wallpaper,absurdres,8k resolution,exquisite facial features
+1girl,solo,night,stars,sky,girl,solo,night,stars,sky,cowboy shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best quality, masterpiece, illustration, ultra-detailed, beautiful detailed eyes, (1girl:1.3),smiling,bush,holding ball of light,magician, enchanting spell, high-angle view, magical forest, otherworldly beauty, casting pose, magical staff, invocation effects, soft and ethereal light, fantastical atmosphere, mystical creatures, empowering allies, enhancing abilities, elemental magic, swirling energy, pulsating aura, determination, support, vibrant colors, glowing runes, levitating, swirling leaves, teamwork, magical bonds, protective shield, guiding light, shimmering particles, enchanted surroundings, harmony with nature, hope, wisdom, ancient secrets, celestial beings, arcane knowledge, mystic symbols, spellcasting, elemental forces, </t>
+  </si>
+  <si>
+    <t>((masterpiece,best quality)), absurdres, undercut shorthair, glamorous, handsome, 1girl, solo, beach hut bar, sunlight, shade, black hair, bracelet, earrings, sunglasses, black bikini, (shirtless:1.1), round eyewear, looking over eyewear, makeup, eyeshadow, parted lips, soft light, rim light, raw photo, hyperrealism, looking back, bareback, thick, hot, thigh gap</t>
+  </si>
+  <si>
+    <t>full body,(beautiful detailed face, beautiful detailed eyes) ,
+1girl, solo, thighhighs, twintails, sitting, wariza, bangs, bow, blush, bandaid, hairclip, signature, pillow, collarbone, choker, holding, frills, babydoll, ribbon, animal ears, stuffed toy, stuffed animal, stuffed bunny, blue eyes, long hair, hair ornament, rabbit ears,object hug, white thighhighs, no shoes, purple hair, looking at viewer, very long hair, low twintails, bare shoulders,closed mouth, holding stuffed toy, hair bow, full body, bed sheet, star (symbol), hair ribbon</t>
+  </si>
+  <si>
+    <t>cinematic film still &lt;lora:冰花背景_v1:0.70&gt;, icebg, icefloralbg, 1girl, solo, lovely dress, snowflake, ice wall background, sitting on a crystal throne, highheels, elegant, . shallow depth of field, vignette, highly detailed, high budget, bokeh, cinemascope, moody, epic, gorgeous, film grain, grainy</t>
+  </si>
+  <si>
+    <t>,laiyilalp,1girl,solo,red lips,game cg,upper body,outdoors,yellow eyes,night,starry sky,stars,the milky way,lie down,lie,lying,</t>
+  </si>
+  <si>
+    <t>(masterpiece:1,2),best quality,(dream like),1girl,solo,chika fujiwara, black bow, blue eyes, blunt bangs, (hair bow:1.5), long hair, pink hair,(black dress, dress, pinafore dress, school uniform, shirt, short sleeves, shuuchiin academy school uniform, white shirt),(wearing a sundress and holding a bouquet of wildflowers,standing in a field of tall grass with a soft breeze blowing through. The scene should capture the whimsical and carefree style of Sakimichan,with a sense of peace and tranquility in the air)</t>
+  </si>
+  <si>
+    <t>(masterpiece:1.2),(best quality:1.2),(illustration:1.2),[(star background:1.2)::10],(dynamic angle),(low contrast:1.2),(contrast colour:1.2),,(paint:1.3),(painting:1.3),(1girl:1.3),,(disheveled hair:1.2), (white hair:1.3)/=(colorful highlight hair), red eyes, (detailed anima face:1.2), small breasts, bare shoulder, white dress,hair between eyes,braid,manaphy,off-shoulder dress,,frilled capelet,,(colorful background:1.2),(surrounded by colorful splashes),colorful bubbles,(bright color),flat color,(floating:1.2),(rainbow color:1.3),(color ink:0.8), (ink splashing:0.8), (color splashing:1.2), &lt;lora:jiaranv2:1&gt;</t>
+  </si>
+  <si>
+    <t>(from_above:1.5),(purple and blue background:1.1),,(1girl:1.2), solo, white_hair, medium_breasts, ((galaxy and jewelry adorns beautiful colorful dress+stocking+white knee boots):1.5), (starry_sky), (closed_mouth), (closed eyes:1.3), (floating:1.3), ((face towards the sky)),(face focus),(lying:1.5),,((falling from the sky)),((falling)),,((face towards the sky))，(hair flows upwards)，,(space_background:1.3), (scenery), (overall_view),,weightless, (floating_hair),((galaxy and jewelry adorns beautiful colorful dress+stocking):1.5),((Belts)),(leg loops),((Hosiery)),((white hair)),,(night), (galaxy:1.3), (dark_background), universe, ((earth \(planet\)):1.2), (solar system:1.3),,black footwear,((the blue water on ground reflecting the starry sky and nebula and galaxy)),,red_bowtie,light particles, shaded_face, beautiful_detailed_eyes, (milky way:1.3), (planets:1.35)</t>
+  </si>
+  <si>
+    <t>A long train of wedding dress cascading onto the floor,full body,,best quality,(masterpiece:1.3),ultra-detailed,1girl,solo,,white dress:2,wedding dress:2,frills:2,,silver hair, Wedding Ceremony,Outdoor garden,full of flowers,,Pure White Flower Marriage,bow on back,lace,,happiness, smiling,looking at viewer,</t>
+  </si>
+  <si>
+    <t>best quality，(masterpiece:1.3)，fullbody shot,ultra-detailed,solo,1girl, battle_aura, helical_visible_aura full of background,Magical Fire on hands,cool and powerful pose,,red robe, hairclip, burning aura,floating hair,floating fire,heat wave, squating,fire devil,carbonized ground,delicate_features:1.5，Pretty_Face:1.5,smiling,cool,,chromatic aberration, dark intense shadows，sharp focus，studio lighting，theatrical point of view，looking at viewer,</t>
+  </si>
+  <si>
+    <t>1girl, cowboy_shot,1girl,adorable_girl,((water drops)),wet clothes,((beautiful detailed water)),((floating)),dynamic angle,sparkling,Tyndall effect,water surface,petals,lying,((ink)),(water color),bloom effect,detailed beautiful grassland with petal,flower,butterfly,necklace,smile,petal,(((surrounded by heavy floating petal flow))),dress,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best quality,(masterpiece:1.3),fullbody,ultra-detailed,solo:1.3,1GIRL,water color,
+good-looking white Cloth swimwear,frill,Translucent skirt hem,Straw hat,medium breasts,golden hair,blue eyes,negative_hand Negative Embedding _negative_hand </t>
+  </si>
+  <si>
+    <t>colorful, 1girl, white hair, purple eyes, dual wielding, sword, holding sword, blue flames, glow, glowing weapon, light particles, wallpaper, chromatic aberration, full body,</t>
+  </si>
+  <si>
+    <t>best quality,(masterpiece:1.3),ultra-detailed,1girl,Abstract watercolor painting of a little girl,,rainbow colors::1,colorful background, colorful hair, long hair,colorful dress,balloon,,abstract watercolor painting of cartoon clouds with emoji, rainbow colors, Gradient,blue and pink tone colors,</t>
+  </si>
+  <si>
+    <t>absurdres, highres, reflection, refraction:1.4 ultra detailed:1.0, (illustration, line drawing),
+BREAK
+(ruanmei, 1girl, gloves, blue eyes, black hair, dress, breasts, high heels, chinese clothes), (((from above,dramatic angle,dynamic angle))), (good anatomy:1.2),
+(overlooking:1.3),river,waterfall,valley,blue sky,looking at viewer,magnificent view,lens flare, Detailed beautiful delicate face,finely detailed beautiful eyes and detailed face,Ray tracing,Cinematic Light,</t>
+  </si>
+  <si>
+    <t>1girl, long hair, hatsune miku, solo, twintails, thighhighs, skirt, open mouth, aqua hair, smile, aqua eyes, looking at viewer, very long hair, detached sleeves, black skirt, spotlight, white thighhighs, foreshortening, glowstick, concert, headset, standing on one leg, microphone, standing, stage, hair between eyes, breasts, headphones, stage lights, sleeveless, pleated skirt, bangs, shirt, leg up, :d, blush, outstretched arm, zettai ryouiki, teeth, small breasts,close up, &lt;lora:小皮 超动态视角 NIJI 动态构图 _v1.0:0.9&gt;, masterpiece, best quality,</t>
+  </si>
+  <si>
+    <t>(8K, masterpiece, top quality, best quality,official art, beautiful and aesthetic:1.2), 1girl, INOUE Naohisa style, aurora, bangs, bare_shoulders, breasts, constellation, crescent_moon, dress, earrings, earth_\(planet\), fireworks, galaxy, jewelry, light_particles, long_hair, milky_way, multicolored_hair, necklace, night, night_sky, off_shoulder, parted_lips, planet, shooting_star, sky, solo, space, star_\(sky\), star_\(symbol\), starry_background, starry_sky, starry_sky_print, very_long_hair</t>
+  </si>
+  <si>
+    <t>1girl,((lots of galaxy+halloween color feathers):1.3), orange tone color, cute face, Hair pumpkin, decorative art, pumpkin</t>
+  </si>
+  <si>
+    <t>hk416 \(girls' frontline\), outfit-manticore, 1girl, solo,symmetrical hand pose, long hair, white hair, white background, breasts, green eyes, simple background, looking at viewer, best quality,masterpiece,illustration,1girl,solo,full body,Fox ears,Mecha,machine,Bushy tail,Blank background,Mechanical leg,(Fluorescent color:1.5),(Laser violet:1.1),Fox fire,cowboy shot, masterpiece,Splash color,1girl, (gradient hair), white (blue) (pink:0.5) hair , very long hair, messy hair, bangs, ahoge, (gradient glass), swimsuit,ultra realistic 8k cg, flawless, clean, masterpiece, professional artwork, famous artwork, cinematic lighting, cinematic bloom, perfect face, beautiful face, fantasy, dreamlike, unreal, science fiction, lace, lace trim, lace-trimmed legwear, luxury, jewelry, diamond, pearl, gem, sapphire, ruby, emerald, intricate detail, delicate pattern, charming, alluring, seductive, erotic, enchanting, hair ornament, necklace, earrings, bracelet, armlet,halo,(((Best quality, masterpiece, ultra high res, (photorealistic:1.4), raw photo, 1girl, wet clothes, 1girl, waist up, smile, best quality, masterpiece, ultra highres, photorealistic (zentangle abstract background:1.4)
+(masterpiece, best quality, high resolution, absurdres, intricate details:1.3), illustration, lens perspective, hyper detailed, ultra detailed, small details, trending on artstation, award-winning, good anatomy,(kawaii cute detailed bikini 1girl sitting on edge of poolside, kicking water:1.3), (from below, full body, close up:1.25), girl close to water surface, girl sitting on white pool corner edge:1.2,(pure clear water drops flying in air:1.4), (splashing water, clear water:1.2), underwater, (lively atmosphere, lively crowd:1.7), volumetric lighting, (high contrast), white pool tiles,(detailed glowing light blue eyes, heart-shaped pupils), (long shining light pink hair blowing in wind:1.3), [(delicate fingers and hands):0.85], (detailed fingers), large breasts, barefoot,(sunny summer sky background,</t>
+  </si>
+  <si>
+    <t>Body Painting art of a girl,landscape photography shot with  Ricoh Theta Z1 with Built-in 14mm f-2.1,portrait photograph shot on Ilford Delta 100,1girl,Pencil skirt, halter top, peep-toe pumps,looking up,Warforged, mechanical body, integrated weapons, durable armor, clockwork enhancements, steam-powered strength,(above the clouds:1.4), best illuminate,wonderland,(some floating island,floating city:1.5),(floating girl:1.5), weightlessness,zero gravity ,giant scales,(cyberpunk city:1.8),(biopunk girl:1.5),(light rays:1.2) ,(milky way:1.3),(((luminescence))),dark atmosphere,(neon sign:1.3),skyscraper,bloom,(City of night:1.3),(star-inspired motif:1.3), white lace, (closed collar long-sleeved blouse:1.2) with frilled and ribbon, a volumey pannier under an (aesthetic cottage-core Renaissance star printed (long dress:1.2) with (lots of layered frills:1.2) and ribbons:1.2), (lace ruffle socks:1.2), star-themed accessories,hat,sitting on air</t>
+  </si>
+  <si>
+    <t>((ink)),((watercolor)),{{best quality},(expressionless),((illustration)),(beautiful detailed girl),(beautiful detailed eyes),world masterpiece theater,depth of field,(blue spark),anime face,black gauze skirt,(red and blue hair),blue eyes,focus_on_face,(((((messy_long_hair))))),Bare shoulder,very_close_to_viewers,burning sky,navel,((bustier)),flame,Rainbow in the sky,((Flames burning ice)),(((Fire  butterflys ))),(((ice crystal texture wings))),(Flying sparks),(detailed ice),{{a lo t of luminous ice crystals}},((burning feathers)),{feathers_made_of_ice},(frozen feathers),{{{ice and fire together}}}</t>
+  </si>
+  <si>
+    <t>masterpiece, best quality, absurdres, illustration, watercolor, 
+1girl, solo, long hair,  whiet dress, skirt hold, wading, sleeveless, barefoot, bare shoulders, standing, from behind, 
+outdoors, cloud, sky, water, rainbow,</t>
+  </si>
+  <si>
+    <t>(1girl flying in the sky:1.5),soho,(serafuku:1.2),white socks,solarpunk,
+masterpiece,officialart,best quality,unity 8k wallpaper,high quality texture,
+ultra-detailed,finely detail,incredibly absurdres,beautiful and aesthetic</t>
+  </si>
+  <si>
+    <t>(masterpiece, best quality, high resolution, absurdres, intricate details:1.3), illustration, lens perspective, feminine, hyper detailed, ultra detailed, small details, trending on artstation, award-winning, good anatomy,(kawaii cute detailed bikini 1girl sitting on edge of poolside, kicking water:1.3), (from below, full body, close up:1.25), (girl close to water surface, girl sitting on white pool corner edge:1.2),(pure clear water drops flying in air:1.4), (splashing water, clear water:1.2), underwater, (lively atmosphere, lively crowd:1.7), volumetric lighting, (high contrast), white pool tiles,(detailed glowing light blue eyes, heart-shaped pupils), (long shining light pink hair blowing in wind:1.3), [(delicate fingers and hands):0.85], (detailed fingers), large breasts, barefoot,(sunny summer sky background, cumulonimbus:1.25), contrail, palm trees, vivid color, (glitters), light particles,</t>
+  </si>
+  <si>
+    <t>best quality, masterpiece, illustration, ultra-detailed, beautiful detailed eyes, (1girl:1.3),,magician, enchanting spell, high-angle view, magical forest, otherworldly beauty, casting pose, magical staff, invocation effects, soft and ethereal light, fantastical atmosphere, mystical creatures, empowering allies, enhancing abilities, elemental magic, swirling energy, pulsating aura, determination, support, vibrant colors, glowing runes, levitating, swirling leaves, teamwork, magical bonds, protective shield, guiding light, shimmering particles, enchanted surroundings, harmony with nature, hope, wisdom, ancient secrets, celestial beings, arcane knowledge, mystic symbols, spellcasting, elemental forces,</t>
+  </si>
+  <si>
+    <t>sweet maids, random cute faces, super happy smiling, open mouth,,group shot, zoom camera, sweet tea party,,lots of cakes, macarons, chocolates, parfaits, cookies, land of sweets,</t>
+  </si>
+  <si>
+    <t>1girl, hatsune miku, solo, jack-o'-lantern, long hair, bat (animal), sitting, twintails, halloween, pumpkin, blue eyes, detached sleeves, moon, looking at viewer, boots, very long hair, holding, holding food, full moon, food, smile, black footwear, reflection, sleeveless, dress, skirt, crossed legs, headphones, bare shoulders, tattoo, black skirt, long sleeves, bat, halloween</t>
+  </si>
+  <si>
+    <t>masterpiece,best quality,dream like,upward view,1girl,solo,memcho, blonde hair, blue eyes, blunt bangs, demon horns, fake horns, horns, short hair,orange sneaker,orange jacket,athletic skirts,long sleeves,sitting in runway,cloudy sky,smile,outdoor,playground</t>
+  </si>
+  <si>
+    <t>masterpiece,bset quality,high quality,
+night, city, 1girl, hoodie, building, cityscape, skyscraper, shorts, standing, from behind, short hair, red hair, shoes, city lights,night,from above</t>
+  </si>
+  <si>
+    <t>&lt;lora:shine eyes01_v1.0:0.4&gt;, shine eyes01, upper_body, (depth of field:1.2), (asterpiece:1.2), (best quality:1.2), beautiful, extremely detailed CG unity 8k wallpaper,,1girl, looking at viewer, short sleeve T-shirts, uniform skirt, (smile:0.8), short ponytail, light_blush, (cat_pose:1.2),,(palm:1.3), at nightfall, summer, blue sky, brick building, street plate, &lt;lora:Tyndall effect-Light丁达尔效应_v1.1:0.5&gt;, Tyndall effect,</t>
+  </si>
+  <si>
+    <t>best quality,masterpiece,realistic,HDR,UHD,8K,masterpiece,high quality,exquisite wallpaper,16k,animation,illustration,(white_skin), 1 girl, full body, power armor, cyber knight, blurry_background, depth_of_field, eyelashes, Double horsetail, soloserious, solemn, (neon lamp skull), Large speaker, dynamic angle, (flying rainbow sparks)</t>
+  </si>
+  <si>
+    <t>masterpiece, top quality, best quality,official art, beautiful and aesthetic:1.2, 1 girl, full body, power armor, cyber knight, blurry_background, depth_of_field, eyelashes, bobo_hair, soloserious, solemn, Angry, Ferocious, (neon lamp Throne), Large speaker, Play with electric guitar, dynamic angle, (flying sparks)</t>
+  </si>
+  <si>
+    <t>1girl,solo,White hair,White hair,Gothic architecture,palaces,thrones,halls,spiderqueen,spider monster,IM-Rysj,full body,conceptual design,queen like,crown of thorns,glowing red eyes,otherworldly beings,strong sense of light,intricate use of hatching,painted by MichaelCTY(Chang Ting Yu),in the style of Dark SoulⅢ::3,dark fantasy,masterpiece,best quality,ultra detailed,photorealistic,realistic,photography,1girl,solo,crown,earrings,pearls and jewels,full body,long fingernails,night,moon,A shot with tension,(sky glows red,Visual impact,giving the poster a dynamic and visually striking appearance:1.2),(long legs:1.3),&lt;lora:绪儿-蜘蛛女皇:0.6&gt;,</t>
+  </si>
+  <si>
+    <t>(masterpiece:1.2),(best quality:1.2),(illustration:1.2),[(star background:1.2)::10],(dynamic angle),(low contrast:1.2),(contrast colour:1.2),,(paint:1.3),(painting:1.3),(1girl:1.3), loli,(disheveled hair:1.2), (white hair:1.3)/=(colorful highlight hair), red eyes, (detailed anima face:1.2), small breasts, bare shoulder, white dress、,(mini top hat),hair between eyes,braid,french braid,,manaphy,off-shoulder dress,,frilled capelet,,(colorful background:1.2),(surrounded by colorful splashes),colorful bubbles,(bright color),flat color,(floating:1.2),(rainbow color:1.3),(color ink:0.8), (ink splashing:0.8), (color splashing:1.2),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 girl, silver hair, pink-white Lolita, prayer, extremely fine hair, absolutely perfect and beautiful face, extremely fine hair, exquisite clothing, church, gothic building, rose window, curtain, status of the Virgin, pink charming, window, sky, flowers, clouds (luminous atmosphere, charming light, luminous light, ethereal atmosphere, charming colors, evocative tone,)
+</t>
+  </si>
+  <si>
+    <t>(masterpiece, best quality:1.3),1girl,yellow pupils,smile,hands up,full body,(lightning flow:1.2),short yellow hair,(Thor Sol),Norse Mythology,blue background,</t>
+  </si>
+  <si>
+    <t>(2.5D),(absurdres,incredibly absurdres, huge filesize ,ultra-detailed, highres, extremely detailed), Masterpiece, Official Art, Ultra High Resolution, 1 Girl, Jewelry, Solo, Upper Body, Earrings, Hair Accessories, Business Dress, White Background, Diamond Necklace, Look at the Audience, Crown, Long Hair, Blue Hair Flower, Veil Outdoor, Upper Cloud, church, Medieval, Best Quality, dynamic angle,lens flare, 8k,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wide shot,(depth of field),global illumination,soft shadows,grand scene,backlight,lens flare,((colorful refraction)),((cinematic lighting)),in the market,looking outside,with butterfly,1girl with lightblue long hair and blue aqua eyes,hair flowers,hime cut,sunlight,blurry background,blurry,White Dress,full of flowers,light bule butterfly, from side,floating hair
+</t>
+  </si>
+  <si>
+    <t>Full body image,ultra high perspective,girl,light blue hair,covered in paint,colorful,gradient,transparent clothes soaked in paint,lying on the frame,paint bucket,brushes,crayons,sprinkled with paint,paper,paint board,panicked,panicked,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masterpiece, best quality, 8k, ultra highs, in a night scene, rainwater dribbles down on a deserted garden. The lonely person sat on the grass, his body slightly lowered, his eyes revealing endless sadness. Surrounded by withered flowers and broken sculptures, he symbolized his heavy heart. The street lamp emitting a faint light in the distance, like a dim hope, adds a hint of melancholy to the entire picture.
+</t>
+  </si>
+  <si>
+    <t>(masterpiece, best quality, high resolution, absurdres, intricate details:1.3), illustration, lens perspective, feminine, hyper detailed, ultra detailed, small details, trending on artstation, award-winning, good anatomy,,(kawaii cute detailed bikini 1girl sitting on edge of poolside, kicking water:1.3), (from below, full body, close up:1.25), (girl close to water surface, girl sitting on white pool corner edge:1.2),,(pure clear water drops flying in air:1.4), (splashing water, clear water:1.2), underwater, (lively atmosphere, lively crowd:1.7), volumetric lighting, (high contrast), white pool tiles,,(detailed glowing light blue eyes, heart-shaped pupils), (long shining light pink hair blowing in wind:1.3), [(delicate fingers and hands)::0.85], (detailed fingers), large breasts, barefoot,,(sunny summer sky background, cumulonimbus:1.25), contrail, palm trees, vivid color, (glitters), light particles,</t>
+  </si>
+  <si>
+    <t>((masterpiece, side lighting, finely detailed beautiful eyes:1.2)),ultra-detailed,ultra-high res,professional lighting,beautiful,detailed eyes,big eyes,a clear sky,long white hair,white cat ear,18 years old,swimwear,elegance,cute,on the beach by the sea,beach mat,beach umbrella,bare feet,fruit juice,beach chairs,skirt, xinhailp,&lt;lora:xinhailp:0.7,&gt;</t>
+  </si>
+  <si>
+    <t>(masterpiece, best quality:1.2),pov,
+1girl,freefit,alternate costume,solo,pointy ears,color eyes,middle breast,blush,(smile|smirk),color shirt,color strapless bra,color panties,open clothes,
+indoors,hotel room,</t>
+  </si>
+  <si>
+    <t>((masterpiece)),perfect anatomy,(full body:1.2),(1girl,solo,cute,messy hair,large breasts, closed eyes, jk,school uniform, pleated skirt, necktie, bare legs, barefoot),close-up, sleeping,lying,,messy room,on bed, on stomach, white bed sheet, good hands,nice hands,,highres,high quality, best shadow,best best quality, extremly detailed CG Unity 8K Wallpaper,wallpaper,</t>
+  </si>
+  <si>
+    <t>8k portrait of beautiful Ruined City, intricate, elegant, highly detailed, majestic, digital photography, hdr, Botanical Garden, Overhead view, Looking down from top, girl hand, black eyes,</t>
+  </si>
+  <si>
+    <t>1 girl, full body, long pink hair, fine hair, messy hair, Lolita, middle hair, front lying flat in the water, hair floating on top, surrounded by cloth, cloth hanging from above, falling paper, perfect realistic shadow, extremely fine hair, absolutely perfect and beautiful face, extremely fine hair, exquisite clothing background blue background, red rose, candlelight, wax paper, gem light, starry sky, night view,((glowing atmosphere, charming light, glowing light, ethereal atmosphere, charming light, evocative tones, charming colors, dramatic light, charming aura) (dynamic smoke: 1.4) extremely high resolution, 8K, wallpaper</t>
+  </si>
+  <si>
+    <t>(masterpiece, best quality:1.3), 1girl, one-piece swimsuit, skateboard, (the rope dragged the electric fan:1.1), (circular electric fan:1.3), sea, water, outdoor, blue sky, cloud,</t>
+  </si>
+  <si>
+    <t>(1girl), extreme detailed,(abstract, fractal art:1.3),colorful hair, colorfull scene, highest detailed, detailed_eyes, fire, water, ice, lightning, light_particles, ghost,</t>
+  </si>
+  <si>
+    <t>psychedelic style 1girl, solo, wide shot,  lying in the space, (broad spread dress made of galaxy and stars:1.3), bare shoulders, strapless, jewelry, earrings, blonde hair, long hair, high angle shot, surreal, fantasy, dreamy,, masterpiece, best quality, highres, delicate details, . vibrant colors, swirling patterns, abstract forms, surreal, trippy</t>
+  </si>
+  <si>
+    <t>Indescrible, far beyond human, one god, deep, profound, endless abyss, space distortion, disorder, no sex, humanoid, feminine, astral, dark cosmic background, dim starlight</t>
+  </si>
+  <si>
+    <t>lishalp,full body,day,Absurdres,highres,ultradetailed,(1girl_1.3),holding,gloves,solo,(big long legs:1.5),charming,indoors,sitting,purple witch hat,library,(black silk:1.3),crossed legs,</t>
+  </si>
+  <si>
+    <t>(masterpiece),(topquality),(bestquality),(ultrahighres),1girl,dalcefopainting,absurdlylonghair,neonlights,</t>
+  </si>
+  <si>
+    <t>finely detail,Depth of field,(((masterpiece))),((extremely detailed CG unity 8k wallpaper)),best quality,high resolution illustration,Amazing,highres,intricate detail,best illumination,best shadow,1girl,solo,white pantyhose,curtains,curtain grab,long hair,school uniform,skirt,window,serafuku,looking at viewer,smile,blue eyes,pleated skirt,blush,sitting,short sleeves,white shirt,shirt,indoors,sailor collar,socks,blue skirt,midriff peek,bangs,kneehighs,index finger raised,black socks,finger to mouth,</t>
+  </si>
+  <si>
+    <t>(Masterpiece), (best quality), huge crystal wings, 1 girl, reality, crystal, Jewelry, Refraction, c4d, beautiful background, complex background, Level, Depth of Field, Dress,</t>
+  </si>
+  <si>
+    <t>A oversized and loose colorful dress, with fluffy and dense long hair, slender legs, leaning forward, cheerful eyes, mature charm, tall figure, full and round thighs, huge chest circumference, overturned to the ground, blue rose tattoo, jumpsuit over waist socks, lying heavily on the bed</t>
+  </si>
+  <si>
+    <t>, dynamic, super detail, selle shadow, 8k detail post-processing, grandeur, super realism, 8k, epic composition, complex detail, masterpiece, best quality, 1girl, in a jar, jar, simple background, full body, flower, sitting,erune,Hourglass,Twisted time, many blue clocks,Spatial distortion,Crossing time,twisted clock, crack, blue background, master's Work, Masterpiece, 8k,120 Frames, A Girl Flying, Eyes Shining, Broken Void, Blue Rose, Gothic Art, Dream, Starry Sky, Girl with Blue and Purple Hair, Blue Rose Sea, Shoulder Shoulder, Long Hair Fluttering, Sea, Aestheticism. Classical, long skirt, gorgeous skirt, bubble sleeves, carrying skirt, noble, elegant lady, blue rose, beautiful, blue rose hair accessories, walking in the blue rose garden, correct human body proportions, multi-layer skirt, rose necklace, rose earrings, holding a large bunch of blue roses</t>
+  </si>
+  <si>
+    <t>(masterpiece:1,2),best quality,(highres:1.1),original,extremely detailed wallpaper,perfect lighting,(extremely detailed CG:1.2),
+1girl,demon wings,night city,a giant moon,transparent gauze clothing,long hair drifting in the wind,(see-through:1.2),hair flower,french braid,(lace:1.2),reflective,(a glowing body:1.1),(wide_shot:1.4),(sunahara yoshimi:1.2),medium breasts,</t>
+  </si>
+  <si>
+    <t>hair over one eye, headband, holding, holding sword, katana, long hair, smile, solo, sword, weapon,anime girl with long black hair holding a sword and wearing a black cape, onmyoji, from arknights, unsheathing her katana, artwork in the style of guweiz, holding a katana, artistic render of reimu hakurei, holding a black katana, beautiful sword, long sword in her hand, girls frontline cg, miko, holding katana, she is holding a katana sword, wielding a katana, fine details. girls frontline, kano tan'yu, the style of wlop, katana in hand, visual novel cg, girls frontline style, wielding daggers, she is holding a sword, anime fantasy artwork,mihoyo art style, beautiful anime style, holding sword, pretty anime character design,(solo)</t>
+  </si>
+  <si>
+    <t>Girl, beautiful, cherry blossom, big cherry blossom, petal falling, grand scene, elegant, dreamy, illusory, warm light, light pink semi transparent long dress, crystal crown, lace necklace, lady hairstyle, mature woman, messy long hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{masterpiece}}, flat chestbest quality},{highres},solo,flat_chest,a girl inside the church with white hair and blue pupil surrounded by {many} glowing {feathers} in cold face,detailed face,night with bright colorful lights whith richly layered clouds and clouded moon in the detailed sky,{a lot of glowing particles},high ponytail,mecha clothes,robot girl,cool movement,sliver bodysuit,{filigree},delicate and (intricate) hair,((sliver)) and (broken) body,blue streaked hair,full body,Depth of field, sitting on a {blue star}_x0005_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a girl,Phoenix girl,fluffy hair,war,a hell on earth,Beautiful and detailed explosion,Cold machine,Fire in eyes,World War,burning,Metal texture,Exquisite cloth,Metal carving,volume,best quality,normal hands,Metal details,Metal scratch,Metal defects,{{masterpiece}},best quality,official art,4k,best quality,extremely detailed CG unity 8k,illustration,highres,masterpiece,contour deepening,Azur Lane,Girls' Front,Magical，Cloud Map Plan,contour deepening，long-focus，Depth of field，a cloudy sky，Black smoke,smoke of gunpowder, long-focus，Mature, resolute eyes, burning, burning sky, burning hair,Burn oneself in flames, fighting，Covered in blood，complex pattern，battleing，Flying flames，Flame whirlpool，Doomsday Scenes，float，Splashing blood,on the battlefield，Bloody scenes，Good looking flame，Exquisite Flame，Exquisite Blood,photorealistic,Watercolor,colourful, (((masterpiece))),best quality, illustration,beautiful detailed glow,detailed ice,beautiful detailed water,red moon, (magic circle:1,2), (beautiful detailed eyes),expressionless,beautiful detailed white gloves, own hands clasped, (floating palaces:1.1),azure hair,disheveled hair,long bangs, hairs between eyes, dark dress, (dark magician girl:1.1),black kneehighs, black ribbon,white bowties,midriff,{{{half closed eyes}}},,big forhead,blank stare,flower,large top sleeves,, (((masterpiece))),best quality, illustration,(beautiful detailed girl),beautiful detailed glow,detailed ice,beautiful detailed water,(beautiful detailed eyes),expressionless,beautiful detailed white gloves, (floating palaces:1.2),azure hair,disheveled hair,long bangs, hairs between eyes, (skyblue dress),black ribbon,white bowties,midriff,{{{half closed eyes}}},,big forhead,blank stare,flower,large top sleeves,(((ice crystal texture wings)),(((ice and fire melt)))
+</t>
+  </si>
+  <si>
+    <t>Masterpiece, the best quality, exquisite facial features, super delicate face,
+1 woman, sitting in a chair, crossing her legs, holding her chest with both hands, with a cold face,
+(Woman, big breasts, cleavage, long pink hair, blue eyes, black dress, long legs, high heels, earrings: 1.6)
+Keywords sunshine, large panoramic French window, modern city,</t>
+  </si>
+  <si>
+    <t>1 girl,bare shoulders,fresh bouquet,medium breasts,bride's veil,(wedding dress:1.2),(white dress),brown eyes,purple hair,cleavage,collarbone,earrings,flowers,bouquet,holding,jewelry,lipstick,looking at the audience,makeup,necklace,pink rose,rose,while,sample,</t>
+  </si>
+  <si>
+    <t>Masterpiece,high quality,beautiful illustration,16K,HD,A dome-shaped glass room with a beautiful starry sky visible through the glass on the ceiling,There are stars of various constellations in the sky,The dazzling starry sky,A beautiful girl drinks coffee and reads a book in a cafe,girl in white off-the-shoulder dress,long skirt,brown wavy hair,The girl is 15 years old,sitting by the window,Ghibli Studio style,Surreal magic color,</t>
+  </si>
+  <si>
+    <t>masterpiece,((perfect female body)),a girl,solo,adult,full body,white_skin,slender,black hair,blue eyes,power_armor,from behind,looking_back,holding_gun,expressionless,standing,spread legs,from_below,cyberpunk,city_lights,ban,incredibly absurdres,wallpaper,artbook,</t>
+  </si>
+  <si>
+    <t>best quality,(masterpiece:1.3),fullbody,ultra-detailed,solo:1.3,1GIRL,sitting,bare leg，,((sakura kimono,black hair,hair ornaments, long hair)), form below,,scenery, architecture, east asian architecture, cloud, lantern, outdoors, sky, pater lantern, bridge, mountain, building, cherry blossoms, petals, pagoda,delicate_features:1.3,pretty_face:1.3,smiling,pure,lovely,looking at viewer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masterpiece, best quality,1 girl, adult (elven:0.7) woman, green eyes, gray drill hair,(style-swirlmagic:0.8), solo, (full body:0.6), looking down, detailed background, detailed face, (&lt;lyco:CulturePunkBundle-000007:0.5&gt;, fairytaleai, fairytale theme:1.1), mercury-sorcerer, stoic, surrounded by splashes of shining silver, silver (armor:0.8), alchemical imagery,harnessing mercury , fluid mercury, heavy metallic liquid, silver-colored fluid, mercury transformation, shiny, dynamic pose, fluid movement, floating particles, drops of mercury, flowing metal, quicksilver symphony, reflecting lights in background, crystallized mercury formations, cinematic lighting, cinematic atmosphere,
+</t>
+  </si>
+  <si>
+    <t>1girl,fair_skin,slender,round face,black hair,ponytail,pink eyes,bright_pupils,pointed nose,small_breasts,narrow_waist,sportswear,socks,colored_stripes,shoes,bracer,knee_pads,standing,hands_on_hips,game cg,Cinematic Lighting,colored_pencil_(medium),day,full_shot,cinematic_angle,masterpiece,best quality,top quality,ultra highres,8k hdr,8k wallpaper,RAW,huge file size,intricate details,sharp focus,natural lighting,professional,delicate,amazing,finely detailed,beautiful detailed,colourful,stadium,</t>
+  </si>
+  <si>
+    <t>(masterpiece, top quality, best quality, official art,(beautiful and aesthetic:1.2),huge breast,extreme detailed,(fractal art:1.3),(zentangle:1.2),colorful,visual chaos,fluid movement,captivating patterns,highest detailed,1 girl,solo,standing,looking at viewer,full body,adult (elven:0.7) woman,portrait,solo,detailed background,detailed face,(militarist authoritarian dictatorship theme:1.1),angry expression,dark fighter,unholy,gray clothes,spiked armor,spiders in background,flames in background,misty dark sinister atmosphere,short hair,white hair,Mars,The battlefield,Two-handed sword, bangs,gundam,highly realistic,glassy translucence,graceful poses,blink-and-you-miss-it detail,Sci-fi light effects,(Illuminated circuit board:1.6),outdoors,building,cloud,milkyway,city,silhouette,cityscape</t>
+  </si>
 </sst>
 </file>
 
@@ -2102,10 +2498,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2629,16 +3032,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2647,132 +3047,141 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3496,1641 +3905,1641 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="15.875" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="15.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.7</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D7" si="0">D3+0.05</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
     </row>
     <row r="7" ht="189" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" ht="162" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="175.5" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="202.5" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="216" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" ht="202.5" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" ht="81" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" ht="121.5" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" ht="67.5" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" ht="94.5" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" ht="189" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" ht="54" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" ht="121.5" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" ht="81" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" ht="148.5" spans="1:3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="33" ht="54" spans="1:3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" ht="94.5" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="38" ht="67.5" spans="1:3">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40" ht="81" spans="1:3">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41" ht="54" spans="1:3">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" ht="54" spans="1:3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="43" ht="54" spans="1:3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44" ht="27" spans="1:3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" ht="202.5" spans="1:3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="48" ht="54" spans="1:3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="49" ht="135" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="50" ht="94.5" spans="1:3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="51" ht="40.5" spans="1:3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="3" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="53" ht="94.5" spans="1:3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="54" ht="54" spans="1:3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="55" ht="108" spans="1:3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="56" ht="175.5" spans="1:3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="57" ht="54" spans="1:3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="58" ht="40.5" spans="1:3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="59" ht="121.5" spans="1:3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="60" ht="54" spans="1:3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="62" ht="81" spans="1:3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="63" ht="54" spans="1:3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="64" ht="54" spans="1:3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="65" ht="40.5" spans="1:3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="66" ht="27" spans="1:3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="67" ht="54" spans="1:3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="68" ht="54" spans="1:3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="69" ht="40.5" spans="1:3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="71" ht="108" spans="1:3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="72" ht="67.5" spans="1:3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="3" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="73" ht="67.5" spans="1:3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="74" ht="148.5" spans="1:3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="3" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="75" ht="108" spans="1:3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="76" ht="108" spans="1:3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="77" ht="108" spans="1:3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="78" ht="40.5" spans="1:3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="79" ht="67.5" spans="1:3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="80" ht="81" spans="1:3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="81" ht="54" spans="1:3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="82" ht="67.5" spans="1:3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="83" ht="54" spans="1:3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="84" ht="40.5" spans="1:3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="85" ht="121.5" spans="1:3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="86" ht="54" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="87" ht="67.5" spans="1:3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="88" ht="108" spans="1:3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="89" ht="94.5" spans="1:3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="90" ht="148.5" spans="1:3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="3" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="91" ht="54" spans="1:3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="92" ht="54" spans="1:3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="3" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="93" ht="54" spans="1:3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="94" ht="162" spans="1:3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="95" ht="162" spans="1:3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="96" ht="54" spans="1:3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="3" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="97" ht="54" spans="1:3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="98" ht="54" spans="1:3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="3" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="99" ht="54" spans="1:3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="100" ht="54" spans="1:3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="3" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="101" ht="54" spans="1:3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="102" ht="54" spans="1:3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="103" ht="121.5" spans="1:3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="104" ht="81" spans="1:3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="105" ht="40.5" spans="1:3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" ht="67.5" spans="1:3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="107" ht="54" spans="1:3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="108" ht="54" spans="1:3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="3" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="109" ht="54" spans="1:3">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="110" ht="54" spans="1:3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="3" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="111" ht="40.5" spans="1:3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="112" ht="40.5" spans="1:3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="113" ht="108" spans="1:3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="114" ht="283.5" spans="1:3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="3" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="115" ht="94.5" spans="1:3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="116" ht="67.5" spans="1:3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="3" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="117" ht="121.5" spans="1:3">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="118" ht="54" spans="1:3">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="3" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="119" ht="81" spans="1:3">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="3" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="120" ht="40.5" spans="1:3">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="3" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="121" ht="67.5" spans="1:3">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="3" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="122" ht="135" spans="1:3">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="3" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="123" ht="40.5" spans="1:3">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="124" ht="54" spans="1:3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="3" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="125" ht="108" spans="1:3">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="126" ht="121.5" spans="1:3">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="127" ht="94.5" spans="1:3">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="128" ht="40.5" spans="1:3">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="3" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="129" ht="67.5" spans="1:3">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="130" ht="40.5" spans="1:3">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="3" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="131" ht="54" spans="1:3">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="132" ht="67.5" spans="1:3">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="133" ht="81" spans="1:3">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="134" ht="175.5" spans="1:3">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="3" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="135" ht="27" spans="1:3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="136" ht="40.5" spans="1:3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" s="3" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="137" ht="27" spans="1:3">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="3" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="138" ht="108" spans="1:3">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" s="3" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="139" ht="27" spans="1:3">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="140" ht="162" spans="1:3">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="3" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="141" ht="27" spans="1:3">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="142" ht="54" spans="1:3">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" s="3" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="143" ht="148.5" spans="1:3">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="144" ht="27" spans="1:3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="3" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="145" ht="27" spans="1:3">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C145" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="146" ht="27" spans="1:3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" s="3" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="147" ht="27" spans="1:3">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" s="3" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5182,681 +5591,745 @@
   <sheetPr/>
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="39.625" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="15.875" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="39.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="3" ht="94.5" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="40.5" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="4" ht="81" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="40.5" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="5" ht="94.5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="40.5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="6" ht="108" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="40.5" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="7" ht="94.5" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="40.5" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="8" ht="94.5" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="40.5" spans="1:2">
+      <c r="A8" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="9" ht="94.5" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" ht="40.5" spans="1:2">
+      <c r="A9" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="10" ht="121.5" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" ht="40.5" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="11" ht="94.5" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="40.5" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="12" ht="81" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" ht="40.5" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="13" ht="81" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" ht="40.5" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="14" ht="94.5" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" ht="40.5" spans="1:2">
+      <c r="A14" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="15" ht="67.5" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" ht="27" spans="1:2">
+      <c r="A15" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" ht="94.5" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row r="17" ht="40.5" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="18" ht="40.5" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="20" ht="40.5" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="20" ht="27" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="21" ht="40.5" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="22" ht="67.5" spans="1:2">
-      <c r="A22" s="1" t="s">
+    <row r="22" ht="27" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="23" ht="94.5" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="23" ht="40.5" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="25" ht="67.5" spans="1:2">
-      <c r="A25" s="1" t="s">
+    <row r="25" ht="27" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="26" ht="67.5" spans="1:2">
-      <c r="A26" s="1" t="s">
+    <row r="26" ht="27" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="27" ht="54" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="28" ht="54" spans="1:1">
-      <c r="A28" s="1" t="s">
+    <row r="28" ht="27" spans="1:1">
+      <c r="A28" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+    <row r="29" ht="27" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A31" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A37" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5875,637 +6348,637 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="15.875" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="15.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>484</v>
+      <c r="A1" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>483</v>
+      <c r="B2" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>486</v>
+      <c r="A3" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>488</v>
+      <c r="A4" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>490</v>
+      <c r="A5" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>492</v>
+      <c r="A6" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="7" ht="81" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>494</v>
+      <c r="A7" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>496</v>
+      <c r="A8" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="9" ht="108" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>498</v>
+      <c r="A9" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>500</v>
+      <c r="A10" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>502</v>
+      <c r="A11" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>504</v>
+      <c r="A12" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="13" ht="54" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>506</v>
+      <c r="A13" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>508</v>
+      <c r="A14" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>510</v>
+      <c r="A15" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6524,810 +6997,810 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="15.875" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="15.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>512</v>
+      <c r="A1" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>511</v>
+      <c r="B2" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>514</v>
+      <c r="A3" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>516</v>
+      <c r="A4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>518</v>
+      <c r="A5" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>520</v>
+      <c r="A6" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>522</v>
+      <c r="A7" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>524</v>
+      <c r="A8" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>526</v>
+      <c r="A9" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>528</v>
+      <c r="A10" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>530</v>
+      <c r="A11" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>532</v>
+      <c r="A12" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>533</v>
+      <c r="A13" s="3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>535</v>
+      <c r="A14" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>537</v>
+      <c r="A15" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="16" ht="67.5" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>539</v>
+      <c r="A16" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>541</v>
+      <c r="A17" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="18" ht="40.5" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>543</v>
+      <c r="A18" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>545</v>
+      <c r="A19" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="20" ht="54" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>547</v>
+      <c r="A20" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>549</v>
+      <c r="A21" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="22" ht="40.5" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>551</v>
+      <c r="A22" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>553</v>
+      <c r="A23" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>555</v>
+      <c r="A24" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>557</v>
+      <c r="A25" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="26" ht="67.5" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>559</v>
+      <c r="A26" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="27" ht="40.5" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>561</v>
+      <c r="A27" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="28" ht="40.5" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>563</v>
+      <c r="A28" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="29" ht="67.5" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>565</v>
+      <c r="A29" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="30" ht="54" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>567</v>
+      <c r="A30" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>569</v>
+      <c r="A31" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="32" ht="67.5" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>571</v>
+      <c r="A32" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>573</v>
+      <c r="A33" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="34" ht="54" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>549</v>
+      <c r="A34" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>576</v>
+      <c r="A35" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>578</v>
+      <c r="A36" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>579</v>
+      <c r="A37" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>581</v>
+      <c r="A38" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="39" ht="67.5" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>583</v>
+      <c r="A39" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="40" ht="40.5" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>585</v>
+      <c r="A40" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="41" ht="40.5" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>587</v>
+      <c r="A41" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="42" ht="54" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>589</v>
+      <c r="A42" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="43" ht="54" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>591</v>
+      <c r="A43" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>593</v>
+      <c r="A44" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="45" ht="67.5" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>595</v>
+      <c r="A45" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="46" ht="67.5" spans="1:2">
-      <c r="A46" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>597</v>
+      <c r="A46" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="47" ht="94.5" spans="1:2">
-      <c r="A47" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>599</v>
+      <c r="A47" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="48" ht="135" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>601</v>
+      <c r="A48" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="49" ht="67.5" spans="1:2">
-      <c r="A49" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>603</v>
+      <c r="A49" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="50" ht="40.5" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>605</v>
+      <c r="A50" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="51" ht="40.5" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>607</v>
+      <c r="A51" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="52" ht="40.5" spans="1:2">
-      <c r="A52" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>609</v>
+      <c r="A52" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="53" ht="40.5" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>611</v>
+      <c r="A53" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="54" ht="40.5" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>613</v>
+      <c r="A54" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="55" ht="40.5" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>615</v>
+      <c r="A55" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="56" ht="67.5" spans="1:2">
-      <c r="A56" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>617</v>
+      <c r="A56" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="57" ht="54" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>619</v>
+      <c r="A57" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="58" ht="108" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>621</v>
+      <c r="A58" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="59" ht="54" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>623</v>
+      <c r="A59" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7340,696 +7813,1186 @@
   <sheetPr/>
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.25" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="37.25" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="37.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>625</v>
+      <c r="A1" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>624</v>
+      <c r="B2" s="3" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="14" ht="54" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="17" ht="54" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" ht="81" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="30" ht="67.5" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>709</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:A94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:2">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:2">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="7" ht="54" spans="1:2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="10" ht="54" spans="1:2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" ht="54" spans="1:2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="14" ht="54" spans="1:2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="1:2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="17" ht="54" spans="1:2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="18" ht="54" spans="1:2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="19" ht="54" spans="1:2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" spans="1:1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="21" ht="81" spans="1:2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="22" ht="67.5" spans="1:2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" spans="1:2">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="25" ht="40.5" spans="1:2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="26" ht="40.5" spans="1:2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="27" ht="40.5" spans="1:2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="28" ht="40.5" spans="1:2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="29" ht="54" spans="1:2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="30" ht="67.5" spans="1:2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:2">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="855">
   <si>
     <t>角色名称</t>
   </si>
@@ -115,7 +115,7 @@
     <t>asamiya_athena.safetensors</t>
   </si>
   <si>
-    <t>aa1, purple hair, long hair, hairband, long hair, necklace, bike shorts, earrings, red dress, medium breasts, puffy short sleeves, white sleeves, wristband</t>
+    <t>aa1, purple hair, long hair, hairband, long hair, necklace,  earrings</t>
   </si>
   <si>
     <t>asuna</t>
@@ -133,6 +133,9 @@
     <t>d.va_v1.safetensors</t>
   </si>
   <si>
+    <t xml:space="preserve">aahana, long hair, brown hair, headphones, whisker markings, </t>
+  </si>
+  <si>
     <t>aahana, long hair, brown hair, headphones, whisker markings, shoulder pads, blue bodysuit, ribbed bodysuit, animal print, clothes writing, long sleeves, white gloves</t>
   </si>
   <si>
@@ -211,15 +214,6 @@
     <t>blonde hair,long hair,multicolored hair,(red eyes:0.9)</t>
   </si>
   <si>
-    <t>终焉之律者</t>
-  </si>
-  <si>
-    <t>K423.safetensors</t>
-  </si>
-  <si>
-    <t>breasts,dress, earrings,blue_eyes,pupils sparkling, ponytail,jewelry, very_long_hair,</t>
-  </si>
-  <si>
     <t>blny</t>
   </si>
   <si>
@@ -271,6 +265,9 @@
     <t>chi-chi_v1.safetensors</t>
   </si>
   <si>
+    <t xml:space="preserve">dragon ball, bbchichi, (low ponytail:1.1), black eyes, </t>
+  </si>
+  <si>
     <t>dragon ball, bbchichi, (low ponytail:1.1), black eyes, chinese clothes, blue dress, sleeveless, wristband, sash</t>
   </si>
   <si>
@@ -413,15 +410,6 @@
   </si>
   <si>
     <t>Matsumoto Rangiku</t>
-  </si>
-  <si>
-    <t>mercury</t>
-  </si>
-  <si>
-    <t>mercury_v2.safetensors</t>
-  </si>
-  <si>
-    <t>mer1, dark blue hair</t>
   </si>
   <si>
     <t>hatsunemiku</t>
@@ -521,15 +509,6 @@
     <t xml:space="preserve">purple eyes, purple hair,earrings, parted lips,sunglasses,  eyewear on head,star-kafka, </t>
   </si>
   <si>
-    <t>始源之律者</t>
-  </si>
-  <si>
-    <t>mei.safetensors</t>
-  </si>
-  <si>
-    <t>purple_eyes, very_long_hair, bangs, raiden_mei, dress, bare_shoulders, hair_ornament, cleavage,deep_blue_hair, thighhighs, gloves, cleavage,ponytail,</t>
-  </si>
-  <si>
     <t>pyra</t>
   </si>
   <si>
@@ -563,21 +542,15 @@
     <t>ro1, hair bun, blue eyes, twintails, visor cap</t>
   </si>
   <si>
-    <t>sailormars</t>
-  </si>
-  <si>
-    <t>sailor_mars_v1.safetensors</t>
-  </si>
-  <si>
-    <t>sama1, tiara, black hair</t>
-  </si>
-  <si>
     <t>samus</t>
   </si>
   <si>
     <t>samus-nvwls-v1-final.safetensors</t>
   </si>
   <si>
+    <t>samus aran, ponytail, hair tie, yellow hair,</t>
+  </si>
+  <si>
     <t>samus aran, ponytail, hair tie, blue gloves, blue bodysuit, high heels</t>
   </si>
   <si>
@@ -632,7 +605,7 @@
     <t>Ino.safetensors</t>
   </si>
   <si>
-    <t>yamanaka ino, hair over one eye, ponytail, hairclip</t>
+    <t>yamanaka ino, hair over one eye, ponytail, hairclip, yellow hair,</t>
   </si>
   <si>
     <t>yamato</t>
@@ -1341,6 +1314,70 @@
     <t>sakura,pink hair</t>
   </si>
   <si>
+    <t>芙卡洛斯</t>
+  </si>
+  <si>
+    <t>芙宁娜 芙卡洛斯 （原神）_s-ver.safetensors</t>
+  </si>
+  <si>
+    <t>furina,hat</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>动漫[Tsumasaky] C.C. - Code Geass_v2.0.safetensors</t>
+  </si>
+  <si>
+    <t>c.c.</t>
+  </si>
+  <si>
+    <t>琳妮特</t>
+  </si>
+  <si>
+    <t>【原神】琳妮特 超逼真_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>star \(symbol\), blue eyes, grey hair, facial mark, purple eyes, smile, earrings,
+cat ears, animal ears, bangs, animal ear fluff, medium breasts, purple eyes</t>
+  </si>
+  <si>
+    <t>黑塔</t>
+  </si>
+  <si>
+    <t>【崩坏星穹铁道】黑塔 超逼真lora_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>(long hair, purple eyes, hat, bangs, brown hair, blush, breasts, beret, doll joints, flower, hair ornament, very long hair)</t>
+  </si>
+  <si>
+    <t>寒鸦</t>
+  </si>
+  <si>
+    <t>【崩坏：星穹铁道】- 寒鸦_1.0.safetensors</t>
+  </si>
+  <si>
+    <t>hanya,1girl,solo,grey eyes,feather hair ornament，</t>
+  </si>
+  <si>
+    <t>知更鸟</t>
+  </si>
+  <si>
+    <t>知更鸟 （崩坏：星穹铁道)_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>1girl,solo,halo,long hair,blue hair,hair ornament,earrings,mole,blue eyes,jewelry,head wings,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白露 </t>
+  </si>
+  <si>
+    <t>白露 （崩坏：星穹铁道）_m-ver.safetensors</t>
+  </si>
+  <si>
+    <t>1girl,horns,purple hair,long hair,twin braids,pointy ears,  multicolored eyes,dragon tail,</t>
+  </si>
+  <si>
     <t>氛围Lora列表</t>
   </si>
   <si>
@@ -1996,6 +2033,69 @@
   </si>
   <si>
     <t>virgin killer sweater, backless outfit,</t>
+  </si>
+  <si>
+    <t>clothes/WhiteBridal-10.safetensors</t>
+  </si>
+  <si>
+    <t>Bridal</t>
+  </si>
+  <si>
+    <t>clothes/chain_leash_v0.6.safetensors</t>
+  </si>
+  <si>
+    <t>chain leash,collar,viewer holding leash</t>
+  </si>
+  <si>
+    <t>clothes/edgGothLingeriev4.safetensors</t>
+  </si>
+  <si>
+    <t>garterbelt,GothGal,Open_Lingerie , woman wearing a ([garterbelt,lingerie|GothGal,bra,panties,Open_Lingerie]::0.75)</t>
+  </si>
+  <si>
+    <t>clothes/microdress_v0.2.safetensors</t>
+  </si>
+  <si>
+    <t>microdress</t>
+  </si>
+  <si>
+    <t>clothes/virgin_destroyer_sweater_v0.4.safetensors</t>
+  </si>
+  <si>
+    <t>virgin destroyer sweater</t>
+  </si>
+  <si>
+    <t>clothes/SidelessLeotard.safetensors</t>
+  </si>
+  <si>
+    <t>leotard</t>
+  </si>
+  <si>
+    <t>You can also try other clothes like "china dress", "shirt", "wedding dress", "nun“……</t>
+  </si>
+  <si>
+    <t>clothes/OnesiePJs-Finale.safetensors</t>
+  </si>
+  <si>
+    <t>onesie,anesie</t>
+  </si>
+  <si>
+    <t>clothes/bikesuit.safetensors</t>
+  </si>
+  <si>
+    <t>clothes/Latex.safetensors</t>
+  </si>
+  <si>
+    <t>leotard,latex outfit,thigh high</t>
+  </si>
+  <si>
+    <t>clothes/FrillsNakedApronWaistApronV1.safetensors</t>
+  </si>
+  <si>
+    <t>naked apron, frills, bare legs,waist apron</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>概念Lora列表</t>
@@ -2187,6 +2287,69 @@
   </si>
   <si>
     <t>minigirl,fairy_lu,flower_world</t>
+  </si>
+  <si>
+    <t>concept/see-through leotard-000004.safetensors</t>
+  </si>
+  <si>
+    <t>see-through leotard</t>
+  </si>
+  <si>
+    <t>concept/qqq-pov_ass-v2.safetensors</t>
+  </si>
+  <si>
+    <t>ass focus</t>
+  </si>
+  <si>
+    <t>concept/torn.safetensors</t>
+  </si>
+  <si>
+    <t>torn clothes,cloth pieces</t>
+  </si>
+  <si>
+    <t>破衣服</t>
+  </si>
+  <si>
+    <t>concept/LookingDisgusted_V1.safetensors</t>
+  </si>
+  <si>
+    <t>((looking disgusted)),very angry,disappointed</t>
+  </si>
+  <si>
+    <t>this Lora works well in the ranges from 0.3 to 0.6 without affecting the base model much, besides adding ((looking disgusted)), ((very angry)), (dissapointed),</t>
+  </si>
+  <si>
+    <t>concept/Breast Press V2-000011.safetensors</t>
+  </si>
+  <si>
+    <t>breast press</t>
+  </si>
+  <si>
+    <t>Recommended weight is 1.</t>
+  </si>
+  <si>
+    <t>concept/HairCensorV1-000008.safetensors</t>
+  </si>
+  <si>
+    <t>hair_censor</t>
+  </si>
+  <si>
+    <t>concept/accidental_exposure.safetensors</t>
+  </si>
+  <si>
+    <t>accidental exposure,panties,skirt lift</t>
+  </si>
+  <si>
+    <t>concept/pantylines_v0.1.safetensors</t>
+  </si>
+  <si>
+    <t>pantylines,yoga pants</t>
+  </si>
+  <si>
+    <t>concept/Scrunch-Legs-V3.safetensors</t>
+  </si>
+  <si>
+    <t>leggings</t>
   </si>
   <si>
     <t>anime girl wearing white kimono and standing near a pond watching a full moon, 1girl, japanese clothes, kimono, night, solo, outdoors, yellow eyes, floral print, looking at viewer, moon, ponytail, sky, reflection, star (sky), bangs, starry sky, sash, long hair, obi, lake, night sky</t>
@@ -2523,7 +2686,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2531,7 +2694,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3032,10 +3195,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -3162,7 +3325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3176,6 +3339,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3472,13 +3638,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1831340</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1094740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1379855</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3488,8 +3654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16935450" y="31718250"/>
-          <a:ext cx="2419350" cy="3904615"/>
+          <a:off x="21040725" y="13716000"/>
+          <a:ext cx="2419350" cy="1675765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3897,15 +4063,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="16384" width="15.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="15.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3930,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3944,7 +4113,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" ht="40.5" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3959,7 +4128,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -3974,7 +4143,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -3989,7 +4158,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" ht="189" spans="1:3">
+    <row r="7" ht="67.5" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -4000,7 +4169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="67.5" spans="1:3">
+    <row r="8" ht="27" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -4011,7 +4180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -4022,7 +4191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="162" spans="1:3">
+    <row r="10" ht="27" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -4033,7 +4202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="175.5" spans="1:3">
+    <row r="11" ht="67.5" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4044,7 +4213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="202.5" spans="1:3">
+    <row r="12" ht="202.5" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -4054,192 +4223,198 @@
       <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" ht="216" spans="1:3">
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="202.5" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" ht="54" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" ht="81" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" ht="81" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" ht="121.5" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" ht="67.5" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" ht="94.5" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="67.5" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" ht="189" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" ht="40.5" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" ht="54" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" ht="54" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="121.5" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" ht="121.5" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" ht="81" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" ht="54" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>85</v>
@@ -4247,1300 +4422,1336 @@
     </row>
     <row r="30" ht="27" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" ht="67.5" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" ht="54" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" ht="148.5" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" ht="54" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" ht="94.5" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" ht="67.5" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" ht="40.5" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" ht="67.5" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" ht="81" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" ht="54" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" ht="54" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" ht="54" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" ht="81" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" ht="40.5" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" ht="27" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" ht="202.5" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" ht="67.5" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" ht="54" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" ht="54" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" ht="135" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" ht="94.5" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" ht="40.5" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" ht="27" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" ht="94.5" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" ht="40.5" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" ht="54" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" ht="108" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" ht="175.5" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" ht="54" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" ht="40.5" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" ht="81" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" ht="121.5" spans="1:3">
+        <v>171</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" ht="54" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" ht="27" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="62" ht="81" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="63" ht="54" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" ht="27" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="64" ht="54" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" ht="27" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" ht="40.5" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" ht="27" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" ht="54" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" ht="27" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" ht="54" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" ht="40.5" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" ht="54" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71" ht="108" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" ht="40.5" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" ht="67.5" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" ht="40.5" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="73" ht="67.5" spans="1:3">
+    <row r="73" ht="40.5" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" ht="148.5" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="75" ht="108" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" ht="108" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" ht="27" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" ht="108" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="78" ht="40.5" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" ht="27" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" ht="67.5" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" ht="40.5" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="80" ht="81" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" ht="54" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="82" ht="67.5" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="83" ht="54" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" ht="27" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" ht="40.5" spans="1:3">
       <c r="A84" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" ht="121.5" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" ht="40.5" spans="1:3">
       <c r="A85" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" ht="54" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" ht="40.5" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" ht="67.5" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" ht="27" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="88" ht="108" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" ht="27" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" ht="94.5" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" ht="27" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="90" ht="148.5" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" ht="54" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" ht="54" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" ht="54" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="93" ht="54" spans="1:3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" ht="162" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" ht="162" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="96" ht="54" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="1:3">
       <c r="A96" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="97" ht="54" spans="1:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="97" ht="27" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="98" ht="54" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" ht="27" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" ht="54" spans="1:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" ht="40.5" spans="1:3">
       <c r="A99" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="100" ht="54" spans="1:3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="101" ht="54" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="102" ht="54" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" ht="27" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="103" ht="121.5" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" ht="27" spans="1:3">
       <c r="A103" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" ht="81" spans="1:3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" ht="27" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="105" ht="40.5" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" ht="27" spans="1:3">
       <c r="A105" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106" ht="67.5" spans="1:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="106" ht="27" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="107" ht="54" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="108" ht="54" spans="1:3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="109" ht="54" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" ht="40.5" spans="1:3">
       <c r="A109" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="110" ht="54" spans="1:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" ht="108" spans="1:3">
       <c r="A110" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" ht="40.5" spans="1:3">
       <c r="A111" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="112" ht="40.5" spans="1:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" ht="27" spans="1:3">
       <c r="A112" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="113" ht="108" spans="1:3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" ht="40.5" spans="1:3">
       <c r="A113" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="114" ht="283.5" spans="1:3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" ht="27" spans="1:3">
       <c r="A114" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="115" ht="94.5" spans="1:3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" ht="27" spans="1:3">
       <c r="A115" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" ht="67.5" spans="1:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="117" ht="121.5" spans="1:3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" ht="27" spans="1:3">
       <c r="A117" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="118" ht="54" spans="1:3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="118" ht="40.5" spans="1:3">
       <c r="A118" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="119" ht="81" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="120" ht="40.5" spans="1:3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" ht="27" spans="1:3">
       <c r="A120" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="121" ht="67.5" spans="1:3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="121" ht="40.5" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="122" ht="135" spans="1:3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="122" ht="54" spans="1:3">
       <c r="A122" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" ht="40.5" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="124" ht="54" spans="1:3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="125" ht="108" spans="1:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" ht="27" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="126" ht="121.5" spans="1:3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="127" ht="94.5" spans="1:3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" ht="27" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="128" ht="40.5" spans="1:3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="128" ht="27" spans="1:3">
       <c r="A128" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="129" ht="67.5" spans="1:3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" ht="27" spans="1:3">
       <c r="A129" s="3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="130" ht="40.5" spans="1:3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" ht="67.5" spans="1:3">
       <c r="A130" s="3" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="131" ht="54" spans="1:3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="132" ht="67.5" spans="1:3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="133" ht="81" spans="1:3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="3" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="134" ht="175.5" spans="1:3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134" ht="40.5" spans="1:3">
       <c r="A134" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="135" ht="27" spans="1:3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="136" ht="40.5" spans="1:3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="136" ht="54" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="137" ht="27" spans="1:3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="138" ht="108" spans="1:3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138" ht="27" spans="1:3">
       <c r="A138" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="139" ht="27" spans="1:3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" ht="54" spans="1:3">
       <c r="A139" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="140" ht="162" spans="1:3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" ht="27" spans="1:3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="142" ht="54" spans="1:3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="143" ht="148.5" spans="1:3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="3" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="144" ht="27" spans="1:3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" ht="27" spans="1:3">
       <c r="A145" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="146" ht="27" spans="1:3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" ht="67.5" spans="1:3">
       <c r="A146" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="147" ht="27" spans="1:3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" ht="54" spans="1:3">
       <c r="A147" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148" ht="27" spans="1:3">
+      <c r="A148" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" ht="40.5" spans="1:3">
+      <c r="A149" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" ht="40.5" spans="1:3">
+      <c r="A150" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -5559,22 +5770,22 @@
   <conditionalFormatting sqref="B20">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
+  <conditionalFormatting sqref="B42">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B93">
+  <conditionalFormatting sqref="B89">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
+  <conditionalFormatting sqref="B109">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B42">
+  <conditionalFormatting sqref="B36:B41">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2 B114:B1048576 B94:B112 B44:B92 B21:B24 B13 B7:B11 B15:B19 B5">
+  <conditionalFormatting sqref="B1:B2 B5 B15:B19 B7:B11 B13 B110:B1048576 B90:B108 B43:B88 B21:B23">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B34 B36">
+  <conditionalFormatting sqref="B24:B33 B35">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -5589,10 +5800,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.625" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -5602,338 +5813,342 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>476</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="1:2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:1">
       <c r="A27" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="28" ht="27" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="1:2">
-      <c r="A44" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>512</v>
-      </c>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4"/>
@@ -6326,10 +6541,6 @@
     <row r="142" spans="1:2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6343,642 +6554,642 @@
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="64" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="15.875" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="64" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="5" ht="67.5" spans="1:2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="7" ht="81" spans="1:2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="1:2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="9" ht="108" spans="1:2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5" spans="1:2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="13" ht="54" spans="1:2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" spans="1:2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6989,818 +7200,866 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="15.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="47.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="15.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="9" ht="40.5" spans="1:2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10" ht="54" spans="1:2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="11" ht="67.5" spans="1:2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="14" ht="67.5" spans="1:2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="16" ht="67.5" spans="1:2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" spans="1:2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" ht="54" spans="1:2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="21" ht="40.5" spans="1:2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" ht="40.5" spans="1:2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" spans="1:2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="24" ht="40.5" spans="1:2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="25" ht="54" spans="1:2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="26" ht="67.5" spans="1:2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="27" ht="40.5" spans="1:2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="28" ht="40.5" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="29" ht="67.5" spans="1:2">
-      <c r="A29" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="30" ht="54" spans="1:2">
-      <c r="A30" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" ht="67.5" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="32" ht="67.5" spans="1:2">
-      <c r="A32" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="33" ht="40.5" spans="1:2">
-      <c r="A33" s="3" t="s">
+    <row r="35" ht="27" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="34" ht="54" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="35" ht="40.5" spans="1:2">
-      <c r="A35" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:2">
-      <c r="A36" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="37" ht="40.5" spans="1:2">
-      <c r="A37" s="3" t="s">
-        <v>590</v>
-      </c>
       <c r="B37" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="38" ht="40.5" spans="1:2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="39" ht="67.5" spans="1:2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="40" ht="40.5" spans="1:2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="47" ht="67.5" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="48" ht="67.5" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="49" ht="40.5" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="54" ht="27" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="58" ht="54" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:2">
+      <c r="A61" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="62" ht="67.5" spans="1:2">
+      <c r="A62" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="64" ht="27" spans="1:2">
+      <c r="A64" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="65" ht="108" spans="1:3">
+      <c r="A65" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="41" ht="40.5" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="42" ht="54" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="43" ht="54" spans="1:2">
-      <c r="A43" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="44" ht="40.5" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="45" ht="67.5" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="46" ht="67.5" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="47" ht="94.5" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="48" ht="135" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="49" ht="67.5" spans="1:2">
-      <c r="A49" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="50" ht="40.5" spans="1:2">
-      <c r="A50" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="51" ht="40.5" spans="1:2">
-      <c r="A51" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="52" ht="40.5" spans="1:2">
-      <c r="A52" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="53" ht="40.5" spans="1:2">
-      <c r="A53" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="54" ht="40.5" spans="1:2">
-      <c r="A54" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="55" ht="40.5" spans="1:2">
-      <c r="A55" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="56" ht="67.5" spans="1:2">
-      <c r="A56" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="57" ht="54" spans="1:2">
-      <c r="A57" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="58" ht="108" spans="1:2">
-      <c r="A58" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="59" ht="54" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+    <row r="68" ht="27" spans="1:2">
+      <c r="A68" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="1:3">
+      <c r="A69" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7811,294 +8070,339 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.25" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="37.25" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="37.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:2">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:2">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="7" ht="54" spans="1:2">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:2">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="10" ht="54" spans="1:2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>669</v>
+        <v>702</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="12" ht="67.5" spans="1:2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="13" ht="54" spans="1:2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="14" ht="54" spans="1:2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="1:2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="17" ht="54" spans="1:2">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="18" ht="54" spans="1:2">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" ht="54" spans="1:2">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" spans="1:1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="21" ht="81" spans="1:2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="22" ht="67.5" spans="1:2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" spans="1:2">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="25" ht="40.5" spans="1:2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="26" ht="40.5" spans="1:2">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="27" ht="40.5" spans="1:2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="28" ht="40.5" spans="1:2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="29" ht="54" spans="1:2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="30" ht="67.5" spans="1:2">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+        <v>743</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" ht="67.5" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4"/>
@@ -8509,6 +8813,9 @@
       <c r="B143" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" display="concept/torn.safetensors"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8519,8 +8826,8 @@
   <sheetPr/>
   <dimension ref="A2:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8531,467 +8838,467 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>711</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>712</v>
+        <v>766</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>713</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>714</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>715</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>716</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>717</v>
+        <v>771</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>718</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>719</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>720</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>721</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>722</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>724</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>725</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>727</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>728</v>
+        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>729</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>730</v>
+        <v>784</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>731</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>732</v>
+        <v>786</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>734</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>735</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>736</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>737</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>738</v>
+        <v>792</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>739</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>740</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>741</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>742</v>
+        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>743</v>
+        <v>797</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>744</v>
+        <v>798</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>745</v>
+        <v>799</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>746</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>747</v>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>748</v>
+        <v>802</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>750</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>751</v>
+        <v>805</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>752</v>
+        <v>806</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>753</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>754</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>748</v>
+        <v>802</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>755</v>
+        <v>809</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>756</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>757</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>758</v>
+        <v>812</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>759</v>
+        <v>813</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>760</v>
+        <v>814</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>761</v>
+        <v>815</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>762</v>
+        <v>816</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>763</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>745</v>
+        <v>799</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>764</v>
+        <v>818</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>765</v>
+        <v>819</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>766</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>767</v>
+        <v>821</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>768</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>751</v>
+        <v>805</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>769</v>
+        <v>823</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>770</v>
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>771</v>
+        <v>825</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>772</v>
+        <v>826</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>773</v>
+        <v>827</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>774</v>
+        <v>828</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>776</v>
+        <v>830</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>777</v>
+        <v>831</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>778</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>779</v>
+        <v>833</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>780</v>
+        <v>834</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>781</v>
+        <v>835</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>783</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>786</v>
+        <v>840</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>788</v>
+        <v>842</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>789</v>
+        <v>843</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>790</v>
+        <v>844</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>791</v>
+        <v>845</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>792</v>
+        <v>846</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>793</v>
+        <v>847</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>794</v>
+        <v>848</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>795</v>
+        <v>849</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>796</v>
+        <v>850</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>797</v>
+        <v>851</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>798</v>
+        <v>852</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>799</v>
+        <v>853</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>800</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="882">
   <si>
     <t>角色名称</t>
   </si>
@@ -1378,6 +1378,81 @@
     <t>1girl,horns,purple hair,long hair,twin braids,pointy ears,  multicolored eyes,dragon tail,</t>
   </si>
   <si>
+    <t>perona</t>
+  </si>
+  <si>
+    <t>perona-10.safetensors</t>
+  </si>
+  <si>
+    <t>perona, drill hair, striped, crown, ghost</t>
+  </si>
+  <si>
+    <t>yamato2</t>
+  </si>
+  <si>
+    <t>yamatowanpi3_64dim-5e-5.safetensors</t>
+  </si>
+  <si>
+    <t>yamatowanpi</t>
+  </si>
+  <si>
+    <t>vivi</t>
+  </si>
+  <si>
+    <t>Vivi.safetensors</t>
+  </si>
+  <si>
+    <t>RebeccaOP</t>
+  </si>
+  <si>
+    <t>RebeccaOP_Kyros_v1.safetensors</t>
+  </si>
+  <si>
+    <t>onepiece</t>
+  </si>
+  <si>
+    <t>JewelryBonneyOP</t>
+  </si>
+  <si>
+    <t>JewelryBonneyV2.safetensors</t>
+  </si>
+  <si>
+    <t>JewelryBonneyV2</t>
+  </si>
+  <si>
+    <t>Reiju</t>
+  </si>
+  <si>
+    <t>ReijuV2.safetensors</t>
+  </si>
+  <si>
+    <t>ReijuV2</t>
+  </si>
+  <si>
+    <t>Stussy</t>
+  </si>
+  <si>
+    <t>Stussy.safetensors</t>
+  </si>
+  <si>
+    <t>robin2</t>
+  </si>
+  <si>
+    <t>NicoRobinV3.safetensors</t>
+  </si>
+  <si>
+    <t>NicoRobinV3</t>
+  </si>
+  <si>
+    <t>kalifa</t>
+  </si>
+  <si>
+    <t>Kalifa.safetensors</t>
+  </si>
+  <si>
+    <t>Kalifa</t>
+  </si>
+  <si>
     <t>氛围Lora列表</t>
   </si>
   <si>
@@ -2096,6 +2171,12 @@
   </si>
   <si>
     <t>kitchen</t>
+  </si>
+  <si>
+    <t>clothes/HUD_Wht_Gwn.safetensors</t>
+  </si>
+  <si>
+    <t>HUD_Wht_Gwn, off-shoulder, Edwardian era white dress, long dress, puffy short sleeves, flower, fitted bodice, pearl necklace, chest bow, lace appliques</t>
   </si>
   <si>
     <t>概念Lora列表</t>
@@ -4063,10 +4144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C150"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A150" sqref="A3:C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5754,10 +5835,121 @@
         <v>446</v>
       </c>
     </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:C73">
-    <sortCondition ref="C73"/>
-  </sortState>
   <conditionalFormatting sqref="B4">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
@@ -5813,337 +6005,337 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6564,119 +6756,119 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7202,8 +7394,8 @@
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7215,559 +7407,563 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>559</v>
+        <v>584</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>564</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" ht="54" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>662</v>
+        <v>687</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>663</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>664</v>
+        <v>689</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>667</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>669</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" ht="67.5" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>670</v>
+        <v>695</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>671</v>
+        <v>696</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>672</v>
+        <v>697</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>673</v>
+        <v>698</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" ht="108" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>677</v>
+        <v>702</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>678</v>
+        <v>703</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>680</v>
+        <v>705</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" ht="27" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="70" ht="81" spans="1:2">
+      <c r="A70" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6"/>
@@ -8083,325 +8279,325 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>692</v>
+        <v>719</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>693</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>694</v>
+        <v>721</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>712</v>
+        <v>739</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>721</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>727</v>
+        <v>754</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>728</v>
+        <v>755</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>729</v>
+        <v>756</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>730</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>764</v>
+        <v>791</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8838,467 +9034,467 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>766</v>
+        <v>793</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>775</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>777</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>780</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>782</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>783</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>785</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>795</v>
+        <v>822</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>798</v>
+        <v>825</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>800</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>801</v>
+        <v>828</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>802</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>803</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>804</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>806</v>
+        <v>833</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>802</v>
+        <v>829</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>826</v>
+        <v>853</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>830</v>
+        <v>857</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>832</v>
+        <v>859</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>834</v>
+        <v>861</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>835</v>
+        <v>862</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>837</v>
+        <v>864</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>842</v>
+        <v>869</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>843</v>
+        <v>870</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>844</v>
+        <v>871</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>846</v>
+        <v>873</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>850</v>
+        <v>877</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>852</v>
+        <v>879</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>854</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="884">
   <si>
     <t>角色名称</t>
   </si>
@@ -1769,6 +1769,12 @@
   </si>
   <si>
     <t>ass focus,bent over,ass</t>
+  </si>
+  <si>
+    <t>pose/glaringV_Conv2D.safetensors</t>
+  </si>
+  <si>
+    <t>glaring,angry, from below, from behind, ass,dress, panties, skirt, lifted by self,</t>
   </si>
   <si>
     <t>衣服Lora列表</t>
@@ -4146,8 +4152,8 @@
   <sheetPr/>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A150" sqref="A3:C150"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6745,8 +6751,8 @@
   <sheetPr/>
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6871,9 +6877,13 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    <row r="16" ht="27" spans="1:2">
+      <c r="A16" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7"/>
@@ -7407,562 +7417,562 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" ht="54" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="62" ht="67.5" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="65" ht="108" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="69" ht="27" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="70" ht="81" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8279,20 +8289,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>571</v>
@@ -8300,212 +8310,212 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>569</v>
@@ -8513,91 +8523,91 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9034,467 +9044,467 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="887">
   <si>
     <t>角色名称</t>
   </si>
@@ -1774,7 +1774,16 @@
     <t>pose/glaringV_Conv2D.safetensors</t>
   </si>
   <si>
-    <t>glaring,angry, from below, from behind, ass,dress, panties, skirt, lifted by self,</t>
+    <t>glaring,angry, ass,dress, panties, skirt, lifted by self,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from below, from behind, </t>
+  </si>
+  <si>
+    <t>pose/PovWarizaFromAboveV1.safetensors</t>
+  </si>
+  <si>
+    <t>wariza,downblouse</t>
   </si>
   <si>
     <t>衣服Lora列表</t>
@@ -4152,8 +4161,8 @@
   <sheetPr/>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6749,13 +6758,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:B22"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="64" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="64" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="64" style="3" customWidth="1"/>
   </cols>
@@ -6877,17 +6886,24 @@
         <v>577</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="7" t="s">
         <v>578</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>579</v>
       </c>
+      <c r="C16" s="3" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7"/>
@@ -7417,562 +7433,562 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="58" ht="54" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="62" ht="67.5" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" ht="108" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="69" ht="27" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="70" ht="81" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8278,8 +8294,8 @@
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.25" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8289,20 +8305,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="3" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>571</v>
@@ -8310,212 +8326,212 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>569</v>
@@ -8523,91 +8539,91 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9044,467 +9060,467 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="氛围" sheetId="4" r:id="rId1"/>
@@ -969,7 +969,7 @@
     <t>Yamato_V2-10.safetensors</t>
   </si>
   <si>
-    <t>yamato, oni, kimono, red eyes, black hair</t>
+    <t>yamato, oni, kimono, red eyes, white hair</t>
   </si>
   <si>
     <t>大和</t>
@@ -981,7 +981,7 @@
     <t>yamatowanpi3_64dim-5e-5.safetensors</t>
   </si>
   <si>
-    <t>yamatowanpi, black hair</t>
+    <t>yamatowanpi, white hair</t>
   </si>
   <si>
     <t>NefertariViviV3.safetensors</t>
@@ -5292,8 +5292,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView topLeftCell="B135" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F152"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -11081,7 +11081,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E82"/>
     </sheetView>
   </sheetViews>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1010">
   <si>
     <t>氛围Lora列表</t>
   </si>
@@ -1974,6 +1974,9 @@
   </si>
   <si>
     <t>ningguang(genshin impact)</t>
+  </si>
+  <si>
+    <t>芙卡洛斯</t>
   </si>
   <si>
     <t>芙宁娜 芙卡洛斯 （原神）_s-ver.safetensors</t>
@@ -5292,8 +5295,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8125,18 +8128,17 @@
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="2" t="str">
-        <f>D148</f>
-        <v>芙宁娜/芙卡洛斯</v>
+      <c r="A148" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>518</v>
@@ -8147,19 +8149,19 @@
     </row>
     <row r="149" ht="27" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
@@ -8167,19 +8169,19 @@
     </row>
     <row r="150" ht="27" spans="1:6">
       <c r="A150" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
@@ -8187,36 +8189,36 @@
     </row>
     <row r="151" hidden="1" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="152" ht="40.5" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F152" s="2">
         <v>1</v>
@@ -8228,16 +8230,16 @@
         <v>蒂法·洛克哈特</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="154" hidden="1" spans="2:3">
@@ -8317,138 +8319,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8980,562 +8982,562 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="58" ht="54" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" ht="67.5" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="65" ht="108" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="69" ht="27" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="70" ht="81" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -9853,325 +9855,325 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -10607,467 +10609,467 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -938,7 +938,7 @@
     <t>boa_hancock_v1.safetensors</t>
   </si>
   <si>
-    <t>hancock1, 1girl, boa hancock, earrings, large breasts, cleavage, long hair, epaulettes, cape, crop top, long sleeves, side slit</t>
+    <t>hancock1, 1girl, boa hancock, earrings, large breasts, cleavage, long hair, epaulettes, cape, crop top, long sleeves, side slit,black hair</t>
   </si>
   <si>
     <t>波雅·汉库克</t>
@@ -5295,8 +5295,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9843,8 +9843,8 @@
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.2166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="氛围" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1017">
   <si>
     <t>氛围Lora列表</t>
   </si>
@@ -1805,10 +1805,10 @@
     <t>jiangjun2</t>
   </si>
   <si>
-    <t>Genshin_raiden shogun雷电将军_LoRA.safetensors</t>
-  </si>
-  <si>
-    <t>raiden_genshin, character \(series\)</t>
+    <t>raidenShogunCharacter.safetensors</t>
+  </si>
+  <si>
+    <t>raiden shogun, purple hair,</t>
   </si>
   <si>
     <t>雷电将军</t>
@@ -2819,6 +2819,27 @@
   </si>
   <si>
     <t>leggings</t>
+  </si>
+  <si>
+    <t>concept/skirt_wind.safetensors</t>
+  </si>
+  <si>
+    <t>skirt wind</t>
+  </si>
+  <si>
+    <t>concept/objbetween.safetensors</t>
+  </si>
+  <si>
+    <t>objbetween</t>
+  </si>
+  <si>
+    <t>胸上放物体</t>
+  </si>
+  <si>
+    <t>concept/Concept_Oversized.safetensors</t>
+  </si>
+  <si>
+    <t>shirt, white shirt, collarbone, short sleeves, t-shirt, off shoulder, oversized shirt, naked shirt, oversized clothes, see-through silhouette, see-through shirt</t>
   </si>
   <si>
     <t>anime girl wearing white kimono and standing near a pond watching a full moon, 1girl, japanese clothes, kimono, night, solo, outdoors, yellow eyes, floral print, looking at viewer, moon, ponytail, sky, reflection, star (sky), bangs, starry sky, sash, long hair, obi, lake, night sky</t>
@@ -4128,7 +4149,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24251920" y="2914650"/>
+          <a:off x="24251920" y="10629900"/>
           <a:ext cx="2420620" cy="1504315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5292,11 +5313,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5330,7 +5351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" ht="27" hidden="1" spans="1:5">
+    <row r="2" ht="27" spans="1:5">
       <c r="A2" s="2" t="str">
         <f>D2</f>
         <v>佩罗娜（Perona）</v>
@@ -5348,7 +5369,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" ht="27" hidden="1" spans="1:5">
+    <row r="3" ht="27" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>90</v>
       </c>
@@ -5365,7 +5386,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>95</v>
       </c>
@@ -5382,7 +5403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" ht="54" hidden="1" spans="1:5">
+    <row r="5" ht="54" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>100</v>
       </c>
@@ -5399,7 +5420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" ht="40.5" hidden="1" spans="1:5">
+    <row r="6" ht="40.5" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>104</v>
       </c>
@@ -5416,7 +5437,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" ht="27" hidden="1" spans="1:5">
+    <row r="7" ht="27" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>109</v>
       </c>
@@ -5433,7 +5454,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" ht="40.5" hidden="1" spans="1:5">
+    <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>114</v>
       </c>
@@ -5450,7 +5471,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" ht="27" hidden="1" spans="1:5">
+    <row r="9" ht="27" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>119</v>
       </c>
@@ -5467,7 +5488,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" ht="40.5" hidden="1" spans="1:5">
+    <row r="10" ht="40.5" spans="1:5">
       <c r="A10" s="2" t="str">
         <f>D10</f>
         <v>芙蕾雅</v>
@@ -5485,7 +5506,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="str">
         <f>D11</f>
         <v>源赖光</v>
@@ -5503,7 +5524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" ht="54" hidden="1" spans="1:5">
+    <row r="12" ht="54" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>131</v>
       </c>
@@ -5520,7 +5541,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>135</v>
       </c>
@@ -5537,7 +5558,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" ht="27" hidden="1" spans="1:5">
+    <row r="14" ht="27" spans="1:5">
       <c r="A14" s="2" t="str">
         <f>D14</f>
         <v>Barghest</v>
@@ -5555,7 +5576,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="str">
         <f>D15</f>
         <v>Passionlip</v>
@@ -5573,7 +5594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" ht="27" hidden="1" spans="1:5">
+    <row r="16" ht="27" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>145</v>
       </c>
@@ -5590,7 +5611,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" ht="54" hidden="1" spans="1:5">
+    <row r="17" ht="54" spans="1:5">
       <c r="A17" s="2" t="str">
         <f>D17</f>
         <v>贞德·Alter（黑贞德）</v>
@@ -5670,7 +5691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="str">
         <f>D21</f>
         <v>梦芽</v>
@@ -5688,7 +5709,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:5">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="str">
         <f>D22</f>
         <v>初音未来</v>
@@ -5706,7 +5727,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:5">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="str">
         <f>D23</f>
         <v>威廉艾</v>
@@ -5724,7 +5745,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" ht="67.5" hidden="1" spans="1:5">
+    <row r="24" ht="67.5" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>178</v>
       </c>
@@ -6029,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="27" hidden="1" spans="1:5">
+    <row r="39" ht="27" spans="1:5">
       <c r="A39" s="2" t="str">
         <f>D39</f>
         <v>黑魔女</v>
@@ -6047,7 +6068,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:5">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="str">
         <f>D40</f>
         <v>小鹿缟甘奈</v>
@@ -6065,7 +6086,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" ht="27" hidden="1" spans="1:5">
+    <row r="41" ht="27" spans="1:5">
       <c r="A41" s="2" t="str">
         <f>D41</f>
         <v>布莱默顿</v>
@@ -6083,7 +6104,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="42" ht="27" hidden="1" spans="1:5">
+    <row r="42" ht="27" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>247</v>
       </c>
@@ -6100,7 +6121,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="43" ht="67.5" hidden="1" spans="1:5">
+    <row r="43" ht="67.5" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>250</v>
       </c>
@@ -6117,7 +6138,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="44" ht="27" hidden="1" spans="1:5">
+    <row r="44" ht="27" spans="1:5">
       <c r="A44" s="2" t="str">
         <f>D44</f>
         <v>Implacable</v>
@@ -6135,7 +6156,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" ht="27" hidden="1" spans="1:5">
+    <row r="45" ht="27" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>258</v>
       </c>
@@ -6152,7 +6173,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="46" ht="67.5" hidden="1" spans="1:5">
+    <row r="46" ht="67.5" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>263</v>
       </c>
@@ -6169,7 +6190,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:5">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="str">
         <f>D47</f>
         <v>多多良小伞</v>
@@ -6187,7 +6208,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" ht="27" hidden="1" spans="1:5">
+    <row r="48" ht="27" spans="1:5">
       <c r="A48" s="2" t="str">
         <f>D48</f>
         <v>C.C.</v>
@@ -6205,7 +6226,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="49" ht="27" hidden="1" spans="1:5">
+    <row r="49" ht="27" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>276</v>
       </c>
@@ -6633,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:5">
+    <row r="70" spans="1:5">
       <c r="A70" s="2" t="str">
         <f>D70</f>
         <v>约尔·布莱尔</v>
@@ -6651,7 +6672,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:5">
+    <row r="71" spans="1:5">
       <c r="A71" s="2" t="str">
         <f>D71</f>
         <v>春丽</v>
@@ -6669,7 +6690,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" ht="40.5" hidden="1" spans="1:5">
+    <row r="72" ht="40.5" spans="1:5">
       <c r="A72" s="2" t="str">
         <f>D72</f>
         <v>韩二里（Juri Han）</v>
@@ -6687,7 +6708,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="73" ht="27" hidden="1" spans="1:5">
+    <row r="73" ht="27" spans="1:5">
       <c r="A73" s="2" t="str">
         <f>D73</f>
         <v>罗莎</v>
@@ -6705,7 +6726,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:5">
+    <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
         <v>369</v>
       </c>
@@ -6722,7 +6743,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" ht="27" hidden="1" spans="1:5">
+    <row r="75" ht="27" spans="1:5">
       <c r="A75" s="2" t="s">
         <v>374</v>
       </c>
@@ -6781,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="40.5" hidden="1" spans="1:5">
+    <row r="78" ht="40.5" spans="1:5">
       <c r="A78" s="2" t="s">
         <v>385</v>
       </c>
@@ -6798,7 +6819,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="79" ht="27" hidden="1" spans="1:5">
+    <row r="79" ht="27" spans="1:5">
       <c r="A79" s="2" t="str">
         <f>D79</f>
         <v>11号</v>
@@ -6816,7 +6837,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="80" ht="40.5" hidden="1" spans="1:5">
+    <row r="80" ht="40.5" spans="1:5">
       <c r="A80" s="2" t="str">
         <f>D80</f>
         <v>苏茜</v>
@@ -6834,7 +6855,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" ht="27" hidden="1" spans="1:5">
+    <row r="81" ht="27" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>395</v>
       </c>
@@ -6851,7 +6872,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="82" ht="81" hidden="1" spans="1:5">
+    <row r="82" ht="81" spans="1:5">
       <c r="A82" s="2" t="str">
         <f>D82</f>
         <v>朝比奈实玖瑠</v>
@@ -6869,7 +6890,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="83" ht="27" hidden="1" spans="1:5">
+    <row r="83" ht="27" spans="1:5">
       <c r="A83" s="2" t="str">
         <f>D83</f>
         <v>琪琪</v>
@@ -6887,7 +6908,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="84" ht="27" hidden="1" spans="1:5">
+    <row r="84" ht="27" spans="1:5">
       <c r="A84" s="2" t="s">
         <v>407</v>
       </c>
@@ -6904,7 +6925,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="85" ht="27" hidden="1" spans="1:5">
+    <row r="85" ht="27" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>411</v>
       </c>
@@ -6921,7 +6942,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="86" ht="40.5" hidden="1" spans="1:5">
+    <row r="86" ht="40.5" spans="1:5">
       <c r="A86" s="2" t="str">
         <f>D86</f>
         <v>人造人18号</v>
@@ -6939,7 +6960,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="87" ht="27" hidden="1" spans="1:7">
+    <row r="87" ht="27" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>420</v>
       </c>
@@ -6960,7 +6981,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="88" ht="27" hidden="1" spans="1:5">
+    <row r="88" ht="27" spans="1:5">
       <c r="A88" s="2" t="str">
         <f>D88</f>
         <v>木野真琴</v>
@@ -6978,7 +6999,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="89" ht="27" hidden="1" spans="1:5">
+    <row r="89" ht="27" spans="1:5">
       <c r="A89" s="2" t="s">
         <v>429</v>
       </c>
@@ -6995,7 +7016,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="90" ht="27" hidden="1" spans="1:5">
+    <row r="90" ht="27" spans="1:5">
       <c r="A90" s="2" t="str">
         <f>D90</f>
         <v>阿尼丝·亚尔斯提亚</v>
@@ -7013,7 +7034,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="91" ht="27" hidden="1" spans="1:5">
+    <row r="91" ht="27" spans="1:5">
       <c r="A91" s="2" t="str">
         <f>D91</f>
         <v>寒鸦</v>
@@ -7031,7 +7052,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:5">
+    <row r="92" spans="1:5">
       <c r="A92" s="2" t="str">
         <f>D92</f>
         <v>扬扬</v>
@@ -7049,7 +7070,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="93" ht="40.5" hidden="1" spans="1:5">
+    <row r="93" ht="40.5" spans="1:5">
       <c r="A93" s="2" t="str">
         <f>D93</f>
         <v>殷霖</v>
@@ -7067,7 +7088,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" ht="27" hidden="1" spans="1:5">
+    <row r="94" ht="27" spans="1:5">
       <c r="A94" s="2" t="str">
         <f>D94</f>
         <v>2B</v>
@@ -7085,7 +7106,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="95" ht="27" hidden="1" spans="1:5">
+    <row r="95" ht="27" spans="1:5">
       <c r="A95" s="2" t="str">
         <f>D95</f>
         <v>伊丽莎白·里昂妮丝</v>
@@ -7103,7 +7124,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="96" ht="67.5" hidden="1" spans="1:5">
+    <row r="96" ht="67.5" spans="1:5">
       <c r="A96" s="2" t="str">
         <f>D96</f>
         <v>琳妮特·毕晓普</v>
@@ -7121,7 +7142,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" ht="40.5" hidden="1" spans="1:5">
+    <row r="97" ht="40.5" spans="1:5">
       <c r="A97" s="2" t="s">
         <v>461</v>
       </c>
@@ -7138,7 +7159,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:5">
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="str">
         <f>D98</f>
         <v>阿尔比恩</v>
@@ -7156,7 +7177,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:5">
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="str">
         <f>D99</f>
         <v>松本乱菊</v>
@@ -7174,7 +7195,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="100" ht="27" hidden="1" spans="1:5">
+    <row r="100" ht="27" spans="1:5">
       <c r="A100" s="2" t="str">
         <f>D100</f>
         <v>陶琪</v>
@@ -7192,7 +7213,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:5">
+    <row r="101" spans="1:5">
       <c r="A101" s="2" t="str">
         <f>D101</f>
         <v>托尔</v>
@@ -7210,7 +7231,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:5">
+    <row r="102" spans="1:5">
       <c r="A102" s="2" t="str">
         <f>D102</f>
         <v>绫波丽</v>
@@ -7228,7 +7249,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="103" ht="40.5" hidden="1" spans="1:5">
+    <row r="103" ht="40.5" spans="1:5">
       <c r="A103" s="2" t="s">
         <v>486</v>
       </c>
@@ -7245,7 +7266,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="104" ht="27" hidden="1" spans="1:5">
+    <row r="104" ht="27" spans="1:5">
       <c r="A104" s="2" t="s">
         <v>491</v>
       </c>
@@ -7262,7 +7283,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:5">
+    <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
         <v>496</v>
       </c>
@@ -7279,7 +7300,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" ht="27" hidden="1" spans="1:5">
+    <row r="106" ht="27" spans="1:5">
       <c r="A106" s="2" t="str">
         <f>D106</f>
         <v>地狱的吹雪</v>
@@ -7297,7 +7318,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="107" ht="27" hidden="1" spans="1:5">
+    <row r="107" ht="27" spans="1:5">
       <c r="A107" s="2" t="s">
         <v>505</v>
       </c>
@@ -7314,7 +7335,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:5">
+    <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
         <v>510</v>
       </c>
@@ -7757,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="1:6">
+    <row r="130" spans="1:6">
       <c r="A130" s="2" t="s">
         <v>587</v>
       </c>
@@ -8187,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:5">
+    <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
         <v>659</v>
       </c>
@@ -8224,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" ht="27" hidden="1" spans="1:5">
+    <row r="153" ht="27" spans="1:5">
       <c r="A153" s="2" t="str">
         <f>D153</f>
         <v>蒂法·洛克哈特</v>
@@ -8242,7 +8263,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="2:3">
+    <row r="154" spans="2:3">
       <c r="B154" s="2" t="s">
         <v>80</v>
       </c>
@@ -8252,11 +8273,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G154">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:G154">
       <sortCondition ref="E1"/>
     </sortState>
@@ -8308,7 +8324,7 @@
   <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8968,8 +8984,8 @@
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9843,8 +9859,8 @@
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.2166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10177,16 +10193,31 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="44" ht="81" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3"/>
@@ -10609,467 +10640,467 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="4"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="氛围" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色!$A$1:$G$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色!$A$1:$G$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="1042">
   <si>
     <t>氛围Lora列表</t>
   </si>
@@ -296,210 +296,6 @@
     <t>人气角色</t>
   </si>
   <si>
-    <t>perona-10.safetensors</t>
-  </si>
-  <si>
-    <t>perona, drill hair, striped, crown, ghost, pink hair, black eyes</t>
-  </si>
-  <si>
-    <t>佩罗娜（Perona）</t>
-  </si>
-  <si>
-    <t>《海贼王》 （One Piece）</t>
-  </si>
-  <si>
-    <t>hilda</t>
-  </si>
-  <si>
-    <t>hilda-10.safetensors</t>
-  </si>
-  <si>
-    <t>hilda, long hair, sidelocks, high ponytail, ponytail, blue eyes, brown hair</t>
-  </si>
-  <si>
-    <t>希尔达 (Hilda)</t>
-  </si>
-  <si>
-    <t>《口袋妖怪 黑2·白2》</t>
-  </si>
-  <si>
-    <t>miyabi</t>
-  </si>
-  <si>
-    <t>miyabi.safetensors</t>
-  </si>
-  <si>
-    <t>1girl,</t>
-  </si>
-  <si>
-    <t>雅（Miyabi）</t>
-  </si>
-  <si>
-    <t>《闪乱神乐》系列</t>
-  </si>
-  <si>
-    <t>黑塔</t>
-  </si>
-  <si>
-    <t>【崩坏星穹铁道】黑塔 超逼真lora_v1.0.safetensors</t>
-  </si>
-  <si>
-    <t>(long hair, purple eyes, hat, bangs, brown hair, blush, breasts, beret, doll joints, flower, hair ornament, very long hair)</t>
-  </si>
-  <si>
-    <t>《少女前线》</t>
-  </si>
-  <si>
-    <t>知更鸟</t>
-  </si>
-  <si>
-    <t>知更鸟 （崩坏：星穹铁道)_v1.0.safetensors</t>
-  </si>
-  <si>
-    <t>1girl,solo,halo,long hair,blue hair,hair ornament,earrings,mole,blue eyes,jewelry,head wings,</t>
-  </si>
-  <si>
-    <t>风早神美（风早神見）</t>
-  </si>
-  <si>
-    <t>《幸运☆星》(Lucky☆Star) OVA</t>
-  </si>
-  <si>
-    <t>babara</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\barbara.safetensors</t>
-  </si>
-  <si>
-    <t>barbara,blonde hair, long hair,twintails,twin drills, blue eyes</t>
-  </si>
-  <si>
-    <t>芭芭拉（Barbara）</t>
-  </si>
-  <si>
-    <t>《旋风管家》（Hayate no Gotoku!）</t>
-  </si>
-  <si>
-    <t>fischl2</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\GenshinFischl_Impact_2in1_LoRA&amp;LoCon.safetensors</t>
-  </si>
-  <si>
-    <t>fischl,(dunkelnacht sakrament) (genshin impact), green eyes, (white pupils:1.2), fischl (genshin impact), yellow hair</t>
-  </si>
-  <si>
-    <t>菲谢尔（Fischl）</t>
-  </si>
-  <si>
-    <t>《原神》</t>
-  </si>
-  <si>
-    <t>Noeller1</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\noelle1ep10_0.85dim32.safetensors</t>
-  </si>
-  <si>
-    <t>noelledef,(green eyes:1.1), beret, white hair,</t>
-  </si>
-  <si>
-    <t>诺艾尔·希尔德</t>
-  </si>
-  <si>
-    <t>karin-10.safetensors</t>
-  </si>
-  <si>
-    <t>karin, (dark skin, dark-skinned female:1.4), long hair, large breasts, halo, very long hair, ponytail,</t>
-  </si>
-  <si>
-    <t>芙蕾雅</t>
-  </si>
-  <si>
-    <t>《在地下城寻求邂逅是否搞错了什么》</t>
-  </si>
-  <si>
-    <t>minamoto_no_raikou_v1.safetensors</t>
-  </si>
-  <si>
-    <t>hmmr1, minamoto no raikou (fate)</t>
-  </si>
-  <si>
-    <t>源赖光</t>
-  </si>
-  <si>
-    <t>Fate/Grand Order</t>
-  </si>
-  <si>
-    <t>美杜莎 fgo</t>
-  </si>
-  <si>
-    <t>medusa.safetensors</t>
-  </si>
-  <si>
-    <t>1girl, pink hair,(blindfold:1.5), long hair, solo, medusa (fate), medusa (rider) (fate), facial mark, strapless, forehead mark, purple hair, very long hair,</t>
-  </si>
-  <si>
-    <t>美杜莎</t>
-  </si>
-  <si>
-    <t>Gorgon</t>
-  </si>
-  <si>
-    <t>Gorgon-10.safetensors</t>
-  </si>
-  <si>
-    <t>MedGorg</t>
-  </si>
-  <si>
-    <t>戈尔贡</t>
-  </si>
-  <si>
-    <t>gawain.safetensors</t>
-  </si>
-  <si>
-    <t>mygawain,fairy knight gawain \(fate\),red eyes</t>
-  </si>
-  <si>
-    <t>Barghest</t>
-  </si>
-  <si>
-    <t>FatePassionlip.safetensors</t>
-  </si>
-  <si>
-    <t>Ascension3, FinalCostume</t>
-  </si>
-  <si>
-    <t>Passionlip</t>
-  </si>
-  <si>
-    <t>rin</t>
-  </si>
-  <si>
-    <t>rin.safetensors</t>
-  </si>
-  <si>
-    <t>1girl, tohsaka rin, solo, long hair, blue eyes,  black hair</t>
-  </si>
-  <si>
-    <t>远坂凛</t>
-  </si>
-  <si>
-    <t>Fate/stay night</t>
-  </si>
-  <si>
-    <t>Jeanne(alter).safetensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1girl, jeanne d'arc alter (fate), jeanne d'arc alter (avenger) (fate), yellow eyes, gauntlets, headpiece, cape, short hair, </t>
-  </si>
-  <si>
-    <t>贞德·Alter（黑贞德）</t>
-  </si>
-  <si>
-    <t>Fate系列</t>
-  </si>
-  <si>
     <t>ram_rezero_v1.safetensors</t>
   </si>
   <si>
@@ -536,55 +332,7 @@
     <t>Re:从零开始的异世界生活（Re:Zero kara Hajimeru Isekai Seikatsu）</t>
   </si>
   <si>
-    <t>yume_ba.safetensors</t>
-  </si>
-  <si>
-    <t>yume ba</t>
-  </si>
-  <si>
-    <t>梦芽</t>
-  </si>
-  <si>
-    <t>SSSS.Dynazenon</t>
-  </si>
-  <si>
-    <t>hatsunemiku1-000006.safetensors</t>
-  </si>
-  <si>
-    <t>mikunt</t>
-  </si>
-  <si>
-    <t>初音未来</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Wuthering Waves_weilinai.safetensors</t>
-  </si>
-  <si>
-    <t>Wuthering Waves_weilinai, WW_weilinai</t>
-  </si>
-  <si>
-    <t>威廉艾</t>
-  </si>
-  <si>
-    <t>Wuthering Waves</t>
-  </si>
-  <si>
-    <t>serena</t>
-  </si>
-  <si>
-    <t>serena_(pokemon)_v2.safetensors</t>
-  </si>
-  <si>
-    <t>aaserena, solo, long hair, eyewear on headwear, pink headwear, eyelashes, blue eyes, sleeveless shirt, black shirt, bracelet, high-waist skirt, red skirt, black thighhighs, blue eyes</t>
-  </si>
-  <si>
-    <t>莎莉娜</t>
-  </si>
-  <si>
-    <t>宝可梦</t>
+    <t>镜流</t>
   </si>
   <si>
     <t>Char-HonkaiSR-Jingliu.safetensors</t>
@@ -593,79 +341,79 @@
     <t>jingliu \(honkai: star rail\), purple eyes</t>
   </si>
   <si>
+    <t>崩坏: 星穹铁道</t>
+  </si>
+  <si>
+    <t>fuxuan-str-v4.safetensors</t>
+  </si>
+  <si>
+    <t>fuxuan, pink hair,</t>
+  </si>
+  <si>
+    <t>符玄</t>
+  </si>
+  <si>
+    <t>崩坏：星穹铁道</t>
+  </si>
+  <si>
+    <t>三月七</t>
+  </si>
+  <si>
+    <t>march7th.safetensors</t>
+  </si>
+  <si>
+    <t>march7th, multicolored_eyes, pink hair, ribbon earrings</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>kafka-v3-nai-13ep-resize.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purple eyes, purple hair,earrings, parted lips,sunglasses,  eyewear on head,star-kafka, </t>
+  </si>
+  <si>
+    <t>卡芙卡</t>
+  </si>
+  <si>
+    <t>qingque-str-v2cr.safetensors</t>
+  </si>
+  <si>
+    <t>qingque, bare shoulders, black boots</t>
+  </si>
+  <si>
+    <t>青雀</t>
+  </si>
+  <si>
+    <t>Sv5-10.safetensors</t>
+  </si>
+  <si>
+    <t>SilverwolfV5,  sunglasses,  eyewear on head,</t>
+  </si>
+  <si>
+    <t>银狼</t>
+  </si>
+  <si>
+    <t>liuying</t>
+  </si>
+  <si>
+    <t>fireflysd15.safetensors</t>
+  </si>
+  <si>
+    <t>firefly \(honkai: star rail\), 1girl, solo, long hair, blue eyes,  bangs,grey hair,</t>
+  </si>
+  <si>
     <t>景元</t>
   </si>
   <si>
-    <t>崩坏: 星穹铁道</t>
-  </si>
-  <si>
-    <t>fuxuan-str-v4.safetensors</t>
-  </si>
-  <si>
-    <t>fuxuan, pink hair,</t>
-  </si>
-  <si>
-    <t>符玄</t>
-  </si>
-  <si>
-    <t>崩坏：星穹铁道</t>
-  </si>
-  <si>
-    <t>march7th</t>
-  </si>
-  <si>
-    <t>march7th.safetensors</t>
-  </si>
-  <si>
-    <t>march7th, multicolored_eyes, pink hair, ribbon earrings</t>
-  </si>
-  <si>
-    <t>三月七</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>kafka-v3-nai-13ep-resize.safetensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purple eyes, purple hair,earrings, parted lips,sunglasses,  eyewear on head,star-kafka, </t>
-  </si>
-  <si>
-    <t>卡芙卡</t>
-  </si>
-  <si>
-    <t>qingque-str-v2cr.safetensors</t>
-  </si>
-  <si>
-    <t>qingque, bare shoulders, black boots</t>
-  </si>
-  <si>
-    <t>青雀</t>
-  </si>
-  <si>
-    <t>Sv5-10.safetensors</t>
-  </si>
-  <si>
-    <t>SilverwolfV5,  sunglasses,  eyewear on head,</t>
-  </si>
-  <si>
-    <t>银狼</t>
-  </si>
-  <si>
-    <t>liuying</t>
-  </si>
-  <si>
-    <t>fireflysd15.safetensors</t>
-  </si>
-  <si>
-    <t>firefly \(honkai: star rail\), 1girl, solo, long hair, blue eyes,  bangs,grey hair,</t>
+    <t>艾丝妲</t>
   </si>
   <si>
     <t>Char-HonkaiSR-Asta-v3.safetensors</t>
   </si>
   <si>
-    <t>asta \(honkai: star rail\)</t>
+    <t>asta \(honkai: star rail\),pink hair,hairpin, belt, bowtie,id card</t>
   </si>
   <si>
     <t>阿斯塔</t>
@@ -674,10 +422,10 @@
     <t>seele</t>
   </si>
   <si>
-    <t>seele_hsr.safetensors</t>
-  </si>
-  <si>
-    <t>seele hsr,purple_hair, long_hair, purple_eyes</t>
+    <t>SeeleV4-09.safetensors</t>
+  </si>
+  <si>
+    <t>SeeleV4,purple_hair, long_hair, purple_eyes</t>
   </si>
   <si>
     <t>希儿 · 堇翎 (Seele Vollerei)</t>
@@ -719,7 +467,7 @@
     <t>克莱因</t>
   </si>
   <si>
-    <t>himeko</t>
+    <t>姬子</t>
   </si>
   <si>
     <t>StarRail_Himeko_AP_v1.safetensors</t>
@@ -728,9 +476,6 @@
     <t>1girl, official, head, yellow eyes, red hair, long hair,golden rose on neck, single earring</t>
   </si>
   <si>
-    <t>姬子</t>
-  </si>
-  <si>
     <t>FGOTenochtitlan.safetensors</t>
   </si>
   <si>
@@ -743,154 +488,14 @@
     <t>崩坏三</t>
   </si>
   <si>
-    <t>dcsorceress-nvwls-v1.safetensors</t>
-  </si>
-  <si>
-    <t>dcSorc,witch hat, strapless dress, detached sleeves, brown hair,</t>
-  </si>
-  <si>
-    <t>黑魔女</t>
-  </si>
-  <si>
-    <t>碧蓝档案</t>
-  </si>
-  <si>
-    <t>kanna.safetensors</t>
-  </si>
-  <si>
-    <t>kanna(blue archive)</t>
-  </si>
-  <si>
-    <t>小鹿缟甘奈</t>
-  </si>
-  <si>
-    <t>碧蓝档案（Blue Archive）</t>
-  </si>
-  <si>
-    <t>ALBremerton-000026.safetensors</t>
-  </si>
-  <si>
-    <t>DefaultOutfit, Bremerton's Midriff, twintail</t>
-  </si>
-  <si>
-    <t>布莱默顿</t>
-  </si>
-  <si>
-    <t>碧蓝航线</t>
-  </si>
-  <si>
-    <t>可畏</t>
-  </si>
-  <si>
-    <t>FormidableSwimsuit[formidableswim,blue_bikini]V1-000004.safetensors</t>
-  </si>
-  <si>
-    <t>white_single_thighhigh,gray hair</t>
-  </si>
-  <si>
-    <t>Bremerton</t>
-  </si>
-  <si>
-    <t>bremerton_(kung fu cruiser).safetensors</t>
-  </si>
-  <si>
-    <t>bremerton (kung fu cruiser) (azur lane), hair bun, pink hair, eyewear on head, pink eyes, double bun,  long hair, sunglasses, round eyewear,  multicolored hair, bangs</t>
-  </si>
-  <si>
-    <t>布雷默顿</t>
-  </si>
-  <si>
-    <t>implacable-lora-v2-32dim-6ep-naivae.safetensors</t>
-  </si>
-  <si>
-    <t>implacable \(azur lane\),hair between eyes</t>
-  </si>
-  <si>
-    <t>Implacable</t>
-  </si>
-  <si>
-    <t>碧蓝航线 (Azur Lane)</t>
-  </si>
-  <si>
-    <t>kizuki</t>
-  </si>
-  <si>
-    <t>Kizuki - To Love Ru - Momo Velia Deviluke.safetensors</t>
-  </si>
-  <si>
-    <t>momo velia deviluke, hair ornament, bob cut, short hair, pink hair</t>
-  </si>
-  <si>
-    <t>梦梦·贝莉雅·戴比路克</t>
-  </si>
-  <si>
-    <t>出包王女</t>
-  </si>
-  <si>
-    <t>asuna</t>
-  </si>
-  <si>
-    <t>asuna_(sao)_v1.safetensors</t>
-  </si>
-  <si>
-    <t>aaasuna, long hair, brown hair, braid, brown eyes, bare shoulders, armor, breastplate, white sleeves, detached sleeves, red skirt, pleated skirt, white thighhighs</t>
-  </si>
-  <si>
-    <t>结城明日奈（亚丝娜）</t>
-  </si>
-  <si>
-    <t>刀剑神域（Sword Art Online）</t>
-  </si>
-  <si>
-    <t>MiyakoOnePieceSwimsuit.safetensors</t>
-  </si>
-  <si>
-    <t>miyako,hair bow,ponytail</t>
-  </si>
-  <si>
-    <t>多多良小伞</t>
-  </si>
-  <si>
-    <t>东方Project</t>
-  </si>
-  <si>
-    <t>动漫[Tsumasaky] C.C. - Code Geass_v2.0.safetensors</t>
-  </si>
-  <si>
-    <t>c.c., green hair, yellow eyes,</t>
-  </si>
-  <si>
-    <t>C.C.</t>
-  </si>
-  <si>
-    <t>反叛的鲁路修</t>
-  </si>
-  <si>
-    <t>marin</t>
-  </si>
-  <si>
-    <t>kitagawa_marin_v1-1.safetensors</t>
-  </si>
-  <si>
-    <t>blonde hair,long hair,multicolored hair,(red eyes:0.9)</t>
-  </si>
-  <si>
-    <t>喜多川海梦</t>
-  </si>
-  <si>
-    <t>更衣人偶坠入爱河</t>
-  </si>
-  <si>
-    <t>mitsuri</t>
-  </si>
-  <si>
-    <t>mitsuri-05.safetensors</t>
-  </si>
-  <si>
-    <t>(Mitsuri Karonji),(lemon green eyes:1.4)</t>
-  </si>
-  <si>
     <t>甘露寺蜜璃</t>
+  </si>
+  <si>
+    <t>mitsurikanroji-lora-nochekaiser.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitsuri kanroji, braid, gradient hair, green eyes, green hair, long hair, mole,  mole under eye, multicolored hair, pink hair, twin braids, two-tone hair
+</t>
   </si>
   <si>
     <t>鬼灭之刃</t>
@@ -1098,6 +703,868 @@
     <t>小樱</t>
   </si>
   <si>
+    <t>Char-ZZZ-Nicole-V2.safetensors</t>
+  </si>
+  <si>
+    <t>nicole demara,hair ribbon, hairclip, earrings, doll, pink hair</t>
+  </si>
+  <si>
+    <t>妮可·德玛拉 (Nicole Demara)</t>
+  </si>
+  <si>
+    <t>绝区零</t>
+  </si>
+  <si>
+    <t>Char-ZZZ-EllenJoe-V1.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ellen joe,hairclip, red nails, shark tail, black hairr, </t>
+  </si>
+  <si>
+    <t>伊莲（Elaine）</t>
+  </si>
+  <si>
+    <t>kamisato_ayaka.safetensors</t>
+  </si>
+  <si>
+    <t>kamisato_ayaka</t>
+  </si>
+  <si>
+    <t>神里绫华</t>
+  </si>
+  <si>
+    <t>原神</t>
+  </si>
+  <si>
+    <t>shatang1</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\sucrose.safetensors</t>
+  </si>
+  <si>
+    <t>sucrose \(genshin impact\),semi-rimless eyewear, adjusting eyewear, green hair</t>
+  </si>
+  <si>
+    <t>砂糖</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\yaemiko.safetensors</t>
+  </si>
+  <si>
+    <t>yae_miko, pink hair, purple eyes, long hair, pink hair,</t>
+  </si>
+  <si>
+    <t>八重神子</t>
+  </si>
+  <si>
+    <t>beidou</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\beidou.safetensors</t>
+  </si>
+  <si>
+    <t>beidou,long hair, bangs, brown hair, black hair, hair ornament, (red eyes:1.3), (hair over one eye:1.5), (eyepatch), hairpin, (one eye covered),</t>
+  </si>
+  <si>
+    <t>北斗</t>
+  </si>
+  <si>
+    <t>fischl1</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\fischl.safetensors</t>
+  </si>
+  <si>
+    <t>fischl,(dunkelnacht sakrament) (genshin impact), green eyes, (white pupils:1.2), fischl (genshin impact), yellow hair</t>
+  </si>
+  <si>
+    <t>菲谢尔</t>
+  </si>
+  <si>
+    <t>fischl3</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\fischl1-000008.safetensors</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\ganyu多.safetensors</t>
+  </si>
+  <si>
+    <t>ganyu,(genshin impact), blue hair, purple eyes,</t>
+  </si>
+  <si>
+    <t>甘雨</t>
+  </si>
+  <si>
+    <t>hutao</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\hutao多.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hutao,pikkyhutao,brown hair, long hair,  red eyes,  twintails, </t>
+  </si>
+  <si>
+    <t>胡桃</t>
+  </si>
+  <si>
+    <t>jiuzhiren</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\KukiShinobu.safetensors</t>
+  </si>
+  <si>
+    <t>kuki shinobu,green hair,ponytail,hair ornament, purple eyes,mask,</t>
+  </si>
+  <si>
+    <t>久岐忍</t>
+  </si>
+  <si>
+    <t>lisa1</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\lisa1-000010.safetensors</t>
+  </si>
+  <si>
+    <t>lisadef,witch hat, brown hair,green eyes,</t>
+  </si>
+  <si>
+    <t>丽莎</t>
+  </si>
+  <si>
+    <t>lisa2</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\lisa.safetensors</t>
+  </si>
+  <si>
+    <t>lisa (genshin impact),1girl,witch hat, brown hair,green eyes,</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\rosaria.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosaria,(genshin impact)
+</t>
+  </si>
+  <si>
+    <t>罗莎莉亚</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\mona.safetensors</t>
+  </si>
+  <si>
+    <t>mona, (genshin impact),long hair,</t>
+  </si>
+  <si>
+    <t>莫娜</t>
+  </si>
+  <si>
+    <t>nilou</t>
+  </si>
+  <si>
+    <t>Genshin Impact - Nilou V2 @ nilou (genshin impact)-000012.safetensors</t>
+  </si>
+  <si>
+    <t>nilou ,(genshin impact),fake horns,red hair,long hair,jewelry,horns,veil,bangs,twintails,low twintails,floating hair,</t>
+  </si>
+  <si>
+    <t>妮露</t>
+  </si>
+  <si>
+    <t>ningg</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\ningguang.safetensors</t>
+  </si>
+  <si>
+    <t>ningguang , red eyes,white hair, red eyes, very long hair</t>
+  </si>
+  <si>
+    <t>凝光</t>
+  </si>
+  <si>
+    <t>琴</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\Genshin_Jean_3Outfits.safetensors</t>
+  </si>
+  <si>
+    <t>jean, (genshin impact),blonde hair, long hair,blue eyes,ponytail</t>
+  </si>
+  <si>
+    <t>琴2</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\jean.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jean, (genshin impact), official alternate costume, ponytail,blonde hair, blue eyes, </t>
+  </si>
+  <si>
+    <t>shenhe2</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\申鹤Char-Genshin-Shenhe-V1.safetensors</t>
+  </si>
+  <si>
+    <t>shenhe ,(genshin impact),white hair,braid ponytail,,HAIR ORNAMENT,HAIR OVER ONE EYE,</t>
+  </si>
+  <si>
+    <t>申鹤</t>
+  </si>
+  <si>
+    <t>shenhe</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\shenhe.safetensors</t>
+  </si>
+  <si>
+    <t>shenhe,shenhedef，shenhernd,long hair, white hair,,HAIR ORNAMENT,HAIR OVER ONE EYE,BLUE EYES,EARRINGS,BRAIDED PONYTAIL,</t>
+  </si>
+  <si>
+    <t>lumine</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\lumine.safetensors</t>
+  </si>
+  <si>
+    <t>lumine_genshin_impack, yellow hair,yellow eyes</t>
+  </si>
+  <si>
+    <t>荧</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\eula.safetensors</t>
+  </si>
+  <si>
+    <t>eula,pikkyeula,  blue hair, yellow eyes, purple eyes,</t>
+  </si>
+  <si>
+    <t>优菈·劳伦斯</t>
+  </si>
+  <si>
+    <t>jiangjun2</t>
+  </si>
+  <si>
+    <t>raidenShogunCharacter.safetensors</t>
+  </si>
+  <si>
+    <t>raiden shogun, purple hair,</t>
+  </si>
+  <si>
+    <t>雷电将军</t>
+  </si>
+  <si>
+    <t>shanhuu</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\Genshin_SangonomiyaKokomi_LoRAZ珊瑚.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sangonomiya kokomi, (sparkling coralbone), no pupils, sangonomiya kokomi, pink hair, bow-shaped hair,purple eyes, long hair,  </t>
+  </si>
+  <si>
+    <t>珊瑚宫心海</t>
+  </si>
+  <si>
+    <t>keqing1</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\keqing_lion_optimizer_dim64_loraModel_5e-3noise_token1_4-3-2023.safetensors</t>
+  </si>
+  <si>
+    <t>keqing, (opulent splendor), (genshin impact), keqing (genshin impact), long hair, hair bun, purple hair, bangs,purple eyes,  double bun, twintails,</t>
+  </si>
+  <si>
+    <t>刻晴</t>
+  </si>
+  <si>
+    <t>xiaogong1</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\yoimiya2-000008.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yoimiyadef,blonde hair, hair ornament, </t>
+  </si>
+  <si>
+    <t>宵宫</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\yoimiya.safetensors</t>
+  </si>
+  <si>
+    <t>yoimiya, (genshin impact), yellow eyes,  yellow hair</t>
+  </si>
+  <si>
+    <t>yanfei</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\yanfei1-000009.safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yanfeidef,pink hair, green eyes, long hair, </t>
+  </si>
+  <si>
+    <t>烟绯</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\辛焱xinyan1-000010.safetensors</t>
+  </si>
+  <si>
+    <t>xinyandef, xinyanrnd,dark skin</t>
+  </si>
+  <si>
+    <t>辛焱</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\绮良良kirara1-000005.safetensors</t>
+  </si>
+  <si>
+    <t>kiraradef, kirararnd</t>
+  </si>
+  <si>
+    <t>绮良良</t>
+  </si>
+  <si>
+    <t>arlecchino</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\阿蕾奇诺arlecchino-v2.safetensors</t>
+  </si>
+  <si>
+    <t>arlecchino,(genshin impact),(white hair, black hair), multicolored hair, x-shaped pupils, black eyes</t>
+  </si>
+  <si>
+    <t>阿蕾奇诺</t>
+  </si>
+  <si>
+    <t>nvshi</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\女士signora.safetensors</t>
+  </si>
+  <si>
+    <t>signora \(genshin impact\),blonde hair, long hair,eyepatch, mask,blue eyes</t>
+  </si>
+  <si>
+    <t>女士</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\原神香菱.safetensors</t>
+  </si>
+  <si>
+    <t>xiangling \(genshin impact\),</t>
+  </si>
+  <si>
+    <t>香菱</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\娜维娅Char-Genshin-Navia-v2.0.safetensors</t>
+  </si>
+  <si>
+    <t>Navia,yellow hair, HAT,  BLUE EYES,</t>
+  </si>
+  <si>
+    <t>娜维娅</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\闲云Char-Genshin-Xianyun-V1.safetensors</t>
+  </si>
+  <si>
+    <t>xianyun \(genshin impact\),</t>
+  </si>
+  <si>
+    <t>sikeke1</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\丝柯克Char-Genshin-Skirk-V1.safetensors</t>
+  </si>
+  <si>
+    <t>skirk \(genshin impact\)</t>
+  </si>
+  <si>
+    <t>Nahida3.safetensors</t>
+  </si>
+  <si>
+    <t>nahida_genshin,cross-shaped pupils,green cape</t>
+  </si>
+  <si>
+    <t>纳西妲</t>
+  </si>
+  <si>
+    <t>qiqi1-000009.safetensors</t>
+  </si>
+  <si>
+    <t>qiqidef, purple hair, purple eyes</t>
+  </si>
+  <si>
+    <t>七七</t>
+  </si>
+  <si>
+    <t>Genshin Impact_Clolinde.safetensors</t>
+  </si>
+  <si>
+    <t>Genshin Impact_Clolinde, bule hair, purple eyes</t>
+  </si>
+  <si>
+    <t>Clorinde</t>
+  </si>
+  <si>
+    <t>ningguang.safetensors</t>
+  </si>
+  <si>
+    <t>ningguang(genshin impact)</t>
+  </si>
+  <si>
+    <t>芙卡洛斯</t>
+  </si>
+  <si>
+    <t>芙宁娜 芙卡洛斯 （原神）_s-ver.safetensors</t>
+  </si>
+  <si>
+    <t>furina,hat</t>
+  </si>
+  <si>
+    <t>芙宁娜/芙卡洛斯</t>
+  </si>
+  <si>
+    <t>navia</t>
+  </si>
+  <si>
+    <t>Navia v1.safetensors</t>
+  </si>
+  <si>
+    <t>navia (genshin impact),drill hair,(blonde hair:1.2),long hair,hat,sunglasses</t>
+  </si>
+  <si>
+    <t>Navia</t>
+  </si>
+  <si>
+    <t>原神 (Genshin Impact)</t>
+  </si>
+  <si>
+    <t>qianzhi1</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\千织Char-Genshin-Chiori-V1.safetensors</t>
+  </si>
+  <si>
+    <t>chiori \(genshin impact\),</t>
+  </si>
+  <si>
+    <t>柊千里（Chiori）</t>
+  </si>
+  <si>
+    <t>原神（Genshin Impact）</t>
+  </si>
+  <si>
+    <t>ruanmei</t>
+  </si>
+  <si>
+    <t>阮梅-0.8-逐辰十七.safetensors</t>
+  </si>
+  <si>
+    <t>ruanmei_official,breasts,long hair,hair between eyes,black hair,bangs, greeneyes,blueeyes,</t>
+  </si>
+  <si>
+    <t>若梅</t>
+  </si>
+  <si>
+    <t>战双帕弥什</t>
+  </si>
+  <si>
+    <t>perona-10.safetensors</t>
+  </si>
+  <si>
+    <t>perona, drill hair, striped, crown, ghost, pink hair, black eyes</t>
+  </si>
+  <si>
+    <t>佩罗娜（Perona）</t>
+  </si>
+  <si>
+    <t>《海贼王》 （One Piece）</t>
+  </si>
+  <si>
+    <t>hilda</t>
+  </si>
+  <si>
+    <t>hilda-10.safetensors</t>
+  </si>
+  <si>
+    <t>hilda, long hair, sidelocks, high ponytail, ponytail, blue eyes, brown hair</t>
+  </si>
+  <si>
+    <t>希尔达 (Hilda)</t>
+  </si>
+  <si>
+    <t>《口袋妖怪 黑2·白2》</t>
+  </si>
+  <si>
+    <t>miyabi</t>
+  </si>
+  <si>
+    <t>miyabi.safetensors</t>
+  </si>
+  <si>
+    <t>1girl,</t>
+  </si>
+  <si>
+    <t>雅（Miyabi）</t>
+  </si>
+  <si>
+    <t>《闪乱神乐》系列</t>
+  </si>
+  <si>
+    <t>黑塔</t>
+  </si>
+  <si>
+    <t>【崩坏星穹铁道】黑塔 超逼真lora_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>(long hair, purple eyes, hat, bangs, brown hair, blush, breasts, beret, doll joints, flower, hair ornament, very long hair)</t>
+  </si>
+  <si>
+    <t>《少女前线》</t>
+  </si>
+  <si>
+    <t>知更鸟</t>
+  </si>
+  <si>
+    <t>知更鸟 （崩坏：星穹铁道)_v1.0.safetensors</t>
+  </si>
+  <si>
+    <t>1girl,solo,halo,long hair,blue hair,hair ornament,earrings,mole,blue eyes,jewelry,head wings,</t>
+  </si>
+  <si>
+    <t>风早神美（风早神見）</t>
+  </si>
+  <si>
+    <t>《幸运☆星》(Lucky☆Star) OVA</t>
+  </si>
+  <si>
+    <t>babara</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\barbara.safetensors</t>
+  </si>
+  <si>
+    <t>barbara,blonde hair, long hair,twintails,twin drills, blue eyes</t>
+  </si>
+  <si>
+    <t>芭芭拉（Barbara）</t>
+  </si>
+  <si>
+    <t>《旋风管家》（Hayate no Gotoku!）</t>
+  </si>
+  <si>
+    <t>fischl2</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\GenshinFischl_Impact_2in1_LoRA&amp;LoCon.safetensors</t>
+  </si>
+  <si>
+    <t>菲谢尔（Fischl）</t>
+  </si>
+  <si>
+    <t>《原神》</t>
+  </si>
+  <si>
+    <t>Noeller1</t>
+  </si>
+  <si>
+    <t>动漫角色\原神\noelle1ep10_0.85dim32.safetensors</t>
+  </si>
+  <si>
+    <t>noelledef,(green eyes:1.1), beret, white hair,</t>
+  </si>
+  <si>
+    <t>诺艾尔·希尔德</t>
+  </si>
+  <si>
+    <t>karin-10.safetensors</t>
+  </si>
+  <si>
+    <t>karin, (dark skin, dark-skinned female:1.4), long hair, large breasts, halo, very long hair, ponytail,</t>
+  </si>
+  <si>
+    <t>芙蕾雅</t>
+  </si>
+  <si>
+    <t>《在地下城寻求邂逅是否搞错了什么》</t>
+  </si>
+  <si>
+    <t>minamoto_no_raikou_v1.safetensors</t>
+  </si>
+  <si>
+    <t>hmmr1, minamoto no raikou (fate)</t>
+  </si>
+  <si>
+    <t>源赖光</t>
+  </si>
+  <si>
+    <t>Fate/Grand Order</t>
+  </si>
+  <si>
+    <t>美杜莎 fgo</t>
+  </si>
+  <si>
+    <t>medusa.safetensors</t>
+  </si>
+  <si>
+    <t>1girl, pink hair,(blindfold:1.5), long hair, solo, medusa (fate), medusa (rider) (fate), facial mark, strapless, forehead mark, purple hair, very long hair,</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>Gorgon</t>
+  </si>
+  <si>
+    <t>Gorgon-10.safetensors</t>
+  </si>
+  <si>
+    <t>MedGorg</t>
+  </si>
+  <si>
+    <t>戈尔贡</t>
+  </si>
+  <si>
+    <t>gawain.safetensors</t>
+  </si>
+  <si>
+    <t>mygawain,fairy knight gawain \(fate\),red eyes</t>
+  </si>
+  <si>
+    <t>Barghest</t>
+  </si>
+  <si>
+    <t>FatePassionlip.safetensors</t>
+  </si>
+  <si>
+    <t>Ascension3, FinalCostume</t>
+  </si>
+  <si>
+    <t>Passionlip</t>
+  </si>
+  <si>
+    <t>rin</t>
+  </si>
+  <si>
+    <t>rin.safetensors</t>
+  </si>
+  <si>
+    <t>1girl, tohsaka rin, solo, long hair, blue eyes,  black hair</t>
+  </si>
+  <si>
+    <t>远坂凛</t>
+  </si>
+  <si>
+    <t>Fate/stay night</t>
+  </si>
+  <si>
+    <t>Jeanne(alter).safetensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1girl, jeanne d'arc alter (fate), jeanne d'arc alter (avenger) (fate), yellow eyes, gauntlets, headpiece, cape, short hair, </t>
+  </si>
+  <si>
+    <t>贞德·Alter（黑贞德）</t>
+  </si>
+  <si>
+    <t>Fate系列</t>
+  </si>
+  <si>
+    <t>yume_ba.safetensors</t>
+  </si>
+  <si>
+    <t>yume ba</t>
+  </si>
+  <si>
+    <t>梦芽</t>
+  </si>
+  <si>
+    <t>SSSS.Dynazenon</t>
+  </si>
+  <si>
+    <t>hatsunemiku1-000006.safetensors</t>
+  </si>
+  <si>
+    <t>mikunt</t>
+  </si>
+  <si>
+    <t>初音未来</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Wuthering Waves_weilinai.safetensors</t>
+  </si>
+  <si>
+    <t>Wuthering Waves_weilinai, WW_weilinai</t>
+  </si>
+  <si>
+    <t>威廉艾</t>
+  </si>
+  <si>
+    <t>Wuthering Waves</t>
+  </si>
+  <si>
+    <t>serena</t>
+  </si>
+  <si>
+    <t>serena_(pokemon)_v2.safetensors</t>
+  </si>
+  <si>
+    <t>aaserena, solo, long hair, eyewear on headwear, pink headwear, eyelashes, blue eyes, sleeveless shirt, black shirt, bracelet, high-waist skirt, red skirt, black thighhighs, blue eyes</t>
+  </si>
+  <si>
+    <t>莎莉娜</t>
+  </si>
+  <si>
+    <t>宝可梦</t>
+  </si>
+  <si>
+    <t>dcsorceress-nvwls-v1.safetensors</t>
+  </si>
+  <si>
+    <t>dcSorc,witch hat, strapless dress, detached sleeves, brown hair,</t>
+  </si>
+  <si>
+    <t>黑魔女</t>
+  </si>
+  <si>
+    <t>碧蓝档案</t>
+  </si>
+  <si>
+    <t>kanna.safetensors</t>
+  </si>
+  <si>
+    <t>kanna(blue archive)</t>
+  </si>
+  <si>
+    <t>小鹿缟甘奈</t>
+  </si>
+  <si>
+    <t>碧蓝档案（Blue Archive）</t>
+  </si>
+  <si>
+    <t>ALBremerton-000026.safetensors</t>
+  </si>
+  <si>
+    <t>DefaultOutfit, Bremerton's Midriff, twintail</t>
+  </si>
+  <si>
+    <t>布莱默顿</t>
+  </si>
+  <si>
+    <t>碧蓝航线</t>
+  </si>
+  <si>
+    <t>可畏</t>
+  </si>
+  <si>
+    <t>FormidableSwimsuit[formidableswim,blue_bikini]V1-000004.safetensors</t>
+  </si>
+  <si>
+    <t>white_single_thighhigh,gray hair</t>
+  </si>
+  <si>
+    <t>Bremerton</t>
+  </si>
+  <si>
+    <t>bremerton_(kung fu cruiser).safetensors</t>
+  </si>
+  <si>
+    <t>bremerton (kung fu cruiser) (azur lane), hair bun, pink hair, eyewear on head, pink eyes, double bun,  long hair, sunglasses, round eyewear,  multicolored hair, bangs</t>
+  </si>
+  <si>
+    <t>布雷默顿</t>
+  </si>
+  <si>
+    <t>implacable-lora-v2-32dim-6ep-naivae.safetensors</t>
+  </si>
+  <si>
+    <t>implacable \(azur lane\),hair between eyes</t>
+  </si>
+  <si>
+    <t>Implacable</t>
+  </si>
+  <si>
+    <t>碧蓝航线 (Azur Lane)</t>
+  </si>
+  <si>
+    <t>kizuki</t>
+  </si>
+  <si>
+    <t>Kizuki - To Love Ru - Momo Velia Deviluke.safetensors</t>
+  </si>
+  <si>
+    <t>momo velia deviluke, hair ornament, bob cut, short hair, pink hair</t>
+  </si>
+  <si>
+    <t>梦梦·贝莉雅·戴比路克</t>
+  </si>
+  <si>
+    <t>出包王女</t>
+  </si>
+  <si>
+    <t>asuna</t>
+  </si>
+  <si>
+    <t>asuna_(sao)_v1.safetensors</t>
+  </si>
+  <si>
+    <t>aaasuna, long hair, brown hair, braid, brown eyes, bare shoulders, armor, breastplate, white sleeves, detached sleeves, red skirt, pleated skirt, white thighhighs</t>
+  </si>
+  <si>
+    <t>结城明日奈（亚丝娜）</t>
+  </si>
+  <si>
+    <t>刀剑神域（Sword Art Online）</t>
+  </si>
+  <si>
+    <t>MiyakoOnePieceSwimsuit.safetensors</t>
+  </si>
+  <si>
+    <t>miyako,hair bow,ponytail</t>
+  </si>
+  <si>
+    <t>多多良小伞</t>
+  </si>
+  <si>
+    <t>东方Project</t>
+  </si>
+  <si>
+    <t>动漫[Tsumasaky] C.C. - Code Geass_v2.0.safetensors</t>
+  </si>
+  <si>
+    <t>c.c., green hair, yellow eyes,</t>
+  </si>
+  <si>
+    <t>C.C.</t>
+  </si>
+  <si>
+    <t>反叛的鲁路修</t>
+  </si>
+  <si>
+    <t>marin</t>
+  </si>
+  <si>
+    <t>kitagawa_marin_v1-1.safetensors</t>
+  </si>
+  <si>
+    <t>blonde hair,long hair,multicolored hair,(red eyes:0.9)</t>
+  </si>
+  <si>
+    <t>喜多川海梦</t>
+  </si>
+  <si>
+    <t>更衣人偶坠入爱河</t>
+  </si>
+  <si>
     <t>yor.safetensors</t>
   </si>
   <si>
@@ -1173,27 +1640,6 @@
     <t>铃</t>
   </si>
   <si>
-    <t>绝区零</t>
-  </si>
-  <si>
-    <t>nicole.safetensors</t>
-  </si>
-  <si>
-    <t>nicole demara(zzz), pink hair, green eyes,</t>
-  </si>
-  <si>
-    <t>妮可·德玛拉 (Nicole Demara)</t>
-  </si>
-  <si>
-    <t>ZZZ_Elaine Joe.safetensors</t>
-  </si>
-  <si>
-    <t>ZZZ_Elaine Joe,tail,mechanical tail,barcode,maid,hair ornament,maid headdress,hairclip,maid apron,apron,dress,black dress,short sleeves,puffy short sleeves,puffy sleeves,wrist cuffs,belt,pantyhose,grey pantyhose,nail polish,red nails,mole under eye,mole,black hair,red eyes</t>
-  </si>
-  <si>
-    <t>伊莲（Elaine）</t>
-  </si>
-  <si>
     <t>ZZZ_anby</t>
   </si>
   <si>
@@ -1332,7 +1778,7 @@
     <t>sailor_venus_v2.safetensors</t>
   </si>
   <si>
-    <t>sv1, orange skirt, elbow gloves, yellow hair,</t>
+    <t>sv1, red bow,white gloves, jewelry</t>
   </si>
   <si>
     <t>爱野美奈子</t>
@@ -1585,439 +2031,6 @@
     <t>游戏王</t>
   </si>
   <si>
-    <t>kamisato_ayaka.safetensors</t>
-  </si>
-  <si>
-    <t>kamisato_ayaka</t>
-  </si>
-  <si>
-    <t>神里绫华</t>
-  </si>
-  <si>
-    <t>原神</t>
-  </si>
-  <si>
-    <t>shatang1</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\sucrose.safetensors</t>
-  </si>
-  <si>
-    <t>sucrose \(genshin impact\),semi-rimless eyewear, adjusting eyewear, green hair</t>
-  </si>
-  <si>
-    <t>砂糖</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\yaemiko.safetensors</t>
-  </si>
-  <si>
-    <t>yae_miko, pink hair, purple eyes, long hair, pink hair,</t>
-  </si>
-  <si>
-    <t>八重神子</t>
-  </si>
-  <si>
-    <t>beidou</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\beidou.safetensors</t>
-  </si>
-  <si>
-    <t>beidou,long hair, bangs, brown hair, black hair, hair ornament, (red eyes:1.3), (hair over one eye:1.5), (eyepatch), hairpin, (one eye covered),</t>
-  </si>
-  <si>
-    <t>北斗</t>
-  </si>
-  <si>
-    <t>fischl1</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\fischl.safetensors</t>
-  </si>
-  <si>
-    <t>菲谢尔</t>
-  </si>
-  <si>
-    <t>fischl3</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\fischl1-000008.safetensors</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\ganyu多.safetensors</t>
-  </si>
-  <si>
-    <t>ganyu,(genshin impact), blue hair, purple eyes,</t>
-  </si>
-  <si>
-    <t>甘雨</t>
-  </si>
-  <si>
-    <t>hutao</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\hutao多.safetensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hutao,pikkyhutao,brown hair, long hair,  red eyes,  twintails, </t>
-  </si>
-  <si>
-    <t>胡桃</t>
-  </si>
-  <si>
-    <t>jiuzhiren</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\KukiShinobu.safetensors</t>
-  </si>
-  <si>
-    <t>kuki shinobu,green hair,ponytail,hair ornament, purple eyes,mask,</t>
-  </si>
-  <si>
-    <t>久岐忍</t>
-  </si>
-  <si>
-    <t>lisa1</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\lisa1-000010.safetensors</t>
-  </si>
-  <si>
-    <t>lisadef,</t>
-  </si>
-  <si>
-    <t>丽莎</t>
-  </si>
-  <si>
-    <t>lisa2</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\lisa.safetensors</t>
-  </si>
-  <si>
-    <t>lisa (genshin impact),1girl,witch hat, brown hair,green eyes,</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\rosaria.safetensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosaria,(genshin impact)
-</t>
-  </si>
-  <si>
-    <t>罗莎莉亚</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\mona.safetensors</t>
-  </si>
-  <si>
-    <t>mona, (genshin impact),long hair,</t>
-  </si>
-  <si>
-    <t>莫娜</t>
-  </si>
-  <si>
-    <t>nilou</t>
-  </si>
-  <si>
-    <t>Genshin Impact - Nilou V2 @ nilou (genshin impact)-000012.safetensors</t>
-  </si>
-  <si>
-    <t>nilou ,(genshin impact),fake horns,red hair,long hair,jewelry,horns,veil,bangs,twintails,low twintails,floating hair,</t>
-  </si>
-  <si>
-    <t>妮露</t>
-  </si>
-  <si>
-    <t>ningg</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\ningguang.safetensors</t>
-  </si>
-  <si>
-    <t>ningguang , red eyes,white hair, red eyes, very long hair</t>
-  </si>
-  <si>
-    <t>凝光</t>
-  </si>
-  <si>
-    <t>琴</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\Genshin_Jean_3Outfits.safetensors</t>
-  </si>
-  <si>
-    <t>jean, (genshin impact),blonde hair, long hair,blue eyes,ponytail</t>
-  </si>
-  <si>
-    <t>琴2</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\jean.safetensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jean, (genshin impact), official alternate costume, ponytail,blonde hair, blue eyes, </t>
-  </si>
-  <si>
-    <t>shenhe2</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\申鹤Char-Genshin-Shenhe-V1.safetensors</t>
-  </si>
-  <si>
-    <t>shenhe ,(genshin impact),white hair,braid ponytail,,HAIR ORNAMENT,HAIR OVER ONE EYE,</t>
-  </si>
-  <si>
-    <t>申鹤</t>
-  </si>
-  <si>
-    <t>shenhe</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\shenhe.safetensors</t>
-  </si>
-  <si>
-    <t>shenhe,shenhedef，shenhernd,long hair, white hair,,HAIR ORNAMENT,HAIR OVER ONE EYE,BLUE EYES,EARRINGS,BRAIDED PONYTAIL,</t>
-  </si>
-  <si>
-    <t>lumine</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\lumine.safetensors</t>
-  </si>
-  <si>
-    <t>lumine_genshin_impack, yellow hair,yellow eyes</t>
-  </si>
-  <si>
-    <t>荧</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\eula.safetensors</t>
-  </si>
-  <si>
-    <t>eula,pikkyeula,  blue hair, yellow eyes, purple eyes,</t>
-  </si>
-  <si>
-    <t>优菈·劳伦斯</t>
-  </si>
-  <si>
-    <t>jiangjun2</t>
-  </si>
-  <si>
-    <t>raidenShogunCharacter.safetensors</t>
-  </si>
-  <si>
-    <t>raiden shogun, purple hair,</t>
-  </si>
-  <si>
-    <t>雷电将军</t>
-  </si>
-  <si>
-    <t>shanhuu</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\Genshin_SangonomiyaKokomi_LoRAZ珊瑚.safetensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sangonomiya kokomi, (sparkling coralbone), no pupils, sangonomiya kokomi, pink hair, bow-shaped hair,purple eyes, long hair,  </t>
-  </si>
-  <si>
-    <t>珊瑚宫心海</t>
-  </si>
-  <si>
-    <t>keqing1</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\keqing_lion_optimizer_dim64_loraModel_5e-3noise_token1_4-3-2023.safetensors</t>
-  </si>
-  <si>
-    <t>keqing, (opulent splendor), (genshin impact), keqing (genshin impact), long hair, hair bun, purple hair, bangs,purple eyes,  double bun, twintails,</t>
-  </si>
-  <si>
-    <t>刻晴</t>
-  </si>
-  <si>
-    <t>xiaogong1</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\yoimiya2-000008.safetensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yoimiyadef,blonde hair, hair ornament, </t>
-  </si>
-  <si>
-    <t>宵宫</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\yoimiya.safetensors</t>
-  </si>
-  <si>
-    <t>yoimiya, (genshin impact), yellow eyes,  yellow hair</t>
-  </si>
-  <si>
-    <t>yanfei</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\yanfei1-000009.safetensors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yanfeidef,pink hair, green eyes, long hair, </t>
-  </si>
-  <si>
-    <t>烟绯</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\辛焱xinyan1-000010.safetensors</t>
-  </si>
-  <si>
-    <t>xinyandef, xinyanrnd,dark skin</t>
-  </si>
-  <si>
-    <t>辛焱</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\绮良良kirara1-000005.safetensors</t>
-  </si>
-  <si>
-    <t>kiraradef, kirararnd</t>
-  </si>
-  <si>
-    <t>绮良良</t>
-  </si>
-  <si>
-    <t>arlecchino</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\阿蕾奇诺arlecchino-v2.safetensors</t>
-  </si>
-  <si>
-    <t>arlecchino,(genshin impact),(white hair, black hair), multicolored hair, x-shaped pupils, black eyes</t>
-  </si>
-  <si>
-    <t>阿蕾奇诺</t>
-  </si>
-  <si>
-    <t>nvshi</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\女士signora.safetensors</t>
-  </si>
-  <si>
-    <t>signora \(genshin impact\),blonde hair, long hair,eyepatch, mask,blue eyes</t>
-  </si>
-  <si>
-    <t>女士</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\原神香菱.safetensors</t>
-  </si>
-  <si>
-    <t>xiangling \(genshin impact\),</t>
-  </si>
-  <si>
-    <t>香菱</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\娜维娅Char-Genshin-Navia-v2.0.safetensors</t>
-  </si>
-  <si>
-    <t>Navia,yellow hair, HAT,  BLUE EYES,</t>
-  </si>
-  <si>
-    <t>娜维娅</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\闲云Char-Genshin-Xianyun-V1.safetensors</t>
-  </si>
-  <si>
-    <t>xianyun \(genshin impact\),</t>
-  </si>
-  <si>
-    <t>sikeke1</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\丝柯克Char-Genshin-Skirk-V1.safetensors</t>
-  </si>
-  <si>
-    <t>skirk \(genshin impact\)</t>
-  </si>
-  <si>
-    <t>Nahida3.safetensors</t>
-  </si>
-  <si>
-    <t>nahida_genshin,cross-shaped pupils,green cape</t>
-  </si>
-  <si>
-    <t>纳西妲</t>
-  </si>
-  <si>
-    <t>qiqi1-000009.safetensors</t>
-  </si>
-  <si>
-    <t>qiqidef, purple hair, purple eyes</t>
-  </si>
-  <si>
-    <t>七七</t>
-  </si>
-  <si>
-    <t>Genshin Impact_Clolinde.safetensors</t>
-  </si>
-  <si>
-    <t>Genshin Impact_Clolinde, bule hair, purple eyes</t>
-  </si>
-  <si>
-    <t>Clorinde</t>
-  </si>
-  <si>
-    <t>ningguang.safetensors</t>
-  </si>
-  <si>
-    <t>ningguang(genshin impact)</t>
-  </si>
-  <si>
-    <t>芙卡洛斯</t>
-  </si>
-  <si>
-    <t>芙宁娜 芙卡洛斯 （原神）_s-ver.safetensors</t>
-  </si>
-  <si>
-    <t>furina,hat</t>
-  </si>
-  <si>
-    <t>芙宁娜/芙卡洛斯</t>
-  </si>
-  <si>
-    <t>navia</t>
-  </si>
-  <si>
-    <t>Navia v1.safetensors</t>
-  </si>
-  <si>
-    <t>navia (genshin impact),drill hair,(blonde hair:1.2),long hair,hat,sunglasses</t>
-  </si>
-  <si>
-    <t>Navia</t>
-  </si>
-  <si>
-    <t>原神 (Genshin Impact)</t>
-  </si>
-  <si>
-    <t>qianzhi1</t>
-  </si>
-  <si>
-    <t>动漫角色\原神\千织Char-Genshin-Chiori-V1.safetensors</t>
-  </si>
-  <si>
-    <t>chiori \(genshin impact\),</t>
-  </si>
-  <si>
-    <t>柊千里（Chiori）</t>
-  </si>
-  <si>
-    <t>原神（Genshin Impact）</t>
-  </si>
-  <si>
     <t>hestia</t>
   </si>
   <si>
@@ -2033,21 +2046,6 @@
     <t>在地下城寻求邂逅是否搞错了什么</t>
   </si>
   <si>
-    <t>ruanmei</t>
-  </si>
-  <si>
-    <t>阮梅-0.8-逐辰十七.safetensors</t>
-  </si>
-  <si>
-    <t>ruanmei_official,breasts,long hair,hair between eyes,black hair,bangs, greeneyes,blueeyes,</t>
-  </si>
-  <si>
-    <t>若梅</t>
-  </si>
-  <si>
-    <t>战双帕弥什</t>
-  </si>
-  <si>
     <t>tifa-nvwls-v2.safetensors</t>
   </si>
   <si>
@@ -2058,6 +2056,66 @@
   </si>
   <si>
     <t>最终幻想VII</t>
+  </si>
+  <si>
+    <t>佩拉</t>
+  </si>
+  <si>
+    <t>pela-10.safetensors</t>
+  </si>
+  <si>
+    <t>pela, purple hair, glasses,</t>
+  </si>
+  <si>
+    <t>星铁</t>
+  </si>
+  <si>
+    <t>克拉拉</t>
+  </si>
+  <si>
+    <t>Char-HonkaiSR-Clara.safetensors</t>
+  </si>
+  <si>
+    <t>clara \(honkai: star rail\), gray hair, red eyes</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>stelle_hsr.safetensors</t>
+  </si>
+  <si>
+    <t>stelle hsr,gray hair,long hair,yellow eyes, large breasts</t>
+  </si>
+  <si>
+    <t>星开拓者</t>
+  </si>
+  <si>
+    <t>日向花火</t>
+  </si>
+  <si>
+    <t>Hanabi.safetensors</t>
+  </si>
+  <si>
+    <t>hyuuga hanabi, low tied long hair,hair bow</t>
+  </si>
+  <si>
+    <t>可莉</t>
+  </si>
+  <si>
+    <t>klee1-000009.safetensors</t>
+  </si>
+  <si>
+    <t>kleedef,kleernd</t>
+  </si>
+  <si>
+    <t>堕姬</t>
+  </si>
+  <si>
+    <t>DakiV4-10.safetensors</t>
+  </si>
+  <si>
+    <t>DakiV4, long hair,((black hair)), hair ornament,</t>
   </si>
   <si>
     <t>动作Lora列表</t>
@@ -2840,6 +2898,25 @@
   </si>
   <si>
     <t>shirt, white shirt, collarbone, short sleeves, t-shirt, off shoulder, oversized shirt, naked shirt, oversized clothes, see-through silhouette, see-through shirt</t>
+  </si>
+  <si>
+    <t>concept/girllikeflyingspin.safetensors</t>
+  </si>
+  <si>
+    <t>dancing on grand ice skating exhibition,
+floral print lace dress,cinematic light, wind, night,</t>
+  </si>
+  <si>
+    <t>concept/girllikeplayinggolf.safetensors</t>
+  </si>
+  <si>
+    <t>((playing golf)), ((holding golf club)), ((golf course)), bent over, leaning forward, olympic rings, visor cap, polo shirt, sleeveless, skirt, ass, floating hair, big tits, open mouth, shy, blush, frown, flare, close-up, scoreboard, outdoors,</t>
+  </si>
+  <si>
+    <t>concept/girllikeferriswheel.safetensors</t>
+  </si>
+  <si>
+    <t>ferris wheel,overlooking the scenery,glass housing in low sky,amusement park,fireworks</t>
   </si>
   <si>
     <t>anime girl wearing white kimono and standing near a pond watching a full moon, 1girl, japanese clothes, kimono, night, solo, outdoors, yellow eyes, floral print, looking at viewer, moon, ponytail, sky, reflection, star (sky), bangs, starry sky, sash, long hair, obi, lake, night sky</t>
@@ -4149,8 +4226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24251920" y="10629900"/>
-          <a:ext cx="2420620" cy="1504315"/>
+          <a:off x="24251920" y="12344400"/>
+          <a:ext cx="2420620" cy="818515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5314,10 +5391,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5351,10 +5432,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:5">
+    <row r="2" ht="54" spans="1:5">
       <c r="A2" s="2" t="str">
         <f>D2</f>
-        <v>佩罗娜（Perona）</v>
+        <v>拉姆</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>86</v>
@@ -5369,415 +5450,452 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="40.5" spans="1:5">
+      <c r="A3" s="2" t="str">
+        <f>D3</f>
+        <v>白</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" ht="54" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="str">
+        <f>D6</f>
+        <v>符玄</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="7" ht="27" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="str">
+        <f>D9</f>
+        <v>青雀</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:5">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:6">
       <c r="A10" s="2" t="str">
         <f>D10</f>
-        <v>芙蕾雅</v>
+        <v>银狼</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="str">
-        <f>D11</f>
-        <v>源赖光</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="67.5" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="2" t="str">
-        <f>D14</f>
-        <v>Barghest</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" ht="27" spans="1:5">
       <c r="A15" s="2" t="str">
         <f>D15</f>
-        <v>Passionlip</v>
+        <v>桂乃芬</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:5">
+      <c r="A16" s="2" t="str">
+        <f>D16</f>
+        <v>克莱因</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E16" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:6">
+      <c r="A17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" ht="54" spans="1:5">
-      <c r="A17" s="2" t="str">
-        <f>D17</f>
-        <v>贞德·Alter（黑贞德）</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" ht="54" spans="1:6">
+        <v>136</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="str">
         <f>D18</f>
-        <v>拉姆</v>
+        <v>卡莎</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:6">
-      <c r="A19" s="2" t="str">
-        <f>D19</f>
-        <v>白</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" ht="67.5" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="81" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>161</v>
+    <row r="20" ht="40.5" spans="1:6">
+      <c r="A20" s="2" t="str">
+        <f>D20</f>
+        <v>蝴蝶忍</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="str">
-        <f>D21</f>
-        <v>梦芽</v>
+    <row r="21" ht="40.5" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="54" spans="1:6">
+      <c r="A23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="str">
-        <f>D22</f>
-        <v>初音未来</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="54" spans="1:6">
+      <c r="A24" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="str">
-        <f>D23</f>
-        <v>威廉艾</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" ht="67.5" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:6">
+        <v>165</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="str">
         <f>D25</f>
-        <v>景元</v>
+        <v>妮可·罗宾</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -5786,2463 +5904,2310 @@
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="str">
         <f>D26</f>
-        <v>符玄</v>
+        <v>大和</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="40.5" spans="1:6">
-      <c r="A28" s="2" t="s">
-        <v>195</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="str">
+        <f>D28</f>
+        <v>薇薇</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="F28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="str">
         <f>D29</f>
-        <v>青雀</v>
+        <v>蕾玖</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="str">
         <f>D30</f>
-        <v>银狼</v>
+        <v>斯图西</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:6">
-      <c r="A31" s="2" t="s">
-        <v>205</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="str">
+        <f>D31</f>
+        <v>妮可·罗宾</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="str">
         <f>D32</f>
-        <v>阿斯塔</v>
+        <v>卡莉法</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" ht="40.5" spans="1:5">
+      <c r="A33" s="2" t="str">
+        <f>D33</f>
+        <v>乔艾莉·波妮 (Jewelry Bonney)</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:5">
+      <c r="A34" s="2" t="str">
+        <f>D34</f>
+        <v>蕾贝卡（Rebecca）</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" ht="40.5" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="67.5" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:6">
-      <c r="A35" s="2" t="str">
-        <f>D35</f>
-        <v>桂乃芬</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="F35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="27" spans="1:6">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="str">
         <f>D36</f>
-        <v>克莱因</v>
+        <v>纲手</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="40.5" spans="1:6">
+    <row r="37" ht="27" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="str">
-        <f>D38</f>
-        <v>卡莎</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="27" spans="1:5">
+    <row r="39" ht="27" spans="1:6">
       <c r="A39" s="2" t="str">
         <f>D39</f>
-        <v>黑魔女</v>
+        <v>妮可·德玛拉 (Nicole Demara)</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>224</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:6">
       <c r="A40" s="2" t="str">
         <f>D40</f>
-        <v>小鹿缟甘奈</v>
+        <v>伊莲（Elaine）</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" ht="27" spans="1:5">
+        <v>224</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="str">
         <f>D41</f>
-        <v>布莱默顿</v>
+        <v>神里绫华</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:5">
       <c r="A42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="1:6">
+      <c r="A43" s="2" t="str">
+        <f>D43</f>
+        <v>八重神子</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="54" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:5">
+      <c r="A46" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="43" ht="67.5" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="1:5">
-      <c r="A44" s="2" t="str">
-        <f>D44</f>
-        <v>Implacable</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" ht="27" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" ht="67.5" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:6">
       <c r="A47" s="2" t="str">
         <f>D47</f>
-        <v>多多良小伞</v>
+        <v>甘雨</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" ht="27" spans="1:5">
-      <c r="A48" s="2" t="str">
-        <f>D48</f>
-        <v>C.C.</v>
+        <v>231</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>275</v>
+        <v>231</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="27" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="40.5" spans="1:6">
-      <c r="A51" s="2" t="str">
-        <f>D51</f>
-        <v>蝴蝶忍</v>
+    <row r="51" ht="27" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="40.5" spans="1:6">
-      <c r="A52" s="2" t="s">
-        <v>289</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" ht="40.5" spans="1:5">
+      <c r="A52" s="2" t="str">
+        <f>D52</f>
+        <v>罗莎莉亚</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="67.5" spans="1:6">
-      <c r="A53" s="2" t="s">
-        <v>293</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="str">
+        <f>D53</f>
+        <v>莫娜</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" ht="54" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" ht="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="54" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2" t="str">
-        <f>D56</f>
-        <v>妮可·罗宾</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="1:6">
+      <c r="A56" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="F56" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2" t="str">
-        <f>D57</f>
-        <v>大和</v>
+    <row r="57" ht="40.5" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2" t="str">
-        <f>D59</f>
-        <v>薇薇</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" ht="40.5" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="F59" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2" t="str">
-        <f>D60</f>
-        <v>蕾玖</v>
+    <row r="60" ht="27" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:6">
       <c r="A61" s="2" t="str">
         <f>D61</f>
-        <v>斯图西</v>
+        <v>优菈·劳伦斯</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="F61" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="2" t="str">
-        <f>D62</f>
-        <v>妮可·罗宾</v>
+      <c r="A62" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="2" t="str">
-        <f>D63</f>
-        <v>卡莉法</v>
+    <row r="63" ht="54" spans="1:6">
+      <c r="A63" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="64" ht="40.5" spans="1:6">
-      <c r="A64" s="2" t="str">
-        <f>D64</f>
-        <v>乔艾莉·波妮 (Jewelry Bonney)</v>
+    <row r="64" ht="54" spans="1:6">
+      <c r="A64" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="27" spans="1:6">
-      <c r="A65" s="2" t="str">
-        <f>D65</f>
-        <v>蕾贝卡（Rebecca）</v>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="2" t="s">
-        <v>337</v>
+    <row r="66" ht="27" spans="1:5">
+      <c r="A66" s="2" t="str">
+        <f>D66</f>
+        <v>宵宫</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="2" t="str">
-        <f>D67</f>
-        <v>纲手</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" ht="27" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:6">
-      <c r="A68" s="2" t="s">
-        <v>345</v>
+      <c r="A68" s="2" t="str">
+        <f>D68</f>
+        <v>辛焱</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="2" t="s">
-        <v>349</v>
+    <row r="69" ht="27" spans="1:5">
+      <c r="A69" s="2" t="str">
+        <f>D69</f>
+        <v>绮良良</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="str">
-        <f>D70</f>
-        <v>约尔·布莱尔</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" ht="40.5" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="str">
-        <f>D71</f>
-        <v>春丽</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" ht="40.5" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="str">
         <f>D72</f>
-        <v>韩二里（Juri Han）</v>
+        <v>香菱</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>364</v>
+        <v>231</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="73" ht="27" spans="1:5">
       <c r="A73" s="2" t="str">
         <f>D73</f>
-        <v>罗莎</v>
+        <v>娜维娅</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
-        <v>369</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" ht="27" spans="1:5">
+      <c r="A74" s="2" t="str">
+        <f>D74</f>
+        <v>宵宫</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="75" ht="27" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>377</v>
+        <v>308</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>378</v>
+        <v>231</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="76" ht="27" spans="1:6">
       <c r="A76" s="2" t="str">
         <f>D76</f>
-        <v>妮可·德玛拉 (Nicole Demara)</v>
+        <v>纳西妲</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>378</v>
+        <v>231</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="108" spans="1:6">
+    <row r="77" spans="1:5">
       <c r="A77" s="2" t="str">
         <f>D77</f>
-        <v>伊莲（Elaine）</v>
+        <v>七七</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" ht="40.5" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>385</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" ht="27" spans="1:5">
+      <c r="A78" s="2" t="str">
+        <f>D78</f>
+        <v>Clorinde</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" ht="27" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="str">
         <f>D79</f>
-        <v>11号</v>
+        <v>凝光</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>391</v>
+        <v>280</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" ht="40.5" spans="1:5">
-      <c r="A80" s="2" t="str">
-        <f>D80</f>
-        <v>苏茜</v>
+        <v>231</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>378</v>
+        <v>231</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="27" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="82" ht="81" spans="1:5">
-      <c r="A82" s="2" t="str">
-        <f>D82</f>
-        <v>朝比奈实玖瑠</v>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="83" ht="27" spans="1:5">
-      <c r="A83" s="2" t="str">
-        <f>D83</f>
-        <v>琪琪</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83" ht="40.5" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
     </row>
     <row r="84" ht="27" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>407</v>
+      <c r="A84" s="2" t="str">
+        <f>D84</f>
+        <v>佩罗娜（Perona）</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" ht="27" spans="1:5">
       <c r="A85" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" ht="54" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" ht="40.5" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" ht="27" spans="1:6">
+      <c r="A89" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" ht="40.5" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="91" ht="27" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="86" ht="40.5" spans="1:5">
-      <c r="A86" s="2" t="str">
-        <f>D86</f>
-        <v>人造人18号</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="87" ht="27" spans="1:7">
-      <c r="A87" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="88" ht="27" spans="1:5">
-      <c r="A88" s="2" t="str">
-        <f>D88</f>
-        <v>木野真琴</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="89" ht="27" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="90" ht="27" spans="1:5">
-      <c r="A90" s="2" t="str">
-        <f>D90</f>
-        <v>阿尼丝·亚尔斯提亚</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="91" ht="27" spans="1:5">
-      <c r="A91" s="2" t="str">
-        <f>D91</f>
-        <v>寒鸦</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="92" ht="40.5" spans="1:5">
       <c r="A92" s="2" t="str">
         <f>D92</f>
-        <v>扬扬</v>
+        <v>芙蕾雅</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="93" ht="40.5" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="2" t="str">
         <f>D93</f>
-        <v>殷霖</v>
+        <v>源赖光</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="94" ht="27" spans="1:5">
-      <c r="A94" s="2" t="str">
-        <f>D94</f>
-        <v>2B</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" ht="54" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="95" ht="27" spans="1:5">
-      <c r="A95" s="2" t="str">
-        <f>D95</f>
-        <v>伊丽莎白·里昂妮丝</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="96" ht="67.5" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="1:5">
       <c r="A96" s="2" t="str">
         <f>D96</f>
-        <v>琳妮特·毕晓普</v>
+        <v>Barghest</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="97" ht="40.5" spans="1:5">
-      <c r="A97" s="2" t="s">
-        <v>461</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="str">
+        <f>D97</f>
+        <v>Passionlip</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="2" t="str">
-        <f>D98</f>
-        <v>阿尔比恩</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="98" ht="27" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" ht="54" spans="1:5">
       <c r="A99" s="2" t="str">
         <f>D99</f>
-        <v>松本乱菊</v>
+        <v>贞德·Alter（黑贞德）</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="100" ht="27" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="str">
         <f>D100</f>
-        <v>陶琪</v>
+        <v>梦芽</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="str">
         <f>D101</f>
-        <v>托尔</v>
+        <v>初音未来</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="str">
         <f>D102</f>
-        <v>绫波丽</v>
+        <v>威廉艾</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="103" ht="40.5" spans="1:5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="103" ht="67.5" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" ht="27" spans="1:5">
-      <c r="A104" s="2" t="s">
-        <v>491</v>
+      <c r="A104" s="2" t="str">
+        <f>D104</f>
+        <v>黑魔女</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="2" t="s">
-        <v>496</v>
+      <c r="A105" s="2" t="str">
+        <f>D105</f>
+        <v>小鹿缟甘奈</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
     </row>
     <row r="106" ht="27" spans="1:5">
       <c r="A106" s="2" t="str">
         <f>D106</f>
-        <v>地狱的吹雪</v>
+        <v>布莱默顿</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" ht="27" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" ht="67.5" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="109" ht="27" spans="1:5">
       <c r="A109" s="2" t="str">
         <f>D109</f>
-        <v>神里绫华</v>
+        <v>Implacable</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" ht="27" spans="1:6">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="110" ht="27" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" ht="27" spans="1:6">
-      <c r="A111" s="2" t="str">
-        <f>D111</f>
-        <v>八重神子</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" ht="67.5" spans="1:5">
+      <c r="A111" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>525</v>
+        <v>493</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" ht="54" spans="1:6">
-      <c r="A112" s="2" t="s">
-        <v>526</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2" t="str">
+        <f>D112</f>
+        <v>多多良小伞</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>529</v>
+        <v>497</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F112" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" ht="40.5" spans="1:6">
-      <c r="A113" s="2" t="s">
-        <v>530</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="113" ht="27" spans="1:5">
+      <c r="A113" s="2" t="str">
+        <f>D113</f>
+        <v>C.C.</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>531</v>
+        <v>499</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>116</v>
+        <v>500</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" ht="40.5" spans="1:6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="114" ht="27" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>116</v>
+        <v>505</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" ht="27" spans="1:6">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="str">
         <f>D115</f>
-        <v>甘雨</v>
+        <v>约尔·布莱尔</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2" t="str">
+        <f>D116</f>
+        <v>春丽</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" ht="40.5" spans="1:5">
+      <c r="A117" s="2" t="str">
+        <f>D117</f>
+        <v>韩二里（Juri Han）</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" ht="27" spans="1:5">
+      <c r="A118" s="2" t="str">
+        <f>D118</f>
+        <v>罗莎</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="120" ht="27" spans="1:5">
+      <c r="A120" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" ht="40.5" spans="1:5">
+      <c r="A121" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="E121" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="122" ht="27" spans="1:5">
+      <c r="A122" s="2" t="str">
+        <f>D122</f>
+        <v>11号</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" ht="27" spans="1:6">
-      <c r="A116" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" ht="40.5" spans="1:5">
+      <c r="A123" s="2" t="str">
+        <f>D123</f>
+        <v>苏茜</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" ht="27" spans="1:6">
-      <c r="A117" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="124" ht="27" spans="1:5">
+      <c r="A124" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C118" s="2" t="s">
+    </row>
+    <row r="125" ht="81" spans="1:5">
+      <c r="A125" s="2" t="str">
+        <f>D125</f>
+        <v>朝比奈实玖瑠</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F118" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" ht="27" spans="1:6">
-      <c r="A119" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="126" ht="27" spans="1:5">
+      <c r="A126" s="2" t="str">
+        <f>D126</f>
+        <v>琪琪</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F119" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" ht="40.5" spans="1:6">
-      <c r="A120" s="2" t="str">
-        <f>D120</f>
-        <v>罗莎莉亚</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="D126" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D120" s="2" t="s">
+    </row>
+    <row r="127" ht="27" spans="1:5">
+      <c r="A127" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="2" t="str">
-        <f>D121</f>
-        <v>莫娜</v>
-      </c>
-      <c r="B121" s="2" t="s">
+      <c r="B127" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D127" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F121" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" ht="54" spans="1:6">
-      <c r="A122" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="128" ht="27" spans="1:5">
+      <c r="A128" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D128" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F122" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" ht="27" spans="1:6">
-      <c r="A123" s="2" t="s">
+      <c r="E128" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" ht="27" spans="1:6">
-      <c r="A124" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" ht="40.5" spans="1:6">
-      <c r="A125" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F125" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" ht="40.5" spans="1:6">
-      <c r="A126" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F126" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" ht="40.5" spans="1:6">
-      <c r="A127" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F127" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" ht="27" spans="1:6">
-      <c r="A128" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F128" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" ht="27" spans="1:6">
+    </row>
+    <row r="129" ht="40.5" spans="1:5">
       <c r="A129" s="2" t="str">
         <f>D129</f>
-        <v>优菈·劳伦斯</v>
+        <v>人造人18号</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="1:7">
       <c r="A130" s="2" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" ht="54" spans="1:6">
-      <c r="A131" s="2" t="s">
-        <v>591</v>
+        <v>572</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="131" ht="27" spans="1:5">
+      <c r="A131" s="2" t="str">
+        <f>D131</f>
+        <v>木野真琴</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F131" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" ht="54" spans="1:6">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>518</v>
+        <v>572</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="2" t="s">
-        <v>599</v>
+    <row r="133" ht="27" spans="1:5">
+      <c r="A133" s="2" t="str">
+        <f>D133</f>
+        <v>阿尼丝·亚尔斯提亚</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F133" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" ht="27" spans="1:6">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="134" ht="27" spans="1:5">
       <c r="A134" s="2" t="str">
         <f>D134</f>
-        <v>宵宫</v>
+        <v>寒鸦</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F134" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" ht="27" spans="1:6">
-      <c r="A135" s="2" t="s">
-        <v>605</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2" t="str">
+        <f>D135</f>
+        <v>扬扬</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F135" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" ht="27" spans="1:6">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="136" ht="40.5" spans="1:5">
       <c r="A136" s="2" t="str">
         <f>D136</f>
-        <v>辛焱</v>
+        <v>殷霖</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F136" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" ht="27" spans="1:6">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="137" ht="27" spans="1:5">
       <c r="A137" s="2" t="str">
         <f>D137</f>
-        <v>绮良良</v>
+        <v>2B</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="138" ht="27" spans="1:5">
+      <c r="A138" s="2" t="str">
+        <f>D138</f>
+        <v>伊丽莎白·里昂妮丝</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="139" ht="67.5" spans="1:5">
+      <c r="A139" s="2" t="str">
+        <f>D139</f>
+        <v>琳妮特·毕晓普</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="140" ht="40.5" spans="1:5">
+      <c r="A140" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" ht="40.5" spans="1:6">
-      <c r="A138" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F138" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" ht="27" spans="1:6">
-      <c r="A139" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F139" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="2" t="str">
-        <f>D140</f>
-        <v>香菱</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F140" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" ht="27" spans="1:6">
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="2" t="str">
         <f>D141</f>
-        <v>娜维娅</v>
+        <v>阿尔比恩</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F141" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" ht="27" spans="1:6">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="2" t="str">
         <f>D142</f>
-        <v>宵宫</v>
+        <v>松本乱菊</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F142" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" ht="27" spans="1:6">
-      <c r="A143" s="2" t="s">
-        <v>631</v>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="143" ht="27" spans="1:5">
+      <c r="A143" s="2" t="str">
+        <f>D143</f>
+        <v>陶琪</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>594</v>
+        <v>624</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F143" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" ht="27" spans="1:6">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
       <c r="A144" s="2" t="str">
         <f>D144</f>
-        <v>纳西妲</v>
+        <v>托尔</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F144" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="2" t="str">
         <f>D145</f>
-        <v>七七</v>
+        <v>绫波丽</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="146" ht="40.5" spans="1:5">
+      <c r="A146" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="E146" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D145" s="2" t="s">
+    </row>
+    <row r="147" ht="27" spans="1:5">
+      <c r="A147" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F145" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" ht="27" spans="1:6">
-      <c r="A146" s="2" t="str">
-        <f>D146</f>
-        <v>Clorinde</v>
-      </c>
-      <c r="B146" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D147" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="2" t="str">
-        <f>D147</f>
-        <v>凝光</v>
-      </c>
-      <c r="B147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C147" s="2" t="s">
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="2" t="s">
+      <c r="B148" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D148" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F148" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" ht="27" spans="1:6">
-      <c r="A149" s="2" t="s">
+    </row>
+    <row r="149" ht="27" spans="1:5">
+      <c r="A149" s="2" t="str">
+        <f>D149</f>
+        <v>地狱的吹雪</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E149" s="2" t="s">
+    </row>
+    <row r="150" ht="27" spans="1:5">
+      <c r="A150" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="F149" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" ht="27" spans="1:6">
-      <c r="A150" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="F150" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E151" s="2" t="s">
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="152" ht="40.5" spans="1:6">
-      <c r="A152" s="2" t="s">
+      <c r="B152" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F152" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="153" ht="27" spans="1:5">
@@ -8251,33 +8216,145 @@
         <v>蒂法·洛克哈特</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E153" s="2" t="s">
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="154" spans="2:3">
       <c r="B154" s="2" t="s">
-        <v>80</v>
+        <v>673</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>80</v>
+        <v>674</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" ht="27" spans="1:6">
+      <c r="A155" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="27" spans="1:6">
+      <c r="A156" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" ht="27" spans="1:6">
+      <c r="A157" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" ht="27" spans="1:6">
+      <c r="A159" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F159" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G154">
-    <sortState ref="A2:G154">
-      <sortCondition ref="E1"/>
-    </sortState>
+  <autoFilter ref="A1:G159">
     <extLst/>
   </autoFilter>
+  <sortState ref="A2:G154">
+    <sortCondition ref="F2:F154"/>
+  </sortState>
   <conditionalFormatting sqref="B4">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
@@ -8309,7 +8386,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B75" r:id="rId2" display="ZZZ_LING.safetensors"/>
+    <hyperlink ref="B120" r:id="rId2" display="ZZZ_LING.safetensors"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8335,138 +8412,138 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8998,562 +9075,562 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" ht="54" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
     </row>
     <row r="62" ht="67.5" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
     </row>
     <row r="65" ht="108" spans="1:3">
       <c r="A65" s="5" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="5" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="5" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:2">
       <c r="A68" s="5" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
     </row>
     <row r="69" ht="27" spans="1:3">
       <c r="A69" s="5" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
     </row>
     <row r="70" ht="81" spans="1:2">
       <c r="A70" s="5" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -9859,8 +9936,8 @@
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.2166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9871,365 +9948,377 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
     </row>
     <row r="44" ht="81" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="45" ht="54" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="46" ht="108" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3"/>
@@ -10640,467 +10729,467 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>927</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>928</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>929</v>
+        <v>954</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>930</v>
+        <v>955</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>931</v>
+        <v>956</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>932</v>
+        <v>957</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>933</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>934</v>
+        <v>959</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>935</v>
+        <v>960</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>936</v>
+        <v>961</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>937</v>
+        <v>962</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>938</v>
+        <v>963</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>939</v>
+        <v>964</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>940</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>941</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>942</v>
+        <v>967</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>943</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>944</v>
+        <v>969</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>945</v>
+        <v>970</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>946</v>
+        <v>971</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>947</v>
+        <v>972</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>948</v>
+        <v>973</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>949</v>
+        <v>974</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>950</v>
+        <v>975</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>951</v>
+        <v>976</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>952</v>
+        <v>977</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>954</v>
+        <v>979</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>955</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>956</v>
+        <v>981</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>957</v>
+        <v>982</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>958</v>
+        <v>983</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>959</v>
+        <v>984</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>960</v>
+        <v>985</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>961</v>
+        <v>986</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>962</v>
+        <v>987</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>963</v>
+        <v>988</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>964</v>
+        <v>989</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>965</v>
+        <v>990</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>966</v>
+        <v>991</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>967</v>
+        <v>992</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>968</v>
+        <v>993</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>969</v>
+        <v>994</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>970</v>
+        <v>995</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>964</v>
+        <v>989</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>971</v>
+        <v>996</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>972</v>
+        <v>997</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>973</v>
+        <v>998</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>974</v>
+        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>975</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>976</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>977</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>978</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>979</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>961</v>
+        <v>986</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>980</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>982</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>983</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>984</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>967</v>
+        <v>992</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>985</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>986</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>987</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>988</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>989</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>990</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>991</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>992</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>993</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>994</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>995</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>996</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>997</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>998</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>999</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>1000</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1001</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1002</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>1003</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>1004</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>1005</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>1006</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>1007</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1008</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1009</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>1010</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>1011</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1012</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>1013</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1014</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1015</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>1016</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1052">
   <si>
     <t>氛围Lora列表</t>
   </si>
@@ -1778,7 +1778,7 @@
     <t>sailor_venus_v2.safetensors</t>
   </si>
   <si>
-    <t>sv1, red bow,white gloves, jewelry</t>
+    <t>sv1, red bow,white gloves, jewelry, yellow hair</t>
   </si>
   <si>
     <t>爱野美奈子</t>
@@ -2623,6 +2623,36 @@
   </si>
   <si>
     <t>HUD_Wht_Gwn, off-shoulder, Edwardian era white dress, long dress, puffy short sleeves, flower, fitted bodice, pearl necklace, chest bow, lace appliques</t>
+  </si>
+  <si>
+    <t>clothes/AMechaSSS[color_theme,mecha musume, mechanical parts,robot joints,headgear].safetensors</t>
+  </si>
+  <si>
+    <t>mecha musume,mechanical parts,robot joints,headgear</t>
+  </si>
+  <si>
+    <t>clothes/w1d3sl1ng3-000009.safetensors</t>
+  </si>
+  <si>
+    <t>swimsuit, shiny clothes, breasts apart, thighs,  cameltoe</t>
+  </si>
+  <si>
+    <t>clothes/phpose-000011r.safetensors</t>
+  </si>
+  <si>
+    <t>phpose</t>
+  </si>
+  <si>
+    <t>不要骨骼</t>
+  </si>
+  <si>
+    <t>clothes/tutu-08.safetensors</t>
+  </si>
+  <si>
+    <t>tutu</t>
+  </si>
+  <si>
+    <t>巴蕾</t>
   </si>
   <si>
     <t>概念Lora列表</t>
@@ -5394,11 +5424,11 @@
   <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7837,7 +7867,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" ht="27" spans="1:6">
       <c r="A132" s="2" t="s">
         <v>577</v>
       </c>
@@ -9061,8 +9091,8 @@
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9633,21 +9663,43 @@
         <v>860</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+    <row r="71" ht="40.5" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="72" ht="40.5" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="5"/>
@@ -9948,20 +10000,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>713</v>
@@ -9969,212 +10021,212 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>711</v>
@@ -10182,142 +10234,142 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
     </row>
     <row r="36" ht="67.5" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
     </row>
     <row r="44" ht="81" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="45" ht="54" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
     </row>
     <row r="46" ht="108" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
     </row>
     <row r="47" ht="40.5" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -10729,467 +10781,467 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>

--- a/全Lora.xlsx
+++ b/全Lora.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="氛围" sheetId="4" r:id="rId1"/>
     <sheet name="角色" sheetId="3" r:id="rId2"/>
-    <sheet name="动作" sheetId="5" r:id="rId3"/>
-    <sheet name="衣服" sheetId="6" r:id="rId4"/>
-    <sheet name="概念" sheetId="7" r:id="rId5"/>
-    <sheet name="场景" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="Pony角色" sheetId="9" r:id="rId3"/>
+    <sheet name="动作" sheetId="5" r:id="rId4"/>
+    <sheet name="衣服" sheetId="6" r:id="rId5"/>
+    <sheet name="概念" sheetId="7" r:id="rId6"/>
+    <sheet name="场景" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">角色!$A$1:$G$159</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1161">
   <si>
     <t>氛围Lora列表</t>
   </si>
@@ -380,7 +380,7 @@
     <t>qingque-str-v2cr.safetensors</t>
   </si>
   <si>
-    <t>qingque, bare shoulders, black boots</t>
+    <t>qingque, bare shoulders,</t>
   </si>
   <si>
     <t>青雀</t>
@@ -543,7 +543,7 @@
     <t>boa_hancock_v1.safetensors</t>
   </si>
   <si>
-    <t>hancock1, 1girl, boa hancock, earrings, large breasts, cleavage, long hair, epaulettes, cape, crop top, long sleeves, side slit,black hair</t>
+    <t>hancock1, 1girl, boa hancock, earrings, large breasts, cleavage, long hair, epaulettes, cape, crop top, side slit,black hair</t>
   </si>
   <si>
     <t>波雅·汉库克</t>
@@ -826,7 +826,7 @@
     <t>动漫角色\原神\lisa1-000010.safetensors</t>
   </si>
   <si>
-    <t>lisadef,witch hat, brown hair,green eyes,</t>
+    <t>lisadef,brown hair,green eyes,</t>
   </si>
   <si>
     <t>丽莎</t>
@@ -2118,6 +2118,96 @@
     <t>DakiV4, long hair,((black hair)), hair ornament,</t>
   </si>
   <si>
+    <t>PonyChar/Rem.safetensors</t>
+  </si>
+  <si>
+    <t>Rem, blue hair,</t>
+  </si>
+  <si>
+    <t>PonyChar/jingliuponyxl4.safetensors</t>
+  </si>
+  <si>
+    <t>jingliu \(honkai: star rail\)</t>
+  </si>
+  <si>
+    <t>PonyChar/fuxuan-strPO-v1b.safetensors</t>
+  </si>
+  <si>
+    <t>fuxuan, white pantyhose, high heels</t>
+  </si>
+  <si>
+    <t>PonyChar/march7thponyxl3.safetensors</t>
+  </si>
+  <si>
+    <t>march 7th \(honkai: star rail\)</t>
+  </si>
+  <si>
+    <t>PonyChar/kafka_1k_pony.safetensors</t>
+  </si>
+  <si>
+    <t>1girl, kafka_\(honkai:_star_rail\), eyewear_on_head, sunglasses, large_breasts, round_eyewear,</t>
+  </si>
+  <si>
+    <t>PonyChar/qingqueponyxl-10.safetensors</t>
+  </si>
+  <si>
+    <t>qingque \(honkai: star rail\)</t>
+  </si>
+  <si>
+    <t>PonyChar/silverwolfponyxl.safetensors</t>
+  </si>
+  <si>
+    <t>silver wolf \(honkai: star rail\)</t>
+  </si>
+  <si>
+    <t>PonyChar/astaponyxl1.safetensors</t>
+  </si>
+  <si>
+    <t>asta \(honkai: star rail\)</t>
+  </si>
+  <si>
+    <t>PonyChar/seeleponyxl.safetensors</t>
+  </si>
+  <si>
+    <t>seele \(honkai: star rail\)</t>
+  </si>
+  <si>
+    <t>PonyChar/himekoponyxl2.safetensors</t>
+  </si>
+  <si>
+    <t>himeko \(honkai: star rail\)</t>
+  </si>
+  <si>
+    <t>PonyChar/kanroji_mitsuri_pdxl_goofy.safetensors</t>
+  </si>
+  <si>
+    <t>kanroji-mitsuri,green eyes, multicolored hair, twin_braids</t>
+  </si>
+  <si>
+    <t>PonyChar/shinobu-kochou-ponyxl-lora-nochekaiser.safetensors</t>
+  </si>
+  <si>
+    <t>shinobu kochou,  black hair, butterfly, butterfly hair ornament, butterfly print,  gradient hair, hair ornament, multicolored hair, parted bangs, purple hair, short hair, two-tone hair,</t>
+  </si>
+  <si>
+    <t>PonyChar/NezukoPony_v2.safetensors</t>
+  </si>
+  <si>
+    <t>kamado nezuko,1girl, black hair, pink eyes, magenta pupils, pink hair ribbon, two-tone hair</t>
+  </si>
+  <si>
+    <t>PonyChar/uta_(one_piece).safetensors</t>
+  </si>
+  <si>
+    <t>,uta_\(one_piece\),</t>
+  </si>
+  <si>
+    <t>PonyChar/Char-Genshin-Furina-Pony-V1.safetensors</t>
+  </si>
+  <si>
+    <t>furina \(genshin impact\)</t>
+  </si>
+  <si>
     <t>动作Lora列表</t>
   </si>
   <si>
@@ -2406,6 +2496,9 @@
     <t>latex bikesuit</t>
   </si>
   <si>
+    <t>紧身摩托服</t>
+  </si>
+  <si>
     <t>clothes/towelConv2D2.5e-5_BF16.safetensors</t>
   </si>
   <si>
@@ -2646,13 +2739,55 @@
     <t>不要骨骼</t>
   </si>
   <si>
-    <t>clothes/tutu-08.safetensors</t>
-  </si>
-  <si>
-    <t>tutu</t>
+    <t>clothes/ballet_dance.safetensors</t>
+  </si>
+  <si>
+    <t>wearing ballet dress,wearing tutu,in theater,ballet corp</t>
   </si>
   <si>
     <t>巴蕾</t>
+  </si>
+  <si>
+    <t>clothes/holov7.safetensors</t>
+  </si>
+  <si>
+    <t>holographic,holographic clothing</t>
+  </si>
+  <si>
+    <t>镭射衣</t>
+  </si>
+  <si>
+    <t>clothes/edgFlowerGownv1.safetensors</t>
+  </si>
+  <si>
+    <t>ballgown, edgPetal, a woman wearing a ballgown made of flower petals ,wearing edgPetal</t>
+  </si>
+  <si>
+    <t>皇家礼服</t>
+  </si>
+  <si>
+    <t>clothes/FishnetBunnyV1.safetensors</t>
+  </si>
+  <si>
+    <t>fishnet bodysuit,reverse bunnysuit,heart pasties</t>
+  </si>
+  <si>
+    <t>clothes/NunBreastCurtains.safetensors</t>
+  </si>
+  <si>
+    <t>nun,breast curtains,pelvic curtain</t>
+  </si>
+  <si>
+    <t>奶盖修女服</t>
+  </si>
+  <si>
+    <t>clothes/girllikevampireballet.safetensors</t>
+  </si>
+  <si>
+    <t>((vampire ballet)), ((tiptoe on railings)), ((fist gloves)), glowing eyes, lace leotard, chiffon tutu, bat wings, scrunchie, night, candle, skylight, spiral stairs, bloody stains, mansion Interior, dark fantasy, tyndall effect, ornate decorative windows,</t>
+  </si>
+  <si>
+    <t>恶魔芭蕾</t>
   </si>
   <si>
     <t>概念Lora列表</t>
@@ -2947,6 +3082,202 @@
   </si>
   <si>
     <t>ferris wheel,overlooking the scenery,glass housing in low sky,amusement park,fireworks</t>
+  </si>
+  <si>
+    <t>concept/slap mark2-000008.safetensors</t>
+  </si>
+  <si>
+    <t>slap mark</t>
+  </si>
+  <si>
+    <t>屁股手印</t>
+  </si>
+  <si>
+    <t>concept/presentingpanties-10.safetensors</t>
+  </si>
+  <si>
+    <t>presentingpanties,panties, holding,holding panties</t>
+  </si>
+  <si>
+    <t>手拿内裤</t>
+  </si>
+  <si>
+    <t>concept/concept-pussy_on_glass-v1.safetensors</t>
+  </si>
+  <si>
+    <t>crotch on glass</t>
+  </si>
+  <si>
+    <t>panties, from below, facing away
+panties, from below, facing viewer
+panties, from behind, facing away
+panties, from below, facing to the side</t>
+  </si>
+  <si>
+    <t>concept/0156 bubble bath_v1 (1).safetensors</t>
+  </si>
+  <si>
+    <t>ruanyi0156,soap bubbles,nude,bathing,barefoot</t>
+  </si>
+  <si>
+    <t>泡泡浴</t>
+  </si>
+  <si>
+    <t>负向: nipple, pussy</t>
+  </si>
+  <si>
+    <t>concept/cheekpoke-10.safetensors</t>
+  </si>
+  <si>
+    <t>cheek poking</t>
+  </si>
+  <si>
+    <t>吃黄瓜</t>
+  </si>
+  <si>
+    <t>concept/qqq-lick_my_feet-v2.safetensors</t>
+  </si>
+  <si>
+    <t>foot, feet, foot focus</t>
+  </si>
+  <si>
+    <t>sitting on chair, pantyhose</t>
+  </si>
+  <si>
+    <t>concept/giantess-10.safetensors</t>
+  </si>
+  <si>
+    <t>giantess,
+an anime artwork of a young lady standing on a tall city building, 1girl, solo, giantess, black skirt, sky, giant, cloud, day, full body, blue sky, city,</t>
+  </si>
+  <si>
+    <t>giantess-10.safetensors</t>
+  </si>
+  <si>
+    <t>concept/Concept_Undressing.safetensors</t>
+  </si>
+  <si>
+    <t>undressing</t>
+  </si>
+  <si>
+    <t>不用动作</t>
+  </si>
+  <si>
+    <t>concept/breasts_on_glass.safetensors</t>
+  </si>
+  <si>
+    <t>Breasts on glass,against glass,breast press</t>
+  </si>
+  <si>
+    <t>concept/Concept_ChairExposure.safetensors</t>
+  </si>
+  <si>
+    <t>from behind, 1girl, chair exposure, ass, skirt lift, pleated skirt, looking back</t>
+  </si>
+  <si>
+    <t>concept/UnderButtV4-000120.safetensors</t>
+  </si>
+  <si>
+    <t>UnderButt</t>
+  </si>
+  <si>
+    <t>从下往屁股看</t>
+  </si>
+  <si>
+    <t>concept/bottle2-000026.safetensors</t>
+  </si>
+  <si>
+    <t>phgls,in container,bottle</t>
+  </si>
+  <si>
+    <t>瓶中少女</t>
+  </si>
+  <si>
+    <t>concept/through_the_thighs-10.safetensors</t>
+  </si>
+  <si>
+    <t>through_the_thighs,thighs, thigh focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大腿间视角 </t>
+  </si>
+  <si>
+    <t>concept/washing_body_v09a.safetensors</t>
+  </si>
+  <si>
+    <t>washing body, holding sponge, sponge, soap bubbles,</t>
+  </si>
+  <si>
+    <t>海绵洗身体</t>
+  </si>
+  <si>
+    <t>concept/stuck_in_washing_machine_v0.1.safetensors</t>
+  </si>
+  <si>
+    <t>stuck,washing machine,ass</t>
+  </si>
+  <si>
+    <t>困在洗衣机</t>
+  </si>
+  <si>
+    <t>concept/xiala.safetensors</t>
+  </si>
+  <si>
+    <t>xiala, 1girl, solo, clothes_pull, cleavage, shirt_pull,</t>
+  </si>
+  <si>
+    <t>下拉衣服漏出胸部</t>
+  </si>
+  <si>
+    <t>concept/CARDOGGY.safetensors</t>
+  </si>
+  <si>
+    <t>CarDoggy,passpose</t>
+  </si>
+  <si>
+    <t>爬入车后视角</t>
+  </si>
+  <si>
+    <t>concept/eropose_allfours.safetensors</t>
+  </si>
+  <si>
+    <t>all fours, eropose, from behind</t>
+  </si>
+  <si>
+    <t>四足狗爬，后视角</t>
+  </si>
+  <si>
+    <t>concept/squatting_open_legs_v3.safetensors</t>
+  </si>
+  <si>
+    <t>sol, squatting, spread legs</t>
+  </si>
+  <si>
+    <t>concept/ass-to-ass_looking_at_viewer_v1.safetensors</t>
+  </si>
+  <si>
+    <t>atalav, 2girls, ass, ass-to-ass, looking at viewer, looking back,</t>
+  </si>
+  <si>
+    <t>双人屁股对屁股</t>
+  </si>
+  <si>
+    <t>concept/Cave-10.safetensors</t>
+  </si>
+  <si>
+    <t>cave interior</t>
+  </si>
+  <si>
+    <t>洞穴背景</t>
+  </si>
+  <si>
+    <t>concept/bus interior_v1.safetensors</t>
+  </si>
+  <si>
+    <t>ruanyi047</t>
+  </si>
+  <si>
+    <t>https://civitai.com/models/245675/bus-interior</t>
   </si>
   <si>
     <t>anime girl wearing white kimono and standing near a pond watching a full moon, 1girl, japanese clothes, kimono, night, solo, outdoors, yellow eyes, floral print, looking at viewer, moon, ponytail, sky, reflection, star (sky), bangs, starry sky, sash, long hair, obi, lake, night sky</t>
@@ -3930,7 +4261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3944,6 +4275,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4256,8 +4590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24251920" y="12344400"/>
-          <a:ext cx="2420620" cy="818515"/>
+          <a:off x="24251920" y="8915400"/>
+          <a:ext cx="2420620" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4668,7 +5002,7 @@
   <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.6666666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -5420,15 +5754,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B116" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C133" sqref="C133"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -5462,7 +5796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:5">
+    <row r="2" ht="54" hidden="1" spans="1:5">
       <c r="A2" s="2" t="str">
         <f>D2</f>
         <v>拉姆</v>
@@ -5480,7 +5814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:5">
+    <row r="3" ht="40.5" hidden="1" spans="1:5">
       <c r="A3" s="2" t="str">
         <f>D3</f>
         <v>白</v>
@@ -5641,7 +5975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="40.5" spans="1:5">
+    <row r="11" ht="40.5" hidden="1" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>119</v>
       </c>
@@ -5698,7 +6032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="67.5" spans="1:5">
+    <row r="14" ht="67.5" hidden="1" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>132</v>
       </c>
@@ -5715,7 +6049,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:5">
+    <row r="15" ht="27" hidden="1" spans="1:5">
       <c r="A15" s="2" t="str">
         <f>D15</f>
         <v>桂乃芬</v>
@@ -5733,7 +6067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:5">
+    <row r="16" ht="27" hidden="1" spans="1:5">
       <c r="A16" s="2" t="str">
         <f>D16</f>
         <v>克莱因</v>
@@ -5771,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" hidden="1" spans="1:5">
       <c r="A18" s="2" t="str">
         <f>D18</f>
         <v>卡莎</v>
@@ -5952,7 +6286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" hidden="1" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>180</v>
       </c>
@@ -5971,7 +6305,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="str">
-        <f>D28</f>
+        <f t="shared" ref="A28:A34" si="0">D28</f>
         <v>薇薇</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5990,9 +6324,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" hidden="1" spans="1:5">
       <c r="A29" s="2" t="str">
-        <f>D29</f>
+        <f t="shared" si="0"/>
         <v>蕾玖</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -6008,9 +6342,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="2" t="str">
-        <f>D30</f>
+        <f t="shared" si="0"/>
         <v>斯图西</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -6026,9 +6360,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="2" t="str">
-        <f>D31</f>
+        <f t="shared" si="0"/>
         <v>妮可·罗宾</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -6044,9 +6378,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="2" t="str">
-        <f>D32</f>
+        <f t="shared" si="0"/>
         <v>卡莉法</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -6062,9 +6396,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" ht="40.5" spans="1:5">
+    <row r="33" ht="40.5" hidden="1" spans="1:5">
       <c r="A33" s="2" t="str">
-        <f>D33</f>
+        <f t="shared" si="0"/>
         <v>乔艾莉·波妮 (Jewelry Bonney)</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -6080,9 +6414,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:5">
+    <row r="34" ht="27" hidden="1" spans="1:5">
       <c r="A34" s="2" t="str">
-        <f>D34</f>
+        <f t="shared" si="0"/>
         <v>蕾贝卡（Rebecca）</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -6139,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:5">
+    <row r="37" ht="27" hidden="1" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>213</v>
       </c>
@@ -6239,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="1:5">
+    <row r="42" ht="27" hidden="1" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>232</v>
       </c>
@@ -6277,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" ht="54" spans="1:5">
+    <row r="44" ht="54" hidden="1" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>239</v>
       </c>
@@ -6294,7 +6628,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" ht="40.5" spans="1:5">
+    <row r="45" ht="40.5" hidden="1" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>243</v>
       </c>
@@ -6311,7 +6645,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="46" ht="40.5" spans="1:5">
+    <row r="46" ht="40.5" hidden="1" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>247</v>
       </c>
@@ -6369,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" ht="27" spans="1:5">
+    <row r="49" ht="27" hidden="1" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>256</v>
       </c>
@@ -6406,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" ht="27" spans="1:5">
+    <row r="51" ht="27" hidden="1" spans="1:5">
       <c r="A51" s="2" t="s">
         <v>264</v>
       </c>
@@ -6423,7 +6757,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" ht="40.5" spans="1:5">
+    <row r="52" ht="40.5" hidden="1" spans="1:5">
       <c r="A52" s="2" t="str">
         <f>D52</f>
         <v>罗莎莉亚</v>
@@ -6441,7 +6775,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" hidden="1" spans="1:5">
       <c r="A53" s="2" t="str">
         <f>D53</f>
         <v>莫娜</v>
@@ -6459,7 +6793,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="54" ht="54" spans="1:5">
+    <row r="54" ht="54" hidden="1" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>273</v>
       </c>
@@ -6476,7 +6810,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="55" ht="27" spans="1:5">
+    <row r="55" ht="27" hidden="1" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>277</v>
       </c>
@@ -6513,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" ht="40.5" spans="1:5">
+    <row r="57" ht="40.5" hidden="1" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>284</v>
       </c>
@@ -6530,7 +6864,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" ht="40.5" spans="1:5">
+    <row r="58" ht="40.5" hidden="1" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>287</v>
       </c>
@@ -6567,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:5">
+    <row r="60" ht="27" hidden="1" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>294</v>
       </c>
@@ -6685,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" ht="27" spans="1:5">
+    <row r="66" ht="27" hidden="1" spans="1:5">
       <c r="A66" s="2" t="str">
         <f>D66</f>
         <v>宵宫</v>
@@ -6703,7 +7037,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="1:5">
+    <row r="67" ht="27" hidden="1" spans="1:5">
       <c r="A67" s="2" t="s">
         <v>319</v>
       </c>
@@ -6741,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" ht="27" spans="1:5">
+    <row r="69" ht="27" hidden="1" spans="1:5">
       <c r="A69" s="2" t="str">
         <f>D69</f>
         <v>绮良良</v>
@@ -6759,7 +7093,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="70" ht="40.5" spans="1:5">
+    <row r="70" ht="40.5" hidden="1" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>329</v>
       </c>
@@ -6776,7 +7110,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:5">
+    <row r="71" ht="27" hidden="1" spans="1:5">
       <c r="A71" s="2" t="s">
         <v>333</v>
       </c>
@@ -6814,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:5">
+    <row r="73" ht="27" hidden="1" spans="1:5">
       <c r="A73" s="2" t="str">
         <f>D73</f>
         <v>娜维娅</v>
@@ -6832,7 +7166,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="74" ht="27" spans="1:5">
+    <row r="74" ht="27" hidden="1" spans="1:5">
       <c r="A74" s="2" t="str">
         <f>D74</f>
         <v>宵宫</v>
@@ -6891,7 +7225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" hidden="1" spans="1:5">
       <c r="A77" s="2" t="str">
         <f>D77</f>
         <v>七七</v>
@@ -6909,7 +7243,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" ht="27" spans="1:5">
+    <row r="78" ht="27" hidden="1" spans="1:5">
       <c r="A78" s="2" t="str">
         <f>D78</f>
         <v>Clorinde</v>
@@ -6968,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="27" spans="1:5">
+    <row r="81" ht="27" hidden="1" spans="1:5">
       <c r="A81" s="2" t="s">
         <v>363</v>
       </c>
@@ -6985,7 +7319,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="82" ht="27" spans="1:5">
+    <row r="82" ht="27" hidden="1" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>368</v>
       </c>
@@ -7002,7 +7336,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="83" ht="40.5" spans="1:5">
+    <row r="83" ht="40.5" hidden="1" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>373</v>
       </c>
@@ -7019,7 +7353,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="84" ht="27" spans="1:5">
+    <row r="84" ht="27" hidden="1" spans="1:5">
       <c r="A84" s="2" t="str">
         <f>D84</f>
         <v>佩罗娜（Perona）</v>
@@ -7037,7 +7371,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" ht="27" spans="1:5">
+    <row r="85" ht="27" hidden="1" spans="1:5">
       <c r="A85" s="2" t="s">
         <v>382</v>
       </c>
@@ -7054,7 +7388,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" hidden="1" spans="1:5">
       <c r="A86" s="2" t="s">
         <v>387</v>
       </c>
@@ -7071,7 +7405,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="87" ht="54" spans="1:5">
+    <row r="87" ht="54" hidden="1" spans="1:5">
       <c r="A87" s="2" t="s">
         <v>392</v>
       </c>
@@ -7088,7 +7422,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="88" ht="40.5" spans="1:5">
+    <row r="88" ht="40.5" hidden="1" spans="1:5">
       <c r="A88" s="2" t="s">
         <v>396</v>
       </c>
@@ -7125,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="40.5" spans="1:5">
+    <row r="90" ht="40.5" hidden="1" spans="1:5">
       <c r="A90" s="2" t="s">
         <v>406</v>
       </c>
@@ -7142,7 +7476,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="1:5">
+    <row r="91" ht="27" hidden="1" spans="1:5">
       <c r="A91" s="2" t="s">
         <v>410</v>
       </c>
@@ -7159,7 +7493,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="92" ht="40.5" spans="1:5">
+    <row r="92" ht="40.5" hidden="1" spans="1:5">
       <c r="A92" s="2" t="str">
         <f>D92</f>
         <v>芙蕾雅</v>
@@ -7177,7 +7511,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" hidden="1" spans="1:5">
       <c r="A93" s="2" t="str">
         <f>D93</f>
         <v>源赖光</v>
@@ -7195,7 +7529,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="94" ht="54" spans="1:5">
+    <row r="94" ht="54" hidden="1" spans="1:5">
       <c r="A94" s="2" t="s">
         <v>422</v>
       </c>
@@ -7212,7 +7546,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" hidden="1" spans="1:5">
       <c r="A95" s="2" t="s">
         <v>426</v>
       </c>
@@ -7229,7 +7563,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="96" ht="27" spans="1:5">
+    <row r="96" ht="27" hidden="1" spans="1:5">
       <c r="A96" s="2" t="str">
         <f>D96</f>
         <v>Barghest</v>
@@ -7247,7 +7581,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" hidden="1" spans="1:5">
       <c r="A97" s="2" t="str">
         <f>D97</f>
         <v>Passionlip</v>
@@ -7265,7 +7599,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="98" ht="27" spans="1:5">
+    <row r="98" ht="27" hidden="1" spans="1:5">
       <c r="A98" s="2" t="s">
         <v>436</v>
       </c>
@@ -7282,7 +7616,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="99" ht="54" spans="1:5">
+    <row r="99" ht="54" hidden="1" spans="1:5">
       <c r="A99" s="2" t="str">
         <f>D99</f>
         <v>贞德·Alter（黑贞德）</v>
@@ -7300,7 +7634,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" hidden="1" spans="1:5">
       <c r="A100" s="2" t="str">
         <f>D100</f>
         <v>梦芽</v>
@@ -7318,7 +7652,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" hidden="1" spans="1:5">
       <c r="A101" s="2" t="str">
         <f>D101</f>
         <v>初音未来</v>
@@ -7336,7 +7670,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" hidden="1" spans="1:5">
       <c r="A102" s="2" t="str">
         <f>D102</f>
         <v>威廉艾</v>
@@ -7354,7 +7688,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="103" ht="67.5" spans="1:5">
+    <row r="103" ht="67.5" hidden="1" spans="1:5">
       <c r="A103" s="2" t="s">
         <v>457</v>
       </c>
@@ -7371,7 +7705,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="104" ht="27" spans="1:5">
+    <row r="104" ht="27" hidden="1" spans="1:5">
       <c r="A104" s="2" t="str">
         <f>D104</f>
         <v>黑魔女</v>
@@ -7389,7 +7723,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" hidden="1" spans="1:5">
       <c r="A105" s="2" t="str">
         <f>D105</f>
         <v>小鹿缟甘奈</v>
@@ -7407,7 +7741,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="106" ht="27" spans="1:5">
+    <row r="106" ht="27" hidden="1" spans="1:5">
       <c r="A106" s="2" t="str">
         <f>D106</f>
         <v>布莱默顿</v>
@@ -7425,7 +7759,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="107" ht="27" spans="1:5">
+    <row r="107" ht="27" hidden="1" spans="1:5">
       <c r="A107" s="2" t="s">
         <v>474</v>
       </c>
@@ -7442,7 +7776,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="108" ht="67.5" spans="1:5">
+    <row r="108" ht="67.5" hidden="1" spans="1:5">
       <c r="A108" s="2" t="s">
         <v>477</v>
       </c>
@@ -7459,7 +7793,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="109" ht="27" spans="1:5">
+    <row r="109" ht="27" hidden="1" spans="1:5">
       <c r="A109" s="2" t="str">
         <f>D109</f>
         <v>Implacable</v>
@@ -7477,7 +7811,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="1:5">
+    <row r="110" ht="27" hidden="1" spans="1:5">
       <c r="A110" s="2" t="s">
         <v>485</v>
       </c>
@@ -7494,7 +7828,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="111" ht="67.5" spans="1:5">
+    <row r="111" ht="67.5" hidden="1" spans="1:5">
       <c r="A111" s="2" t="s">
         <v>490</v>
       </c>
@@ -7511,7 +7845,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" hidden="1" spans="1:5">
       <c r="A112" s="2" t="str">
         <f>D112</f>
         <v>多多良小伞</v>
@@ -7529,7 +7863,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="113" ht="27" spans="1:5">
+    <row r="113" ht="27" hidden="1" spans="1:5">
       <c r="A113" s="2" t="str">
         <f>D113</f>
         <v>C.C.</v>
@@ -7547,7 +7881,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="114" ht="27" spans="1:5">
+    <row r="114" ht="27" hidden="1" spans="1:5">
       <c r="A114" s="2" t="s">
         <v>503</v>
       </c>
@@ -7564,7 +7898,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" hidden="1" spans="1:5">
       <c r="A115" s="2" t="str">
         <f>D115</f>
         <v>约尔·布莱尔</v>
@@ -7582,7 +7916,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" hidden="1" spans="1:5">
       <c r="A116" s="2" t="str">
         <f>D116</f>
         <v>春丽</v>
@@ -7600,7 +7934,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="117" ht="40.5" spans="1:5">
+    <row r="117" ht="40.5" hidden="1" spans="1:5">
       <c r="A117" s="2" t="str">
         <f>D117</f>
         <v>韩二里（Juri Han）</v>
@@ -7618,7 +7952,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="118" ht="27" spans="1:5">
+    <row r="118" ht="27" hidden="1" spans="1:5">
       <c r="A118" s="2" t="str">
         <f>D118</f>
         <v>罗莎</v>
@@ -7636,7 +7970,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" hidden="1" spans="1:5">
       <c r="A119" s="2" t="s">
         <v>524</v>
       </c>
@@ -7653,7 +7987,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="120" ht="27" spans="1:5">
+    <row r="120" ht="27" hidden="1" spans="1:5">
       <c r="A120" s="2" t="s">
         <v>529</v>
       </c>
@@ -7670,7 +8004,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="121" ht="40.5" spans="1:5">
+    <row r="121" ht="40.5" hidden="1" spans="1:5">
       <c r="A121" s="2" t="s">
         <v>533</v>
       </c>
@@ -7687,7 +8021,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="122" ht="27" spans="1:5">
+    <row r="122" ht="27" hidden="1" spans="1:5">
       <c r="A122" s="2" t="str">
         <f>D122</f>
         <v>11号</v>
@@ -7705,7 +8039,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="123" ht="40.5" spans="1:5">
+    <row r="123" ht="40.5" hidden="1" spans="1:5">
       <c r="A123" s="2" t="str">
         <f>D123</f>
         <v>苏茜</v>
@@ -7723,7 +8057,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="124" ht="27" spans="1:5">
+    <row r="124" ht="27" hidden="1" spans="1:5">
       <c r="A124" s="2" t="s">
         <v>543</v>
       </c>
@@ -7740,7 +8074,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="125" ht="81" spans="1:5">
+    <row r="125" ht="81" hidden="1" spans="1:5">
       <c r="A125" s="2" t="str">
         <f>D125</f>
         <v>朝比奈实玖瑠</v>
@@ -7758,7 +8092,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="126" ht="27" spans="1:5">
+    <row r="126" ht="27" hidden="1" spans="1:5">
       <c r="A126" s="2" t="str">
         <f>D126</f>
         <v>琪琪</v>
@@ -7776,7 +8110,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="127" ht="27" spans="1:5">
+    <row r="127" ht="27" hidden="1" spans="1:5">
       <c r="A127" s="2" t="s">
         <v>555</v>
       </c>
@@ -7793,7 +8127,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="128" ht="27" spans="1:5">
+    <row r="128" ht="27" hidden="1" spans="1:5">
       <c r="A128" s="2" t="s">
         <v>559</v>
       </c>
@@ -7810,7 +8144,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="129" ht="40.5" spans="1:5">
+    <row r="129" ht="40.5" hidden="1" spans="1:5">
       <c r="A129" s="2" t="str">
         <f>D129</f>
         <v>人造人18号</v>
@@ -7828,7 +8162,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="1:7">
+    <row r="130" ht="27" hidden="1" spans="1:7">
       <c r="A130" s="2" t="s">
         <v>568</v>
       </c>
@@ -7849,7 +8183,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="131" ht="27" spans="1:5">
+    <row r="131" ht="27" hidden="1" spans="1:5">
       <c r="A131" s="2" t="str">
         <f>D131</f>
         <v>木野真琴</v>
@@ -7887,9 +8221,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="27" spans="1:5">
+    <row r="133" ht="27" hidden="1" spans="1:5">
       <c r="A133" s="2" t="str">
-        <f>D133</f>
+        <f t="shared" ref="A133:A139" si="1">D133</f>
         <v>阿尼丝·亚尔斯提亚</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -7905,9 +8239,9 @@
         <v>584</v>
       </c>
     </row>
-    <row r="134" ht="27" spans="1:5">
+    <row r="134" ht="27" hidden="1" spans="1:5">
       <c r="A134" s="2" t="str">
-        <f>D134</f>
+        <f t="shared" si="1"/>
         <v>寒鸦</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -7923,9 +8257,9 @@
         <v>588</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" hidden="1" spans="1:5">
       <c r="A135" s="2" t="str">
-        <f>D135</f>
+        <f t="shared" si="1"/>
         <v>扬扬</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -7941,9 +8275,9 @@
         <v>592</v>
       </c>
     </row>
-    <row r="136" ht="40.5" spans="1:5">
+    <row r="136" ht="40.5" hidden="1" spans="1:5">
       <c r="A136" s="2" t="str">
-        <f>D136</f>
+        <f t="shared" si="1"/>
         <v>殷霖</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -7959,9 +8293,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="137" ht="27" spans="1:5">
+    <row r="137" ht="27" hidden="1" spans="1:5">
       <c r="A137" s="2" t="str">
-        <f>D137</f>
+        <f t="shared" si="1"/>
         <v>2B</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -7977,9 +8311,9 @@
         <v>600</v>
       </c>
     </row>
-    <row r="138" ht="27" spans="1:5">
+    <row r="138" ht="27" hidden="1" spans="1:5">
       <c r="A138" s="2" t="str">
-        <f>D138</f>
+        <f t="shared" si="1"/>
         <v>伊丽莎白·里昂妮丝</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -7995,9 +8329,9 @@
         <v>604</v>
       </c>
     </row>
-    <row r="139" ht="67.5" spans="1:5">
+    <row r="139" ht="67.5" hidden="1" spans="1:5">
       <c r="A139" s="2" t="str">
-        <f>D139</f>
+        <f t="shared" si="1"/>
         <v>琳妮特·毕晓普</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -8013,7 +8347,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="140" ht="40.5" spans="1:5">
+    <row r="140" ht="40.5" hidden="1" spans="1:5">
       <c r="A140" s="2" t="s">
         <v>609</v>
       </c>
@@ -8030,7 +8364,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" hidden="1" spans="1:5">
       <c r="A141" s="2" t="str">
         <f>D141</f>
         <v>阿尔比恩</v>
@@ -8048,7 +8382,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" hidden="1" spans="1:5">
       <c r="A142" s="2" t="str">
         <f>D142</f>
         <v>松本乱菊</v>
@@ -8066,7 +8400,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="143" ht="27" spans="1:5">
+    <row r="143" ht="27" hidden="1" spans="1:5">
       <c r="A143" s="2" t="str">
         <f>D143</f>
         <v>陶琪</v>
@@ -8084,7 +8418,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" hidden="1" spans="1:5">
       <c r="A144" s="2" t="str">
         <f>D144</f>
         <v>托尔</v>
@@ -8102,7 +8436,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" hidden="1" spans="1:5">
       <c r="A145" s="2" t="str">
         <f>D145</f>
         <v>绫波丽</v>
@@ -8120,7 +8454,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="146" ht="40.5" spans="1:5">
+    <row r="146" ht="40.5" hidden="1" spans="1:5">
       <c r="A146" s="2" t="s">
         <v>634</v>
       </c>
@@ -8137,7 +8471,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="147" ht="27" spans="1:5">
+    <row r="147" ht="27" hidden="1" spans="1:5">
       <c r="A147" s="2" t="s">
         <v>639</v>
       </c>
@@ -8154,7 +8488,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" hidden="1" spans="1:5">
       <c r="A148" s="2" t="s">
         <v>644</v>
       </c>
@@ -8171,7 +8505,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="149" ht="27" spans="1:5">
+    <row r="149" ht="27" hidden="1" spans="1:5">
       <c r="A149" s="2" t="str">
         <f>D149</f>
         <v>地狱的吹雪</v>
@@ -8189,7 +8523,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="150" ht="27" spans="1:5">
+    <row r="150" ht="27" hidden="1" spans="1:5">
       <c r="A150" s="2" t="s">
         <v>653</v>
       </c>
@@ -8206,7 +8540,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" hidden="1" spans="1:5">
       <c r="A151" s="2" t="s">
         <v>658</v>
       </c>
@@ -8223,7 +8557,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" hidden="1" spans="1:5">
       <c r="A152" s="2" t="s">
         <v>663</v>
       </c>
@@ -8240,7 +8574,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="153" ht="27" spans="1:5">
+    <row r="153" ht="27" hidden="1" spans="1:5">
       <c r="A153" s="2" t="str">
         <f>D153</f>
         <v>蒂法·洛克哈特</v>
@@ -8379,7 +8713,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G159">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G159" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:G154">
@@ -8428,10 +8767,922 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="20.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.75" style="2" customWidth="1"/>
+    <col min="4" max="6" width="20.25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="40.5" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8442,643 +9693,643 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>721</v>
+      <c r="A16" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>751</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>724</v>
+      <c r="A17" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="7"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="7"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="7"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
+      <c r="A134" s="7"/>
+      <c r="B134" s="7"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="7"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="7"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="6"/>
-      <c r="B139" s="6"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="6"/>
-      <c r="B140" s="6"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="7"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="6"/>
-      <c r="B142" s="6"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="7"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="6"/>
-      <c r="B143" s="6"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9086,13 +10337,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8833333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -9105,1661 +10356,914 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="2" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>740</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>742</v>
+        <v>772</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>744</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>745</v>
+        <v>775</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>746</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>747</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>753</v>
+        <v>783</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>754</v>
+        <v>784</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>755</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>756</v>
+        <v>786</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>757</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>758</v>
+        <v>788</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>759</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>761</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>764</v>
+        <v>794</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>765</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>766</v>
+        <v>796</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>767</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>768</v>
+        <v>798</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>769</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>771</v>
+        <v>801</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>773</v>
+        <v>803</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>775</v>
+        <v>805</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>777</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" ht="40.5" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>778</v>
+        <v>808</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>781</v>
+        <v>811</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>786</v>
+        <v>816</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>787</v>
+        <v>817</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>763</v>
+        <v>793</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>804</v>
+        <v>835</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>806</v>
+        <v>837</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" ht="40.5" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
     </row>
     <row r="48" ht="67.5" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
     </row>
     <row r="49" ht="40.5" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>820</v>
+        <v>851</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>821</v>
+        <v>852</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54" ht="27" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
     </row>
     <row r="56" ht="40.5" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
     </row>
     <row r="57" ht="27" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
     </row>
     <row r="58" ht="54" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>834</v>
+        <v>865</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
     </row>
     <row r="59" ht="27" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>839</v>
+      <c r="A60" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="61" ht="27" spans="1:2">
-      <c r="A61" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>841</v>
+      <c r="A61" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="62" ht="67.5" spans="1:2">
-      <c r="A62" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>843</v>
+      <c r="A62" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>845</v>
+      <c r="A63" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="64" ht="27" spans="1:2">
-      <c r="A64" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>847</v>
+      <c r="A64" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="65" ht="108" spans="1:3">
-      <c r="A65" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>849</v>
+      <c r="A65" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>880</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>850</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>852</v>
+      <c r="A66" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>787</v>
+      <c r="A67" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="68" ht="27" spans="1:2">
-      <c r="A68" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>855</v>
+      <c r="A68" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="69" ht="27" spans="1:3">
-      <c r="A69" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>857</v>
+      <c r="A69" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>888</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>858</v>
+        <v>889</v>
       </c>
     </row>
     <row r="70" ht="81" spans="1:2">
-      <c r="A70" s="5" t="s">
-        <v>859</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>860</v>
+      <c r="A70" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="71" ht="40.5" spans="1:2">
-      <c r="A71" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>862</v>
+      <c r="A71" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="72" ht="40.5" spans="1:2">
-      <c r="A72" s="5" t="s">
-        <v>863</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>864</v>
+      <c r="A72" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>866</v>
+      <c r="A73" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>897</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>869</v>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="74" ht="27" spans="1:3">
+      <c r="A74" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>900</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="75" ht="27" spans="1:3">
+      <c r="A75" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="76" ht="54" spans="1:3">
+      <c r="A76" s="6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="77" ht="27" spans="1:2">
+      <c r="A77" s="6" t="s">
+        <v>908</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="78" ht="27" spans="1:3">
+      <c r="A78" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="79" ht="135" spans="1:3">
+      <c r="A79" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C143"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="37.2166666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="37.2166666666667" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="37.2166666666667" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="28" ht="27" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="29" ht="27" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>926</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="33" ht="27" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>933</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="36" ht="67.5" spans="1:3">
-      <c r="A36" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:3">
-      <c r="A37" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>941</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
-        <v>945</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>952</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="44" ht="81" spans="1:2">
-      <c r="A44" s="3" t="s">
-        <v>954</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="45" ht="54" spans="1:2">
-      <c r="A45" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="46" ht="108" spans="1:2">
-      <c r="A46" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="47" ht="40.5" spans="1:2">
-      <c r="A47" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1" display="concept/torn.safetensors"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -10768,10 +11272,946 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C75" sqref="C74:C75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="37.2166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="37.2166666666667" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="37.2166666666667" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>971</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="36" ht="67.5" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="44" ht="81" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" ht="54" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="46" ht="108" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:2">
+      <c r="A47" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="49" ht="27" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="50" ht="67.5" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:4">
+      <c r="A51" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="54" ht="81" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="58" ht="27" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="62" ht="27" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="63" ht="27" spans="1:3">
+      <c r="A63" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="66" ht="27" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="67" ht="27" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" display="concept/torn.safetensors"/>
+    <hyperlink ref="C69" r:id="rId2" display="https://civitai.com/models/245675/bus-interior"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A94"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10781,487 +12221,471 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>962</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>963</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>964</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>965</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>966</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>967</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>968</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>969</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>970</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>971</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>972</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>973</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>974</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>975</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>976</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>977</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>978</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>979</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>980</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>981</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>982</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>983</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>984</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>985</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>986</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>987</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>988</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>989</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>990</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>991</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>992</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>993</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>994</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>995</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>996</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>997</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>998</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>999</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1000</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1001</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>1002</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>1003</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>1004</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1005</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>999</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>1006</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>1007</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>1008</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>1009</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1010</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>1011</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>1012</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>1013</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1014</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>996</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>1015</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1016</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>1017</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>1018</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>1019</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1002</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>1020</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>1021</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1022</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>1023</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>1024</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1025</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>1026</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1027</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1028</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>1029</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>1030</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>1031</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>1032</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>1033</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>1034</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>1035</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1036</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1037</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>1038</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>1039</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>1040</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>1041</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>1042</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1043</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1044</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>1045</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>1046</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1047</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>1048</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1049</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1050</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>1051</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E82"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>